--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1150">
   <si>
     <t>key</t>
   </si>
@@ -3799,6 +3799,18 @@
   </si>
   <si>
     <t>java.error.Size</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4272,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8584,155 +8596,166 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>954</v>
+        <v>1148</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>956</v>
+        <v>1149</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>957</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>748</v>
+        <v>954</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>749</v>
+        <v>956</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>750</v>
+        <v>957</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>578</v>
+        <v>749</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>579</v>
+        <v>750</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>826</v>
+        <v>578</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>827</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1026</v>
+        <v>826</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1027</v>
+        <v>827</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>428</v>
+        <v>1025</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>429</v>
+        <v>1026</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>430</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>629</v>
+        <v>430</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>421</v>
+        <v>629</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>933</v>
+        <v>419</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>934</v>
+        <v>420</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>935</v>
+        <v>421</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>736</v>
+        <v>933</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>737</v>
+        <v>934</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>738</v>
+        <v>935</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>632</v>
+        <v>744</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A458" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D457" s="1" t="s">
+      <c r="D458" s="1" t="s">
         <v>635</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1159">
   <si>
     <t>key</t>
   </si>
@@ -3810,6 +3810,42 @@
   </si>
   <si>
     <t>Version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paste</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4284,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M380" sqref="M380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6689,65 +6725,65 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>469</v>
+        <v>1155</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>470</v>
+        <v>1154</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>471</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>781</v>
+        <v>470</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>782</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>581</v>
+        <v>781</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>582</v>
+        <v>782</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>538</v>
+        <v>1150</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>539</v>
+        <v>1151</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>540</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>1020</v>
+        <v>538</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1021</v>
+        <v>539</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>540</v>
@@ -6755,2007 +6791,2040 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>5</v>
+        <v>536</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>222</v>
+        <v>537</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>478</v>
+        <v>1020</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>479</v>
+        <v>1021</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>669</v>
+        <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>670</v>
+        <v>5</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>671</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>852</v>
+        <v>669</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>853</v>
+        <v>670</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>854</v>
+        <v>671</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>792</v>
+        <v>854</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>425</v>
+        <v>790</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>426</v>
+        <v>791</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>427</v>
+        <v>792</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>948</v>
+        <v>681</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>949</v>
+        <v>682</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>950</v>
+        <v>683</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>571</v>
+        <v>425</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>572</v>
+        <v>426</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>573</v>
+        <v>427</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>520</v>
+        <v>948</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>522</v>
+        <v>950</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>1037</v>
+        <v>520</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1038</v>
+        <v>521</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1039</v>
+        <v>522</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>774</v>
+        <v>1037</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>24</v>
+        <v>1038</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>775</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>610</v>
+        <v>774</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>611</v>
+        <v>24</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>612</v>
+        <v>775</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>795</v>
+        <v>463</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>796</v>
+        <v>464</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>797</v>
+        <v>465</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>1013</v>
+        <v>795</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1014</v>
+        <v>796</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1015</v>
+        <v>797</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>804</v>
+        <v>583</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>805</v>
+        <v>584</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>806</v>
+        <v>585</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>457</v>
+        <v>1013</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>458</v>
+        <v>1014</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>459</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>1043</v>
+        <v>457</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1044</v>
+        <v>458</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1045</v>
+        <v>459</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>717</v>
+        <v>841</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>718</v>
+        <v>842</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>719</v>
+        <v>1043</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>720</v>
+        <v>1044</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>721</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>618</v>
+        <v>718</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>587</v>
+        <v>720</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>588</v>
+        <v>721</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>757</v>
+        <v>586</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>758</v>
+        <v>587</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>759</v>
+        <v>588</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>895</v>
+        <v>613</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>896</v>
+        <v>614</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>684</v>
+        <v>895</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>686</v>
+        <v>896</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>794</v>
+        <v>703</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>963</v>
+        <v>704</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>777</v>
+        <v>685</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>433</v>
+        <v>686</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>835</v>
+        <v>794</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>836</v>
+        <v>963</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>639</v>
+        <v>776</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>640</v>
+        <v>777</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>641</v>
+        <v>433</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>553</v>
+        <v>834</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>554</v>
+        <v>835</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>555</v>
+        <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>960</v>
+        <v>639</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>961</v>
+        <v>640</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>962</v>
+        <v>641</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>1032</v>
+        <v>553</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1031</v>
+        <v>554</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1033</v>
+        <v>555</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>696</v>
+        <v>960</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>697</v>
+        <v>961</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>698</v>
+        <v>962</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>678</v>
+        <v>1032</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>679</v>
+        <v>1031</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>680</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>876</v>
+        <v>696</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>877</v>
+        <v>697</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>878</v>
+        <v>698</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>959</v>
+        <v>678</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>958</v>
+        <v>679</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>1010</v>
+        <v>876</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1011</v>
+        <v>877</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>955</v>
+        <v>878</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>887</v>
+        <v>959</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>888</v>
+        <v>958</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>858</v>
+        <v>1010</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>859</v>
+        <v>1011</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>860</v>
+        <v>955</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>756</v>
+        <v>860</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>574</v>
+        <v>885</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>576</v>
+        <v>886</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>576</v>
+        <v>756</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>986</v>
+        <v>778</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>917</v>
+        <v>779</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>980</v>
+        <v>576</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>985</v>
+        <v>511</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>918</v>
+        <v>512</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>979</v>
+        <v>513</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>761</v>
+        <v>987</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>762</v>
+        <v>915</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>763</v>
+        <v>982</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>889</v>
+        <v>988</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>890</v>
+        <v>916</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>891</v>
+        <v>761</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>892</v>
+        <v>762</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>969</v>
+        <v>889</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>712</v>
+        <v>892</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>812</v>
+        <v>969</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>813</v>
+        <v>926</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>590</v>
+        <v>711</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>591</v>
+        <v>712</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>528</v>
+        <v>901</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>944</v>
+        <v>589</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>942</v>
+        <v>590</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>943</v>
+        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>809</v>
+        <v>528</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>1072</v>
+        <v>944</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1073</v>
+        <v>942</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>786</v>
+        <v>943</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>870</v>
+        <v>807</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>871</v>
+        <v>808</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>872</v>
+        <v>809</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>642</v>
+        <v>1072</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>643</v>
+        <v>1073</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>644</v>
+        <v>786</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>529</v>
+        <v>870</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>530</v>
+        <v>871</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>531</v>
+        <v>872</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>438</v>
+        <v>643</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>439</v>
+        <v>644</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>811</v>
+        <v>441</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>995</v>
+        <v>442</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>649</v>
+        <v>444</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>650</v>
+        <v>445</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>930</v>
+        <v>810</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>931</v>
+        <v>811</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>932</v>
+        <v>995</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>996</v>
+        <v>648</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>997</v>
+        <v>649</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>998</v>
+        <v>650</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1000</v>
+        <v>931</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1001</v>
+        <v>932</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>731</v>
+        <v>997</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>732</v>
+        <v>998</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>855</v>
+        <v>999</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>856</v>
+        <v>1000</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>857</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>666</v>
+        <v>1006</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>967</v>
+        <v>855</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>928</v>
+        <v>856</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>911</v>
+        <v>857</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>1002</v>
+        <v>666</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1003</v>
+        <v>667</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1004</v>
+        <v>668</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1008</v>
+        <v>928</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1009</v>
+        <v>911</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>431</v>
+        <v>1007</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>432</v>
+        <v>1008</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>433</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>434</v>
+        <v>1022</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>435</v>
+        <v>1023</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>436</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>601</v>
+        <v>431</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>602</v>
+        <v>432</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>603</v>
+        <v>433</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>597</v>
+        <v>436</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>674</v>
+        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>447</v>
+        <v>596</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>447</v>
+        <v>597</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>546</v>
+        <v>447</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>467</v>
+        <v>599</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>468</v>
+        <v>600</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>623</v>
+        <v>546</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>408</v>
+        <v>622</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>409</v>
+        <v>623</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>850</v>
+        <v>411</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>851</v>
+        <v>412</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>828</v>
+        <v>413</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>829</v>
+        <v>414</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>830</v>
+        <v>415</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>728</v>
+        <v>828</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>729</v>
+        <v>829</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>730</v>
+        <v>830</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>727</v>
+        <v>833</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>517</v>
+        <v>1158</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>518</v>
+        <v>1157</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>519</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>592</v>
+        <v>728</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>593</v>
+        <v>729</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>594</v>
+        <v>730</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>676</v>
+        <v>726</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>677</v>
+        <v>727</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>655</v>
+        <v>517</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>656</v>
+        <v>518</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1036</v>
+        <v>519</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>1046</v>
+        <v>592</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1047</v>
+        <v>593</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1048</v>
+        <v>594</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>1029</v>
+        <v>675</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1028</v>
+        <v>676</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1030</v>
+        <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>843</v>
+        <v>655</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>844</v>
+        <v>656</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>845</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>867</v>
+        <v>1046</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>868</v>
+        <v>1047</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>869</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>472</v>
+        <v>1029</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>473</v>
+        <v>1028</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>474</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>976</v>
+        <v>843</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>923</v>
+        <v>844</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1005</v>
+        <v>845</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>559</v>
+        <v>867</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>560</v>
+        <v>868</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>561</v>
+        <v>869</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>973</v>
+        <v>472</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>922</v>
+        <v>473</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>975</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>496</v>
+        <v>976</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>497</v>
+        <v>923</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>498</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>992</v>
+        <v>559</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>993</v>
+        <v>560</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>994</v>
+        <v>561</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>983</v>
+        <v>496</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>919</v>
+        <v>497</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>978</v>
+        <v>498</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>902</v>
+        <v>992</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>903</v>
+        <v>993</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>904</v>
+        <v>994</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>481</v>
+        <v>984</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>482</v>
+        <v>920</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>483</v>
+        <v>977</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>1074</v>
+        <v>983</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1075</v>
+        <v>919</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1015</v>
+        <v>978</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>499</v>
+        <v>902</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>500</v>
+        <v>903</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>501</v>
+        <v>904</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>487</v>
+        <v>1074</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>488</v>
+        <v>1075</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>489</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>945</v>
+        <v>499</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>946</v>
+        <v>500</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>947</v>
+        <v>501</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>705</v>
+        <v>484</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>706</v>
+        <v>485</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>707</v>
+        <v>486</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>801</v>
+        <v>487</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>802</v>
+        <v>488</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>803</v>
+        <v>489</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>532</v>
+        <v>945</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>533</v>
+        <v>946</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>534</v>
+        <v>947</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>502</v>
+        <v>705</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>503</v>
+        <v>706</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>504</v>
+        <v>707</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>416</v>
+        <v>801</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>417</v>
+        <v>802</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>418</v>
+        <v>803</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>722</v>
+        <v>502</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>723</v>
+        <v>503</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>724</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>556</v>
+        <v>416</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>557</v>
+        <v>417</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>558</v>
+        <v>418</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>550</v>
+        <v>722</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>551</v>
+        <v>723</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>552</v>
+        <v>724</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>764</v>
+        <v>556</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>765</v>
+        <v>557</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1012</v>
+        <v>564</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>451</v>
+        <v>764</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>452</v>
+        <v>765</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>690</v>
+        <v>619</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>691</v>
+        <v>620</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>692</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>454</v>
+        <v>607</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>456</v>
+        <v>609</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>767</v>
+        <v>452</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>768</v>
+        <v>453</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>1052</v>
+        <v>690</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1053</v>
+        <v>691</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1054</v>
+        <v>692</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>822</v>
+        <v>454</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>823</v>
+        <v>455</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>824</v>
+        <v>456</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>423</v>
+        <v>767</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>424</v>
+        <v>768</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1018</v>
+        <v>1053</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1019</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>745</v>
+        <v>822</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>747</v>
+        <v>824</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>906</v>
+        <v>422</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>905</v>
+        <v>423</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>907</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>908</v>
+        <v>1017</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>909</v>
+        <v>1018</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>910</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>541</v>
+        <v>745</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>542</v>
+        <v>746</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>543</v>
+        <v>747</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>663</v>
+        <v>906</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>664</v>
+        <v>905</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>665</v>
+        <v>907</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>693</v>
+        <v>908</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>694</v>
+        <v>909</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>695</v>
+        <v>910</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>968</v>
+        <v>541</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>927</v>
+        <v>542</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>913</v>
+        <v>543</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>787</v>
+        <v>663</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>788</v>
+        <v>664</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>789</v>
+        <v>665</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>626</v>
+        <v>695</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>837</v>
+        <v>968</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>838</v>
+        <v>927</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>839</v>
+        <v>913</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>687</v>
+        <v>787</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>688</v>
+        <v>788</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>689</v>
+        <v>789</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>897</v>
+        <v>624</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>898</v>
+        <v>625</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>972</v>
+        <v>837</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>921</v>
+        <v>838</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>974</v>
+        <v>839</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>951</v>
+        <v>687</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>952</v>
+        <v>688</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>953</v>
+        <v>689</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>475</v>
+        <v>897</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>477</v>
+        <v>898</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>568</v>
+        <v>972</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>569</v>
+        <v>921</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>570</v>
+        <v>974</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>769</v>
+        <v>951</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>770</v>
+        <v>952</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>771</v>
+        <v>953</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>772</v>
+        <v>475</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>773</v>
+        <v>476</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>713</v>
+        <v>568</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>714</v>
+        <v>569</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>715</v>
+        <v>570</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>882</v>
+        <v>769</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>883</v>
+        <v>770</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>884</v>
+        <v>771</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>1148</v>
+        <v>772</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1149</v>
+        <v>773</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1147</v>
+        <v>355</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>954</v>
+        <v>713</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>956</v>
+        <v>714</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>957</v>
+        <v>715</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>750</v>
+        <v>884</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>577</v>
+        <v>1148</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>578</v>
+        <v>1149</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>579</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>825</v>
+        <v>954</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>826</v>
+        <v>956</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>827</v>
+        <v>957</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>1025</v>
+        <v>748</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1026</v>
+        <v>749</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1027</v>
+        <v>750</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>428</v>
+        <v>577</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>429</v>
+        <v>578</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>430</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>627</v>
+        <v>825</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>628</v>
+        <v>826</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>629</v>
+        <v>827</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>419</v>
+        <v>1025</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>420</v>
+        <v>1026</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>421</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>933</v>
+        <v>428</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>934</v>
+        <v>429</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>935</v>
+        <v>430</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>736</v>
+        <v>627</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>737</v>
+        <v>628</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>738</v>
+        <v>629</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>739</v>
+        <v>419</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>740</v>
+        <v>420</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>741</v>
+        <v>421</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>742</v>
+        <v>933</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>743</v>
+        <v>934</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>744</v>
+        <v>935</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>632</v>
+        <v>738</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A459" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A460" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A461" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D458" s="1" t="s">
+      <c r="D461" s="1" t="s">
         <v>635</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1160">
   <si>
     <t>key</t>
   </si>
@@ -759,9 +759,6 @@
   </si>
   <si>
     <t>Japanese</t>
-  </si>
-  <si>
-    <t>ckeditor.lang</t>
   </si>
   <si>
     <t>parsley.lang</t>
@@ -3846,6 +3843,14 @@
   </si>
   <si>
     <t>paste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>summernote.lang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja-JP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4322,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M380" sqref="M380"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:XFD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4369,10 +4374,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4382,7 +4387,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -4422,7 +4427,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -4433,7 +4438,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4444,7 +4449,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -4455,7 +4460,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -4477,7 +4482,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -4493,7 +4498,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -4690,7 +4695,7 @@
         <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -4909,7 +4914,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -4919,7 +4924,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -4930,7 +4935,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>139</v>
@@ -4941,54 +4946,54 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>144</v>
@@ -4996,18 +5001,18 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>141</v>
@@ -5018,7 +5023,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>142</v>
@@ -5029,54 +5034,54 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>147</v>
@@ -5084,7 +5089,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>148</v>
@@ -5095,10 +5100,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>150</v>
@@ -5106,51 +5111,51 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>151</v>
@@ -5166,7 +5171,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -5182,7 +5187,7 @@
         <v>154</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -5198,24 +5203,24 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -5253,24 +5258,24 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -5458,10 +5463,10 @@
         <v>212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -5469,10 +5474,10 @@
         <v>213</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
@@ -5564,7 +5569,7 @@
         <v>230</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
@@ -5634,29 +5639,26 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>235</v>
+        <v>1158</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>236</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>235</v>
@@ -5667,7 +5669,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>235</v>
@@ -5681,7 +5683,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>2</v>
@@ -5692,13 +5694,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
@@ -5708,95 +5710,95 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D173" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>156</v>
@@ -5807,476 +5809,476 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D180" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="D181" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="G226" s="1"/>
     </row>
@@ -6294,521 +6296,521 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>735</v>
       </c>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="D238" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="D276" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -6824,647 +6826,647 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="D311" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="D312" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="D322" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="D328" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -7472,1360 +7474,1360 @@
         <v>0</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>813</v>
-      </c>
       <c r="D339" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>815</v>
-      </c>
       <c r="D341" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="D344" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="D351" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="D368" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="D386" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="D399" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="D401" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="D403" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="D405" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="D406" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="D407" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B410" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="D411" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="D413" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="D414" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="D415" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="D416" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="D417" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="D418" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="D419" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="D420" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B421" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="D421" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="D422" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="D423" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="D424" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="D425" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B426" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="D427" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D428" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="D429" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="D430" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="D431" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="D432" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="D434" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="D435" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="D436" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="D440" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="D441" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="D442" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="D443" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>773</v>
-      </c>
       <c r="D444" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="D445" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="D446" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>1149</v>
-      </c>
       <c r="D447" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B448" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D448" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="D449" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="D450" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="D451" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="D452" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="D453" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="D454" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="D455" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="D456" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="D457" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="D458" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="D459" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="D460" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="D461" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1163">
   <si>
     <t>key</t>
   </si>
@@ -3851,6 +3851,21 @@
   </si>
   <si>
     <t>ja-JP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Photo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4325,10 +4340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G461"/>
+  <dimension ref="A1:G462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:XFD163"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E388" sqref="E388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7944,395 +7959,395 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>727</v>
+        <v>1161</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>728</v>
+        <v>1162</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>729</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>518</v>
+        <v>726</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>676</v>
+        <v>593</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1035</v>
+        <v>676</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>1045</v>
+        <v>654</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1046</v>
+        <v>655</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>1028</v>
+        <v>1045</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>842</v>
+        <v>1028</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>843</v>
+        <v>1027</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>844</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>471</v>
+        <v>866</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>473</v>
+        <v>868</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>975</v>
+        <v>471</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>922</v>
+        <v>472</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1004</v>
+        <v>473</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>558</v>
+        <v>975</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>559</v>
+        <v>922</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>560</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>972</v>
+        <v>558</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>921</v>
+        <v>559</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>974</v>
+        <v>560</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>495</v>
+        <v>972</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>496</v>
+        <v>921</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>497</v>
+        <v>974</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>991</v>
+        <v>495</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>992</v>
+        <v>496</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>993</v>
+        <v>497</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>919</v>
+        <v>992</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>901</v>
+        <v>982</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>903</v>
+        <v>977</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>480</v>
+        <v>901</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>481</v>
+        <v>902</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>482</v>
+        <v>903</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>1073</v>
+        <v>480</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1074</v>
+        <v>481</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1014</v>
+        <v>482</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>498</v>
+        <v>1073</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>499</v>
+        <v>1074</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>500</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>944</v>
+        <v>486</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>945</v>
+        <v>487</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>946</v>
+        <v>488</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>704</v>
+        <v>944</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>705</v>
+        <v>945</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>706</v>
+        <v>946</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>533</v>
+        <v>802</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>723</v>
+        <v>506</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>557</v>
+        <v>723</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>764</v>
+        <v>550</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>551</v>
@@ -8340,493 +8355,504 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>619</v>
+        <v>764</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1011</v>
+        <v>551</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>608</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>450</v>
+        <v>606</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>451</v>
+        <v>607</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>452</v>
+        <v>608</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>689</v>
+        <v>450</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>690</v>
+        <v>451</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>691</v>
+        <v>452</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>455</v>
+        <v>691</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>767</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>1051</v>
+        <v>765</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1052</v>
+        <v>766</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1053</v>
+        <v>767</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>821</v>
+        <v>1051</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>822</v>
+        <v>1052</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>823</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>423</v>
+        <v>823</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>1016</v>
+        <v>421</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1017</v>
+        <v>422</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1018</v>
+        <v>423</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>744</v>
+        <v>1016</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>745</v>
+        <v>1017</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>746</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>905</v>
+        <v>744</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>904</v>
+        <v>745</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>906</v>
+        <v>746</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>540</v>
+        <v>907</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>541</v>
+        <v>908</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>542</v>
+        <v>909</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>664</v>
+        <v>542</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>967</v>
+        <v>692</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>926</v>
+        <v>693</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>912</v>
+        <v>694</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>786</v>
+        <v>967</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>787</v>
+        <v>926</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>788</v>
+        <v>912</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>625</v>
+        <v>788</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>838</v>
+        <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>688</v>
+        <v>838</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>897</v>
+        <v>687</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>971</v>
+        <v>896</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>973</v>
+        <v>897</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>474</v>
+        <v>950</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>475</v>
+        <v>951</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>476</v>
+        <v>952</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>569</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>770</v>
+        <v>569</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>354</v>
+        <v>770</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>714</v>
+        <v>354</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>881</v>
+        <v>712</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>882</v>
+        <v>713</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>883</v>
+        <v>714</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>1147</v>
+        <v>881</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1148</v>
+        <v>882</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1146</v>
+        <v>883</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>953</v>
+        <v>1147</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>955</v>
+        <v>1148</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>956</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>747</v>
+        <v>953</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>748</v>
+        <v>955</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>749</v>
+        <v>956</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>578</v>
+        <v>749</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>826</v>
+        <v>578</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>1024</v>
+        <v>824</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1026</v>
+        <v>826</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>427</v>
+        <v>1024</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>428</v>
+        <v>1025</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>429</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>932</v>
+        <v>418</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>933</v>
+        <v>419</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>934</v>
+        <v>420</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>735</v>
+        <v>932</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>736</v>
+        <v>933</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>737</v>
+        <v>934</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A462" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D461" s="1" t="s">
+      <c r="D462" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1205">
   <si>
     <t>key</t>
   </si>
@@ -3866,6 +3866,202 @@
   </si>
   <si>
     <t>Photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再開</t>
+    <rPh sb="0" eb="2">
+      <t>サイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括処理</t>
+    <rPh sb="0" eb="4">
+      <t>イッカt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再読込</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヨm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビフォー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>starting</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>stopping</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>abandoned</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Stopped</t>
+  </si>
+  <si>
+    <t>Stopping</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>開始済</t>
+    <rPh sb="0" eb="3">
+      <t>カイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始中</t>
+    <rPh sb="0" eb="3">
+      <t>カイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止済</t>
+    <rPh sb="0" eb="3">
+      <t>テイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止中</t>
+    <rPh sb="0" eb="3">
+      <t>テイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了済</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗済</t>
+    <rPh sb="0" eb="2">
+      <t>シッパ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破棄済</t>
+    <rPh sb="0" eb="3">
+      <t>ハキズm</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3927,8 +4123,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4000,7 +4266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="135">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4033,6 +4299,41 @@
     <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -4066,6 +4367,41 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4340,10 +4676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E388" sqref="E388"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6311,2548 +6647,2703 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>732</v>
+        <v>1190</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>733</v>
+        <v>1197</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G230" s="1"/>
+        <v>1204</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>513</v>
+        <v>732</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>515</v>
+        <v>734</v>
       </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>988</v>
+        <v>513</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>989</v>
+        <v>514</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>990</v>
+        <v>515</v>
       </c>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>923</v>
+        <v>989</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>964</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>603</v>
+        <v>1180</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>604</v>
+        <v>1179</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>605</v>
+        <v>1183</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>650</v>
+        <v>970</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>651</v>
+        <v>923</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G235" s="1"/>
+        <v>964</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>845</v>
+        <v>603</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>846</v>
+        <v>604</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>847</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>815</v>
+        <v>650</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>816</v>
+        <v>651</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>817</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>525</v>
+        <v>845</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>526</v>
+        <v>846</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>963</v>
+        <v>847</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>938</v>
+        <v>815</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>939</v>
+        <v>816</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>940</v>
+        <v>817</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>751</v>
+        <v>526</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>752</v>
+        <v>963</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>1079</v>
+        <v>938</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1075</v>
+        <v>939</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>653</v>
+        <v>940</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>1078</v>
+        <v>750</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1076</v>
+        <v>751</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1077</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>659</v>
+        <v>1079</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>660</v>
+        <v>1075</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>892</v>
+        <v>1078</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>893</v>
+        <v>1076</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>965</v>
+        <v>659</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>928</v>
+        <v>660</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>913</v>
+        <v>661</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>1080</v>
+        <v>1163</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1081</v>
+        <v>1164</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1082</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>797</v>
+        <v>1181</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>798</v>
+        <v>1178</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>799</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>1039</v>
+        <v>965</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1040</v>
+        <v>928</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1041</v>
+        <v>913</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>447</v>
+        <v>1080</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>448</v>
+        <v>1081</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>449</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>1048</v>
+        <v>797</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1049</v>
+        <v>798</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1050</v>
+        <v>799</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>969</v>
+        <v>860</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>924</v>
+        <v>861</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>489</v>
+        <v>1039</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>490</v>
+        <v>1040</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>491</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>878</v>
+        <v>447</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>879</v>
+        <v>448</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>880</v>
+        <v>449</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>863</v>
+        <v>1048</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>864</v>
+        <v>1049</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>865</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>564</v>
+        <v>969</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>565</v>
+        <v>924</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>566</v>
+        <v>910</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>707</v>
+        <v>863</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>708</v>
+        <v>864</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>709</v>
+        <v>865</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>394</v>
+        <v>564</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>395</v>
+        <v>565</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>396</v>
+        <v>566</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>398</v>
+        <v>547</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>399</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>400</v>
+        <v>872</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>401</v>
+        <v>873</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>402</v>
+        <v>874</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>459</v>
+        <v>707</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>460</v>
+        <v>708</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>461</v>
+        <v>709</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>818</v>
+        <v>394</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>819</v>
+        <v>395</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>820</v>
+        <v>396</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>635</v>
+        <v>397</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>636</v>
+        <v>398</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>637</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>656</v>
+        <v>400</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>657</v>
+        <v>401</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>658</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>782</v>
+        <v>459</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>783</v>
+        <v>460</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>784</v>
+        <v>461</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>698</v>
+        <v>1188</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>699</v>
+        <v>1195</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>700</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>1154</v>
+        <v>818</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1153</v>
+        <v>819</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1152</v>
+        <v>820</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>468</v>
+        <v>635</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>469</v>
+        <v>636</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>470</v>
+        <v>637</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>779</v>
+        <v>656</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>780</v>
+        <v>657</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>781</v>
+        <v>658</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>1149</v>
+        <v>782</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1150</v>
+        <v>783</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1151</v>
+        <v>784</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>579</v>
+        <v>698</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>580</v>
+        <v>699</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>581</v>
+        <v>700</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>537</v>
+        <v>1154</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>538</v>
+        <v>1153</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>539</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>1019</v>
+        <v>779</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>539</v>
+        <v>781</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>1</v>
+        <v>1149</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>5</v>
+        <v>1150</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>222</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>477</v>
+        <v>579</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>478</v>
+        <v>580</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>479</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>668</v>
+        <v>537</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>669</v>
+        <v>538</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>670</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>851</v>
+        <v>1019</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>852</v>
+        <v>1020</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>853</v>
+        <v>539</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>644</v>
+        <v>1</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>645</v>
+        <v>5</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>646</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>789</v>
+        <v>477</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>790</v>
+        <v>478</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>791</v>
+        <v>479</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>947</v>
+        <v>851</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>948</v>
+        <v>852</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>949</v>
+        <v>853</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>519</v>
+        <v>789</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>520</v>
+        <v>790</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>521</v>
+        <v>791</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>522</v>
+        <v>680</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>523</v>
+        <v>681</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>524</v>
+        <v>682</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>1036</v>
+        <v>424</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1037</v>
+        <v>425</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1038</v>
+        <v>426</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>492</v>
+        <v>947</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>493</v>
+        <v>948</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>494</v>
+        <v>949</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>773</v>
+        <v>570</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>24</v>
+        <v>571</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>774</v>
+        <v>572</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>609</v>
+        <v>522</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>610</v>
+        <v>523</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>611</v>
+        <v>524</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>794</v>
+        <v>1036</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>795</v>
+        <v>1037</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>796</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>1012</v>
+        <v>773</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1013</v>
+        <v>24</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1014</v>
+        <v>774</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>803</v>
+        <v>462</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>804</v>
+        <v>463</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>805</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>456</v>
+        <v>609</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>457</v>
+        <v>610</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>458</v>
+        <v>611</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>841</v>
+        <v>796</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>1042</v>
+        <v>582</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1043</v>
+        <v>583</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1044</v>
+        <v>584</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>715</v>
+        <v>1012</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>716</v>
+        <v>1013</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>717</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>615</v>
+        <v>1189</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>616</v>
+        <v>1196</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>617</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>585</v>
+        <v>456</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>586</v>
+        <v>457</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>587</v>
+        <v>458</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>612</v>
+        <v>839</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>613</v>
+        <v>840</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>614</v>
+        <v>841</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>756</v>
+        <v>1042</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>757</v>
+        <v>1043</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>758</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>894</v>
+        <v>715</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>895</v>
+        <v>716</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>683</v>
+        <v>615</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>685</v>
+        <v>617</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>792</v>
+        <v>585</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>793</v>
+        <v>586</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>962</v>
+        <v>587</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>775</v>
+        <v>612</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>776</v>
+        <v>613</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>432</v>
+        <v>614</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>833</v>
+        <v>756</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>834</v>
+        <v>757</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>835</v>
+        <v>758</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>638</v>
+        <v>894</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>640</v>
+        <v>895</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>552</v>
+        <v>701</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>553</v>
+        <v>702</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>554</v>
+        <v>703</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>959</v>
+        <v>683</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>960</v>
+        <v>684</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>961</v>
+        <v>685</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>1031</v>
+        <v>792</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1030</v>
+        <v>793</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1032</v>
+        <v>962</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>697</v>
+        <v>432</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>677</v>
+        <v>833</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>678</v>
+        <v>834</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>679</v>
+        <v>835</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>875</v>
+        <v>638</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>876</v>
+        <v>639</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>877</v>
+        <v>640</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>958</v>
+        <v>552</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>957</v>
+        <v>553</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>759</v>
+        <v>554</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>1009</v>
+        <v>959</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>886</v>
+        <v>1031</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>887</v>
+        <v>1030</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>857</v>
+        <v>695</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>858</v>
+        <v>696</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>859</v>
+        <v>697</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>884</v>
+        <v>677</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>885</v>
+        <v>678</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>753</v>
+        <v>875</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>754</v>
+        <v>876</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>755</v>
+        <v>877</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>573</v>
+        <v>958</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>574</v>
+        <v>957</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>575</v>
+        <v>759</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>777</v>
+        <v>1009</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>778</v>
+        <v>1010</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>575</v>
+        <v>954</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>510</v>
+        <v>886</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>512</v>
+        <v>887</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>985</v>
+        <v>857</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>916</v>
+        <v>858</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>979</v>
+        <v>859</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>984</v>
+        <v>884</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>978</v>
+        <v>885</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>986</v>
+        <v>753</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>914</v>
+        <v>754</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>981</v>
+        <v>755</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>987</v>
+        <v>573</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>915</v>
+        <v>574</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>980</v>
+        <v>575</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>762</v>
+        <v>575</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>888</v>
+        <v>510</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>889</v>
+        <v>511</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>890</v>
+        <v>985</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>891</v>
+        <v>916</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>911</v>
+        <v>978</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>710</v>
+        <v>914</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>711</v>
+        <v>981</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>811</v>
+        <v>987</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>900</v>
+        <v>980</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>588</v>
+        <v>760</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>589</v>
+        <v>761</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>590</v>
+        <v>762</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>813</v>
+        <v>888</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>527</v>
+        <v>889</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>943</v>
+        <v>890</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>942</v>
+        <v>891</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>806</v>
+        <v>968</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>807</v>
+        <v>925</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1072</v>
+        <v>710</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>785</v>
+        <v>711</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>869</v>
+        <v>811</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>870</v>
+        <v>812</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>871</v>
+        <v>900</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>528</v>
+        <v>813</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>529</v>
+        <v>814</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>436</v>
+        <v>943</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>437</v>
+        <v>941</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>438</v>
+        <v>942</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>439</v>
+        <v>806</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>440</v>
+        <v>807</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>442</v>
+        <v>1071</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>443</v>
+        <v>1072</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>444</v>
+        <v>785</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>809</v>
+        <v>869</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>994</v>
+        <v>871</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>929</v>
+        <v>528</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>930</v>
+        <v>529</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>931</v>
+        <v>530</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>995</v>
+        <v>436</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>996</v>
+        <v>437</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>997</v>
+        <v>438</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>998</v>
+        <v>439</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>999</v>
+        <v>440</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1000</v>
+        <v>441</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>1005</v>
+        <v>442</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>730</v>
+        <v>443</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>731</v>
+        <v>444</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>854</v>
+        <v>809</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>855</v>
+        <v>810</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>856</v>
+        <v>994</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1022</v>
+        <v>730</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1023</v>
+        <v>731</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>430</v>
+        <v>854</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>431</v>
+        <v>855</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>432</v>
+        <v>856</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>433</v>
+        <v>665</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>434</v>
+        <v>666</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>435</v>
+        <v>667</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>600</v>
+        <v>966</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>601</v>
+        <v>927</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>602</v>
+        <v>910</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>594</v>
+        <v>1001</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>595</v>
+        <v>1002</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>596</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>671</v>
+        <v>1006</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>672</v>
+        <v>1007</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>673</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>445</v>
+        <v>1021</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>446</v>
+        <v>1022</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>446</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>597</v>
+        <v>430</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>598</v>
+        <v>431</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>543</v>
+        <v>433</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>544</v>
+        <v>434</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>545</v>
+        <v>435</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>466</v>
+        <v>601</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>467</v>
+        <v>602</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>403</v>
+        <v>671</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>404</v>
+        <v>672</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>405</v>
+        <v>673</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>409</v>
+        <v>597</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>410</v>
+        <v>598</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>411</v>
+        <v>599</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>848</v>
+        <v>465</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>849</v>
+        <v>466</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>850</v>
+        <v>467</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>827</v>
+        <v>620</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>828</v>
+        <v>621</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>829</v>
+        <v>622</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>830</v>
+        <v>403</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>831</v>
+        <v>404</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>832</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>1157</v>
+        <v>406</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1156</v>
+        <v>407</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1155</v>
+        <v>408</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>1161</v>
+        <v>409</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1162</v>
+        <v>410</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1160</v>
+        <v>411</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>727</v>
+        <v>412</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>728</v>
+        <v>413</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>729</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>724</v>
+        <v>848</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>725</v>
+        <v>849</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>726</v>
+        <v>850</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>516</v>
+        <v>827</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>517</v>
+        <v>828</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>518</v>
+        <v>829</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>591</v>
+        <v>1168</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>592</v>
+        <v>1169</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>593</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>674</v>
+        <v>830</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>675</v>
+        <v>831</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>676</v>
+        <v>832</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>654</v>
+        <v>1157</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>655</v>
+        <v>1156</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1035</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>1045</v>
+        <v>1161</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1046</v>
+        <v>1162</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1047</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>1028</v>
+        <v>727</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1027</v>
+        <v>728</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1029</v>
+        <v>729</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>842</v>
+        <v>724</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>843</v>
+        <v>725</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>844</v>
+        <v>726</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>866</v>
+        <v>516</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>867</v>
+        <v>517</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>868</v>
+        <v>518</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>471</v>
+        <v>591</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>472</v>
+        <v>592</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>473</v>
+        <v>593</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>975</v>
+        <v>674</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>922</v>
+        <v>675</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1004</v>
+        <v>676</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>558</v>
+        <v>654</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>560</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>972</v>
+        <v>1045</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>921</v>
+        <v>1046</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>974</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>495</v>
+        <v>1028</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>496</v>
+        <v>1027</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>497</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>991</v>
+        <v>842</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>992</v>
+        <v>843</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>993</v>
+        <v>844</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>983</v>
+        <v>866</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>919</v>
+        <v>867</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>976</v>
+        <v>868</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>982</v>
+        <v>471</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>918</v>
+        <v>472</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>977</v>
+        <v>473</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>901</v>
+        <v>975</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>903</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>1073</v>
+        <v>972</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1074</v>
+        <v>921</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1014</v>
+        <v>974</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>483</v>
+        <v>1175</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>484</v>
+        <v>1176</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>485</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>486</v>
+        <v>991</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>487</v>
+        <v>992</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>488</v>
+        <v>993</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>944</v>
+        <v>983</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>946</v>
+        <v>976</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>704</v>
+        <v>982</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>705</v>
+        <v>918</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>706</v>
+        <v>977</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>800</v>
+        <v>901</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>802</v>
+        <v>903</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>501</v>
+        <v>1073</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>502</v>
+        <v>1074</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>503</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>721</v>
+        <v>1165</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>722</v>
+        <v>1166</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>723</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>561</v>
+        <v>944</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>562</v>
+        <v>945</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>563</v>
+        <v>946</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>551</v>
+        <v>706</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>763</v>
+        <v>800</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>764</v>
+        <v>801</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>551</v>
+        <v>802</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>618</v>
+        <v>531</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>619</v>
+        <v>532</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1011</v>
+        <v>533</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>606</v>
+        <v>501</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>607</v>
+        <v>502</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>608</v>
+        <v>503</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>689</v>
+        <v>504</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>690</v>
+        <v>505</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>691</v>
+        <v>506</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>453</v>
+        <v>721</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>454</v>
+        <v>722</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>455</v>
+        <v>723</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>765</v>
+        <v>555</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>766</v>
+        <v>556</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>767</v>
+        <v>557</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>1051</v>
+        <v>561</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1052</v>
+        <v>562</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1053</v>
+        <v>563</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>821</v>
+        <v>549</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>822</v>
+        <v>550</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>823</v>
+        <v>551</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>421</v>
+        <v>763</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>422</v>
+        <v>764</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>423</v>
+        <v>551</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>1016</v>
+        <v>618</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1017</v>
+        <v>619</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>744</v>
+        <v>606</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>745</v>
+        <v>607</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>746</v>
+        <v>608</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>905</v>
+        <v>1184</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>904</v>
+        <v>1191</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>906</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>907</v>
+        <v>1185</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>908</v>
+        <v>1192</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>909</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>662</v>
+        <v>1171</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>663</v>
+        <v>1172</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>664</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>692</v>
+        <v>1186</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>693</v>
+        <v>1193</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>694</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>967</v>
+        <v>1187</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>926</v>
+        <v>1194</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>912</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>786</v>
+        <v>689</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>787</v>
+        <v>690</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>788</v>
+        <v>691</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>623</v>
+        <v>453</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>624</v>
+        <v>454</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>625</v>
+        <v>455</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>836</v>
+        <v>765</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>837</v>
+        <v>766</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>838</v>
+        <v>767</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>686</v>
+        <v>1051</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>687</v>
+        <v>1052</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>688</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>896</v>
+        <v>821</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>897</v>
+        <v>822</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>971</v>
+        <v>421</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>920</v>
+        <v>422</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>973</v>
+        <v>423</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>950</v>
+        <v>1016</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>951</v>
+        <v>1017</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>952</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>474</v>
+        <v>744</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>475</v>
+        <v>745</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>476</v>
+        <v>746</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>567</v>
+        <v>905</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>568</v>
+        <v>904</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>569</v>
+        <v>906</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>768</v>
+        <v>907</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>769</v>
+        <v>908</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>770</v>
+        <v>909</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>771</v>
+        <v>540</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>772</v>
+        <v>541</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>354</v>
+        <v>542</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>712</v>
+        <v>662</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>713</v>
+        <v>663</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>881</v>
+        <v>692</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>882</v>
+        <v>693</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>883</v>
+        <v>694</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>1147</v>
+        <v>967</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1148</v>
+        <v>926</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1146</v>
+        <v>912</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>953</v>
+        <v>786</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>955</v>
+        <v>787</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>956</v>
+        <v>788</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>747</v>
+        <v>623</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>748</v>
+        <v>624</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>749</v>
+        <v>625</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>576</v>
+        <v>836</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>577</v>
+        <v>837</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>578</v>
+        <v>838</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>824</v>
+        <v>686</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>825</v>
+        <v>687</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>826</v>
+        <v>688</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>1024</v>
+        <v>896</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>1026</v>
+        <v>897</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>427</v>
+        <v>971</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>428</v>
+        <v>920</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>429</v>
+        <v>973</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>626</v>
+        <v>950</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>627</v>
+        <v>951</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>628</v>
+        <v>952</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>932</v>
+        <v>567</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>933</v>
+        <v>568</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>934</v>
+        <v>569</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>740</v>
+        <v>354</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>629</v>
+        <v>881</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>630</v>
+        <v>882</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>631</v>
+        <v>883</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A463" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A464" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A465" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A466" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A468" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A469" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A470" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A471" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A472" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A473" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A474" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A475" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="B476" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D462" s="1" t="s">
+      <c r="D476" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1208">
   <si>
     <t>key</t>
   </si>
@@ -4061,6 +4061,21 @@
     <t>破棄済</t>
     <rPh sb="0" eb="3">
       <t>ハキズm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4676,10 +4691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D438" sqref="D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8912,438 +8927,449 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>765</v>
+        <v>1205</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>766</v>
+        <v>1206</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>767</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>1051</v>
+        <v>765</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1052</v>
+        <v>766</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1053</v>
+        <v>767</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>821</v>
+        <v>1051</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>822</v>
+        <v>1052</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>823</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>423</v>
+        <v>823</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>1016</v>
+        <v>421</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1017</v>
+        <v>422</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1018</v>
+        <v>423</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>744</v>
+        <v>1016</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>745</v>
+        <v>1017</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>746</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>905</v>
+        <v>744</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>904</v>
+        <v>745</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>906</v>
+        <v>746</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>540</v>
+        <v>907</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>541</v>
+        <v>908</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>542</v>
+        <v>909</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>664</v>
+        <v>542</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>967</v>
+        <v>692</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>926</v>
+        <v>693</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>912</v>
+        <v>694</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>786</v>
+        <v>967</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>787</v>
+        <v>926</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>788</v>
+        <v>912</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>625</v>
+        <v>788</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>838</v>
+        <v>625</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>688</v>
+        <v>838</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>897</v>
+        <v>687</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>971</v>
+        <v>896</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>973</v>
+        <v>897</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>474</v>
+        <v>950</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>475</v>
+        <v>951</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>476</v>
+        <v>952</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>569</v>
+        <v>476</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>770</v>
+        <v>569</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>354</v>
+        <v>770</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>714</v>
+        <v>354</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>881</v>
+        <v>712</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>882</v>
+        <v>713</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>883</v>
+        <v>714</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>1147</v>
+        <v>881</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1148</v>
+        <v>882</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1146</v>
+        <v>883</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>953</v>
+        <v>1147</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>955</v>
+        <v>1148</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>956</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>747</v>
+        <v>953</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>748</v>
+        <v>955</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>749</v>
+        <v>956</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>578</v>
+        <v>749</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>826</v>
+        <v>578</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>1024</v>
+        <v>824</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1026</v>
+        <v>826</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>427</v>
+        <v>1024</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>428</v>
+        <v>1025</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>429</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>932</v>
+        <v>418</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>933</v>
+        <v>419</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>934</v>
+        <v>420</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>735</v>
+        <v>932</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>736</v>
+        <v>933</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>737</v>
+        <v>934</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A477" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D476" s="1" t="s">
+      <c r="D477" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1214">
   <si>
     <t>key</t>
   </si>
@@ -4076,6 +4076,36 @@
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>full_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Full text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全文</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンb</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Convert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変換</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4691,10 +4721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="D438" sqref="D438"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="J274" sqref="J274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7149,2227 +7179,2249 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>1154</v>
+        <v>1211</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1153</v>
+        <v>1212</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1152</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>468</v>
+        <v>1154</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>469</v>
+        <v>1153</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>470</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>781</v>
+        <v>470</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>1149</v>
+        <v>779</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1150</v>
+        <v>780</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1151</v>
+        <v>781</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>579</v>
+        <v>1149</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>580</v>
+        <v>1150</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>581</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>1019</v>
+        <v>534</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1020</v>
+        <v>535</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>1</v>
+        <v>1019</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>5</v>
+        <v>1020</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>222</v>
+        <v>539</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>479</v>
+        <v>222</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>670</v>
+        <v>479</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>509</v>
+        <v>670</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>853</v>
+        <v>509</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>646</v>
+        <v>853</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>791</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>682</v>
+        <v>791</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>426</v>
+        <v>682</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>947</v>
+        <v>424</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>948</v>
+        <v>425</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>949</v>
+        <v>426</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>570</v>
+        <v>947</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>571</v>
+        <v>948</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>572</v>
+        <v>949</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>1036</v>
+        <v>522</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1037</v>
+        <v>523</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1038</v>
+        <v>524</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>492</v>
+        <v>1036</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>493</v>
+        <v>1037</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>494</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>773</v>
+        <v>492</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>24</v>
+        <v>493</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>774</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>462</v>
+        <v>773</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>464</v>
+        <v>774</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>611</v>
+        <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>796</v>
+        <v>611</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>584</v>
+        <v>796</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>1012</v>
+        <v>582</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1013</v>
+        <v>583</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1014</v>
+        <v>584</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>803</v>
+        <v>1012</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>804</v>
+        <v>1013</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>805</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>1189</v>
+        <v>803</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1196</v>
+        <v>804</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1203</v>
+        <v>805</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>456</v>
+        <v>1189</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>457</v>
+        <v>1196</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>458</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>841</v>
+        <v>458</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>1042</v>
+        <v>839</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1043</v>
+        <v>840</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1044</v>
+        <v>841</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>715</v>
+        <v>1042</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>716</v>
+        <v>1043</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>717</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>617</v>
+        <v>720</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>758</v>
+        <v>614</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>894</v>
+        <v>756</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>895</v>
+        <v>757</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>701</v>
+        <v>894</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>703</v>
+        <v>895</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>793</v>
+        <v>684</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>962</v>
+        <v>685</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>432</v>
+        <v>962</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>834</v>
+        <v>776</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>835</v>
+        <v>432</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>640</v>
+        <v>835</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>552</v>
+        <v>1208</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>553</v>
+        <v>1209</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>554</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>959</v>
+        <v>638</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>960</v>
+        <v>639</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>961</v>
+        <v>640</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>1031</v>
+        <v>552</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1030</v>
+        <v>553</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1032</v>
+        <v>554</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>695</v>
+        <v>959</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>696</v>
+        <v>960</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>697</v>
+        <v>961</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>677</v>
+        <v>1031</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>678</v>
+        <v>1030</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>679</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>875</v>
+        <v>695</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>876</v>
+        <v>696</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>877</v>
+        <v>697</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>958</v>
+        <v>677</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>957</v>
+        <v>678</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>1009</v>
+        <v>875</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1010</v>
+        <v>876</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>954</v>
+        <v>877</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>886</v>
+        <v>958</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>887</v>
+        <v>957</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>857</v>
+        <v>1009</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>858</v>
+        <v>1010</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>859</v>
+        <v>954</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>573</v>
+        <v>884</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>575</v>
+        <v>885</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>575</v>
+        <v>755</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>985</v>
+        <v>777</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>916</v>
+        <v>778</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>979</v>
+        <v>575</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>984</v>
+        <v>510</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>917</v>
+        <v>511</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>978</v>
+        <v>512</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>760</v>
+        <v>986</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>761</v>
+        <v>914</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>762</v>
+        <v>981</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>889</v>
+        <v>915</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>890</v>
+        <v>760</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>891</v>
+        <v>761</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>968</v>
+        <v>888</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>711</v>
+        <v>891</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>811</v>
+        <v>968</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>590</v>
+        <v>711</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>527</v>
+        <v>900</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>943</v>
+        <v>588</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>941</v>
+        <v>589</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>942</v>
+        <v>590</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>808</v>
+        <v>527</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>1071</v>
+        <v>943</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1072</v>
+        <v>941</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>785</v>
+        <v>942</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>869</v>
+        <v>806</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>870</v>
+        <v>807</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>871</v>
+        <v>808</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>641</v>
+        <v>1071</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>642</v>
+        <v>1072</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>643</v>
+        <v>785</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>529</v>
+        <v>870</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>530</v>
+        <v>871</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>438</v>
+        <v>643</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>809</v>
+        <v>439</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>994</v>
+        <v>441</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>649</v>
+        <v>444</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>929</v>
+        <v>809</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>930</v>
+        <v>810</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>995</v>
+        <v>647</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>996</v>
+        <v>648</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>997</v>
+        <v>649</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>998</v>
+        <v>929</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1000</v>
+        <v>931</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>731</v>
+        <v>997</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>854</v>
+        <v>998</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>855</v>
+        <v>999</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>856</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>665</v>
+        <v>1005</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>966</v>
+        <v>854</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>927</v>
+        <v>855</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>910</v>
+        <v>856</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>1001</v>
+        <v>665</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1002</v>
+        <v>666</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1003</v>
+        <v>667</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1008</v>
+        <v>910</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>430</v>
+        <v>1006</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>431</v>
+        <v>1007</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>432</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>433</v>
+        <v>1021</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>434</v>
+        <v>1022</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>435</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>601</v>
+        <v>431</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>602</v>
+        <v>432</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>446</v>
+        <v>596</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>545</v>
+        <v>446</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>467</v>
+        <v>599</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>408</v>
+        <v>622</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>850</v>
+        <v>411</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>827</v>
+        <v>412</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>828</v>
+        <v>413</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>829</v>
+        <v>414</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>1168</v>
+        <v>848</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1169</v>
+        <v>849</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1170</v>
+        <v>850</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>1161</v>
+        <v>830</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1162</v>
+        <v>831</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1160</v>
+        <v>832</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>728</v>
+        <v>1156</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>729</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>724</v>
+        <v>1161</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>725</v>
+        <v>1162</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>726</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>518</v>
+        <v>729</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>593</v>
+        <v>726</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>676</v>
+        <v>518</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1035</v>
+        <v>593</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>1045</v>
+        <v>674</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1046</v>
+        <v>675</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1047</v>
+        <v>676</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>1028</v>
+        <v>654</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1027</v>
+        <v>655</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>842</v>
+        <v>1045</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>843</v>
+        <v>1046</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>844</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>866</v>
+        <v>1028</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>867</v>
+        <v>1027</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>868</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>471</v>
+        <v>842</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>472</v>
+        <v>843</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>473</v>
+        <v>844</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>975</v>
+        <v>866</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1004</v>
+        <v>868</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>1175</v>
+        <v>972</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1176</v>
+        <v>921</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1177</v>
+        <v>974</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>991</v>
+        <v>495</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>992</v>
+        <v>496</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>993</v>
+        <v>497</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>983</v>
+        <v>1175</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>919</v>
+        <v>1176</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>976</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>918</v>
+        <v>992</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>901</v>
+        <v>983</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>903</v>
+        <v>976</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>480</v>
+        <v>982</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>481</v>
+        <v>918</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>482</v>
+        <v>977</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>1073</v>
+        <v>901</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1074</v>
+        <v>902</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1014</v>
+        <v>903</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>483</v>
+        <v>1073</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>484</v>
+        <v>1074</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>485</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>1165</v>
+        <v>498</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1166</v>
+        <v>499</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1167</v>
+        <v>500</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>944</v>
+        <v>1165</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>945</v>
+        <v>1166</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>946</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>706</v>
+        <v>488</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>801</v>
+        <v>945</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>802</v>
+        <v>946</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>533</v>
+        <v>706</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>502</v>
+        <v>801</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>503</v>
+        <v>802</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>723</v>
+        <v>417</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>563</v>
+        <v>723</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>764</v>
+        <v>562</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1011</v>
+        <v>551</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>606</v>
+        <v>763</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>607</v>
+        <v>764</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>1184</v>
+        <v>618</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1191</v>
+        <v>619</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1198</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>1185</v>
+        <v>606</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1192</v>
+        <v>607</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1199</v>
+        <v>608</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>450</v>
+        <v>1184</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>451</v>
+        <v>1191</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>452</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1173</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>1186</v>
+        <v>450</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1193</v>
+        <v>451</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1201</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>689</v>
+        <v>1186</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>690</v>
+        <v>1193</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>691</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>453</v>
+        <v>1187</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>454</v>
+        <v>1194</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>455</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>1205</v>
+        <v>689</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1206</v>
+        <v>690</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1207</v>
+        <v>691</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>767</v>
+        <v>455</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>1051</v>
+        <v>1205</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1052</v>
+        <v>1206</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1053</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>421</v>
+        <v>1051</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>422</v>
+        <v>1052</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>423</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>1016</v>
+        <v>821</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1017</v>
+        <v>822</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1018</v>
+        <v>823</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>746</v>
+        <v>423</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>905</v>
+        <v>1016</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>904</v>
+        <v>1017</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>906</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>907</v>
+        <v>744</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>908</v>
+        <v>745</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>909</v>
+        <v>746</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>540</v>
+        <v>905</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>541</v>
+        <v>904</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>542</v>
+        <v>906</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>662</v>
+        <v>907</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>663</v>
+        <v>908</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>664</v>
+        <v>909</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>694</v>
+        <v>542</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>967</v>
+        <v>662</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>926</v>
+        <v>663</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>912</v>
+        <v>664</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>623</v>
+        <v>967</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>624</v>
+        <v>926</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>625</v>
+        <v>912</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>896</v>
+        <v>836</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>897</v>
+        <v>837</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>971</v>
+        <v>686</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>920</v>
+        <v>687</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>973</v>
+        <v>688</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>950</v>
+        <v>896</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>474</v>
+        <v>971</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>475</v>
+        <v>920</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>476</v>
+        <v>973</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>568</v>
+        <v>951</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>569</v>
+        <v>952</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>770</v>
+        <v>476</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>772</v>
+        <v>568</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>714</v>
+        <v>770</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>881</v>
+        <v>771</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>882</v>
+        <v>772</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>883</v>
+        <v>354</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>1147</v>
+        <v>712</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1148</v>
+        <v>713</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1146</v>
+        <v>714</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>953</v>
+        <v>881</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>955</v>
+        <v>882</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>956</v>
+        <v>883</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>747</v>
+        <v>1147</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>748</v>
+        <v>1148</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>749</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>576</v>
+        <v>953</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>577</v>
+        <v>955</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>578</v>
+        <v>956</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>1024</v>
+        <v>576</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1025</v>
+        <v>577</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1026</v>
+        <v>578</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>429</v>
+        <v>826</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>626</v>
+        <v>1024</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>627</v>
+        <v>1025</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>628</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>932</v>
+        <v>626</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>933</v>
+        <v>627</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>735</v>
+        <v>418</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>736</v>
+        <v>419</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>737</v>
+        <v>420</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>738</v>
+        <v>932</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>739</v>
+        <v>933</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>740</v>
+        <v>934</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>629</v>
+        <v>738</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>631</v>
+        <v>740</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A478" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A479" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B479" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D477" s="1" t="s">
+      <c r="D479" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="33460" windowHeight="21560" tabRatio="990"/>
+    <workbookView xWindow="160" yWindow="880" windowWidth="33460" windowHeight="21560" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="messages" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1217">
   <si>
     <t>key</t>
   </si>
@@ -4107,6 +4107,18 @@
     <rPh sb="0" eb="2">
       <t>ヘンカn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daylight saving time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daylight_saving_time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4721,10 +4733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="J274" sqref="J274"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7278,584 +7290,584 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>1</v>
+        <v>1216</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>5</v>
+        <v>1215</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>479</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>670</v>
+        <v>479</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>509</v>
+        <v>670</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>853</v>
+        <v>509</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>646</v>
+        <v>853</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>791</v>
+        <v>646</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>682</v>
+        <v>791</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>426</v>
+        <v>682</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>947</v>
+        <v>424</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>948</v>
+        <v>425</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>949</v>
+        <v>426</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>570</v>
+        <v>947</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>571</v>
+        <v>948</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>572</v>
+        <v>949</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>1036</v>
+        <v>522</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1037</v>
+        <v>523</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1038</v>
+        <v>524</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>492</v>
+        <v>1036</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>493</v>
+        <v>1037</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>494</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>773</v>
+        <v>492</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>24</v>
+        <v>493</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>774</v>
+        <v>494</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>462</v>
+        <v>773</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>464</v>
+        <v>774</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>611</v>
+        <v>464</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>796</v>
+        <v>611</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>584</v>
+        <v>796</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>1012</v>
+        <v>582</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1013</v>
+        <v>583</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1014</v>
+        <v>584</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>803</v>
+        <v>1012</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>804</v>
+        <v>1013</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>805</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>1189</v>
+        <v>803</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1196</v>
+        <v>804</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1203</v>
+        <v>805</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>456</v>
+        <v>1189</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>457</v>
+        <v>1196</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>458</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>841</v>
+        <v>458</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>1042</v>
+        <v>839</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1043</v>
+        <v>840</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1044</v>
+        <v>841</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>715</v>
+        <v>1042</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>716</v>
+        <v>1043</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>717</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>617</v>
+        <v>720</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>758</v>
+        <v>614</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>894</v>
+        <v>756</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>895</v>
+        <v>757</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>701</v>
+        <v>894</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>703</v>
+        <v>895</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>793</v>
+        <v>684</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>962</v>
+        <v>685</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>432</v>
+        <v>962</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>834</v>
+        <v>776</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>835</v>
+        <v>432</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>1208</v>
+        <v>833</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1209</v>
+        <v>834</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1210</v>
+        <v>835</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>638</v>
+        <v>1208</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>639</v>
+        <v>1209</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>640</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>959</v>
+        <v>552</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>960</v>
+        <v>553</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>961</v>
+        <v>554</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>1031</v>
+        <v>959</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1030</v>
+        <v>960</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1032</v>
+        <v>961</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>695</v>
+        <v>1031</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>696</v>
+        <v>1030</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>697</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>875</v>
+        <v>677</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>876</v>
+        <v>678</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>877</v>
+        <v>679</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>958</v>
+        <v>875</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>957</v>
+        <v>876</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>759</v>
+        <v>877</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>1009</v>
+        <v>958</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1010</v>
+        <v>957</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>954</v>
+        <v>759</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>886</v>
+        <v>1009</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>887</v>
+        <v>1010</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>859</v>
+        <v>887</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>885</v>
+        <v>858</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>753</v>
+        <v>884</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>755</v>
+        <v>885</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>575</v>
+        <v>755</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>777</v>
+        <v>573</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>778</v>
+        <v>574</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>575</v>
@@ -7863,1005 +7875,1005 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>510</v>
+        <v>777</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>985</v>
+        <v>510</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>916</v>
+        <v>511</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>979</v>
+        <v>512</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>760</v>
+        <v>987</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>761</v>
+        <v>915</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>762</v>
+        <v>980</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>888</v>
+        <v>760</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>889</v>
+        <v>761</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>968</v>
+        <v>890</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>710</v>
+        <v>925</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>711</v>
+        <v>911</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>812</v>
+        <v>710</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>900</v>
+        <v>711</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>589</v>
+        <v>812</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>590</v>
+        <v>900</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>813</v>
+        <v>588</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>814</v>
+        <v>589</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>943</v>
+        <v>813</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>941</v>
+        <v>814</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>942</v>
+        <v>527</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>806</v>
+        <v>943</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>807</v>
+        <v>941</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>808</v>
+        <v>942</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>1071</v>
+        <v>806</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1072</v>
+        <v>807</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>869</v>
+        <v>1071</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>870</v>
+        <v>1072</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>871</v>
+        <v>785</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>641</v>
+        <v>869</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>642</v>
+        <v>870</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>643</v>
+        <v>871</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>809</v>
+        <v>442</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>810</v>
+        <v>443</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>994</v>
+        <v>444</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>648</v>
+        <v>810</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>649</v>
+        <v>994</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>929</v>
+        <v>647</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>930</v>
+        <v>648</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>931</v>
+        <v>649</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>995</v>
+        <v>929</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>996</v>
+        <v>930</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>997</v>
+        <v>931</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>730</v>
+        <v>999</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>731</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>854</v>
+        <v>1005</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>856</v>
+        <v>731</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>667</v>
+        <v>856</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>966</v>
+        <v>665</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>927</v>
+        <v>666</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>910</v>
+        <v>667</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>1001</v>
+        <v>966</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1002</v>
+        <v>927</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1003</v>
+        <v>910</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>430</v>
+        <v>1021</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>431</v>
+        <v>1022</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>432</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>602</v>
+        <v>435</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>673</v>
+        <v>596</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>446</v>
+        <v>673</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>598</v>
+        <v>446</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>599</v>
+        <v>446</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>622</v>
+        <v>467</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>405</v>
+        <v>622</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>850</v>
+        <v>414</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>1168</v>
+        <v>827</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1169</v>
+        <v>828</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1170</v>
+        <v>829</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>830</v>
+        <v>1168</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>831</v>
+        <v>1169</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>832</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>1157</v>
+        <v>830</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1156</v>
+        <v>831</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1155</v>
+        <v>832</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>727</v>
+        <v>1161</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>728</v>
+        <v>1162</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>729</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>518</v>
+        <v>726</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>676</v>
+        <v>593</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1035</v>
+        <v>676</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>1045</v>
+        <v>654</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1046</v>
+        <v>655</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>1028</v>
+        <v>1045</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>842</v>
+        <v>1028</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>843</v>
+        <v>1027</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>844</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>471</v>
+        <v>866</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>473</v>
+        <v>868</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>975</v>
+        <v>471</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>922</v>
+        <v>472</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1004</v>
+        <v>473</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>558</v>
+        <v>975</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>559</v>
+        <v>922</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>560</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>972</v>
+        <v>558</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>921</v>
+        <v>559</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>974</v>
+        <v>560</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>495</v>
+        <v>972</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>496</v>
+        <v>921</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>497</v>
+        <v>974</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>1175</v>
+        <v>495</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1176</v>
+        <v>496</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1177</v>
+        <v>497</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>991</v>
+        <v>1175</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>992</v>
+        <v>1176</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>993</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>919</v>
+        <v>992</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>901</v>
+        <v>982</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>903</v>
+        <v>977</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>480</v>
+        <v>901</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>481</v>
+        <v>902</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>482</v>
+        <v>903</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>1073</v>
+        <v>480</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1074</v>
+        <v>481</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1014</v>
+        <v>482</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>498</v>
+        <v>1073</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>499</v>
+        <v>1074</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>500</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>1165</v>
+        <v>483</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1166</v>
+        <v>484</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1167</v>
+        <v>485</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>486</v>
+        <v>1165</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>487</v>
+        <v>1166</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>488</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>944</v>
+        <v>486</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>945</v>
+        <v>487</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>946</v>
+        <v>488</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>704</v>
+        <v>944</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>705</v>
+        <v>945</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>706</v>
+        <v>946</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>533</v>
+        <v>802</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>723</v>
+        <v>506</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>557</v>
+        <v>723</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>764</v>
+        <v>550</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>551</v>
@@ -8869,559 +8881,570 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>619</v>
+        <v>764</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1011</v>
+        <v>551</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>608</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>1184</v>
+        <v>606</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1191</v>
+        <v>607</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1198</v>
+        <v>608</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>450</v>
+        <v>1185</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>451</v>
+        <v>1192</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>452</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>1171</v>
+        <v>450</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1172</v>
+        <v>451</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1173</v>
+        <v>452</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1200</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>689</v>
+        <v>1187</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>690</v>
+        <v>1194</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>691</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>455</v>
+        <v>691</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>1205</v>
+        <v>453</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1206</v>
+        <v>454</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1207</v>
+        <v>455</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>765</v>
+        <v>1205</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>766</v>
+        <v>1206</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>767</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>1051</v>
+        <v>765</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1052</v>
+        <v>766</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1053</v>
+        <v>767</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>821</v>
+        <v>1051</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>822</v>
+        <v>1052</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>823</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>423</v>
+        <v>823</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>1016</v>
+        <v>421</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1017</v>
+        <v>422</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1018</v>
+        <v>423</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>744</v>
+        <v>1016</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>745</v>
+        <v>1017</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>746</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>905</v>
+        <v>744</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>904</v>
+        <v>745</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>906</v>
+        <v>746</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>540</v>
+        <v>907</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>541</v>
+        <v>908</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>542</v>
+        <v>909</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>664</v>
+        <v>542</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>967</v>
+        <v>692</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>926</v>
+        <v>693</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>912</v>
+        <v>694</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>786</v>
+        <v>967</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>787</v>
+        <v>926</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>788</v>
+        <v>912</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>625</v>
+        <v>788</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>838</v>
+        <v>625</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>688</v>
+        <v>838</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>897</v>
+        <v>687</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>971</v>
+        <v>896</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>973</v>
+        <v>897</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>474</v>
+        <v>950</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>475</v>
+        <v>951</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>476</v>
+        <v>952</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>569</v>
+        <v>476</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>770</v>
+        <v>569</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>354</v>
+        <v>770</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>714</v>
+        <v>354</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>881</v>
+        <v>712</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>882</v>
+        <v>713</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>883</v>
+        <v>714</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>1147</v>
+        <v>881</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1148</v>
+        <v>882</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1146</v>
+        <v>883</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>953</v>
+        <v>1147</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>955</v>
+        <v>1148</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>956</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>747</v>
+        <v>953</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>748</v>
+        <v>955</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>749</v>
+        <v>956</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>578</v>
+        <v>749</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>826</v>
+        <v>578</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>1024</v>
+        <v>824</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1026</v>
+        <v>826</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>427</v>
+        <v>1024</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>428</v>
+        <v>1025</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>429</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>932</v>
+        <v>418</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>933</v>
+        <v>419</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>934</v>
+        <v>420</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>735</v>
+        <v>932</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>736</v>
+        <v>933</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>737</v>
+        <v>934</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D479" s="1" t="s">
+      <c r="D480" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1223">
   <si>
     <t>key</t>
   </si>
@@ -4119,6 +4119,36 @@
   </si>
   <si>
     <t>daylight_saving_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ambiguous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ambiguous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曖昧</t>
+    <rPh sb="0" eb="2">
+      <t>アイマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theme.japan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t>ニホn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4180,8 +4210,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4323,7 +4363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="145">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4391,6 +4431,11 @@
     <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -4459,6 +4504,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4733,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G480"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5953,82 +6003,85 @@
         <v>225</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>236</v>
@@ -6036,1253 +6089,1251 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>1158</v>
+        <v>241</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1034</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>244</v>
+        <v>1033</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>236</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D165" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>3</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>250</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1115</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>250</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>273</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G225" s="1"/>
+        <v>387</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A227" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A228" s="1" t="s">
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>1204</v>
-      </c>
+      <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>732</v>
+        <v>1190</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>733</v>
+        <v>1197</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G231" s="1"/>
+        <v>1204</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>513</v>
+        <v>732</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>515</v>
+        <v>734</v>
       </c>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>988</v>
+        <v>513</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>989</v>
+        <v>514</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>990</v>
+        <v>515</v>
       </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>1180</v>
+        <v>988</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1179</v>
+        <v>989</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1183</v>
+        <v>990</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>970</v>
+        <v>1180</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>923</v>
+        <v>1179</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>964</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>603</v>
+        <v>970</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>604</v>
+        <v>923</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G236" s="1"/>
+        <v>964</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>845</v>
+        <v>1217</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>846</v>
+        <v>1218</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>847</v>
-      </c>
+        <v>1219</v>
+      </c>
+      <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>815</v>
+        <v>650</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>816</v>
+        <v>651</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>817</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>525</v>
+        <v>845</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>526</v>
+        <v>846</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>963</v>
+        <v>847</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>938</v>
+        <v>815</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>939</v>
+        <v>816</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>940</v>
+        <v>817</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>751</v>
+        <v>526</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>752</v>
+        <v>963</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>1079</v>
+        <v>938</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1075</v>
+        <v>939</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>653</v>
+        <v>940</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>1078</v>
+        <v>750</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1076</v>
+        <v>751</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1077</v>
+        <v>752</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>659</v>
+        <v>1079</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>660</v>
+        <v>1075</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1164</v>
+        <v>1076</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1174</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>1181</v>
+        <v>659</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1178</v>
+        <v>660</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1182</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>892</v>
+        <v>1163</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>893</v>
+        <v>1164</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>965</v>
+        <v>1181</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>928</v>
+        <v>1178</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>913</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>1080</v>
+        <v>892</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>1082</v>
+        <v>893</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>797</v>
+        <v>965</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>798</v>
+        <v>928</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>799</v>
+        <v>913</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>860</v>
+        <v>1080</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>861</v>
+        <v>1081</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>862</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>1039</v>
+        <v>797</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1040</v>
+        <v>798</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1041</v>
+        <v>799</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>447</v>
+        <v>860</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>448</v>
+        <v>861</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>449</v>
+        <v>862</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>969</v>
+        <v>447</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>924</v>
+        <v>448</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>910</v>
+        <v>449</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>489</v>
+        <v>1048</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>490</v>
+        <v>1049</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>491</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>878</v>
+        <v>969</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>879</v>
+        <v>924</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>863</v>
+        <v>489</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>864</v>
+        <v>490</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>865</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>564</v>
+        <v>878</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>565</v>
+        <v>879</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>566</v>
+        <v>880</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>546</v>
+        <v>863</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>547</v>
+        <v>864</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>548</v>
+        <v>865</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>872</v>
+        <v>564</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>873</v>
+        <v>565</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>874</v>
+        <v>566</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>707</v>
+        <v>546</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>708</v>
+        <v>547</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>709</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>394</v>
+        <v>872</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>395</v>
+        <v>873</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>396</v>
+        <v>874</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>397</v>
+        <v>707</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>398</v>
+        <v>708</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>399</v>
+        <v>709</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>1188</v>
+        <v>400</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1195</v>
+        <v>401</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1202</v>
+        <v>402</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>818</v>
+        <v>459</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>819</v>
+        <v>460</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>820</v>
+        <v>461</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>635</v>
+        <v>1188</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>636</v>
+        <v>1195</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>637</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>657</v>
+        <v>819</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>658</v>
+        <v>820</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>782</v>
+        <v>635</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>783</v>
+        <v>636</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>784</v>
+        <v>637</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>1211</v>
+        <v>782</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1212</v>
+        <v>783</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1213</v>
+        <v>784</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>1154</v>
+        <v>698</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1153</v>
+        <v>699</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1152</v>
+        <v>700</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>468</v>
+        <v>1211</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>469</v>
+        <v>1212</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>470</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>779</v>
+        <v>1154</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>780</v>
+        <v>1153</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>781</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>1149</v>
+        <v>468</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1150</v>
+        <v>469</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1151</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>579</v>
+        <v>779</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>581</v>
+        <v>781</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>537</v>
+        <v>1149</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>538</v>
+        <v>1150</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>539</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>1019</v>
+        <v>537</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1020</v>
+        <v>538</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>539</v>
@@ -7290,2161 +7341,2183 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>1216</v>
+        <v>534</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1215</v>
+        <v>535</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1214</v>
+        <v>536</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>1</v>
+        <v>1019</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>5</v>
+        <v>1020</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>222</v>
+        <v>539</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>477</v>
+        <v>1216</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>478</v>
+        <v>1215</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>479</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>669</v>
+        <v>5</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>670</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>851</v>
+        <v>668</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>852</v>
+        <v>669</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>853</v>
+        <v>670</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>644</v>
+        <v>507</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>789</v>
+        <v>851</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>424</v>
+        <v>789</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>425</v>
+        <v>790</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>426</v>
+        <v>791</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>947</v>
+        <v>680</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>948</v>
+        <v>681</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>949</v>
+        <v>682</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>570</v>
+        <v>424</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>571</v>
+        <v>425</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>572</v>
+        <v>426</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>519</v>
+        <v>947</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>520</v>
+        <v>948</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>1036</v>
+        <v>519</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1037</v>
+        <v>520</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1038</v>
+        <v>521</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>773</v>
+        <v>1036</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>24</v>
+        <v>1037</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>774</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>609</v>
+        <v>773</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>610</v>
+        <v>24</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>611</v>
+        <v>774</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>794</v>
+        <v>462</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>795</v>
+        <v>463</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>796</v>
+        <v>464</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>1012</v>
+        <v>794</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1013</v>
+        <v>795</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1014</v>
+        <v>796</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>803</v>
+        <v>582</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>804</v>
+        <v>583</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>805</v>
+        <v>584</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>1189</v>
+        <v>1012</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1196</v>
+        <v>1013</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1203</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>456</v>
+        <v>803</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>458</v>
+        <v>805</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>839</v>
+        <v>1189</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>840</v>
+        <v>1196</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>841</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>1042</v>
+        <v>456</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1043</v>
+        <v>457</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1044</v>
+        <v>458</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>717</v>
+        <v>841</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>718</v>
+        <v>1042</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>719</v>
+        <v>1043</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>720</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>585</v>
+        <v>718</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>587</v>
+        <v>720</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>756</v>
+        <v>585</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>757</v>
+        <v>586</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>758</v>
+        <v>587</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>894</v>
+        <v>612</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>895</v>
+        <v>613</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>683</v>
+        <v>894</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>685</v>
+        <v>895</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>792</v>
+        <v>701</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>962</v>
+        <v>703</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>775</v>
+        <v>683</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>432</v>
+        <v>685</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>835</v>
+        <v>962</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>1208</v>
+        <v>775</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1209</v>
+        <v>776</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1210</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>640</v>
+        <v>835</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>552</v>
+        <v>1208</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>553</v>
+        <v>1209</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>554</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>959</v>
+        <v>638</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>960</v>
+        <v>639</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>961</v>
+        <v>640</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>1031</v>
+        <v>552</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1030</v>
+        <v>553</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1032</v>
+        <v>554</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>695</v>
+        <v>959</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>696</v>
+        <v>960</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>697</v>
+        <v>961</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>677</v>
+        <v>1031</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>678</v>
+        <v>1030</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>679</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>875</v>
+        <v>695</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>876</v>
+        <v>696</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>877</v>
+        <v>697</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>958</v>
+        <v>677</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>957</v>
+        <v>678</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>1009</v>
+        <v>875</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1010</v>
+        <v>876</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>954</v>
+        <v>877</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>886</v>
+        <v>958</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>887</v>
+        <v>957</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>857</v>
+        <v>1009</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>858</v>
+        <v>1010</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>859</v>
+        <v>954</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>573</v>
+        <v>884</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>575</v>
+        <v>885</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>575</v>
+        <v>755</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>985</v>
+        <v>777</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>916</v>
+        <v>778</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>979</v>
+        <v>575</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>984</v>
+        <v>510</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>917</v>
+        <v>511</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>978</v>
+        <v>512</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>760</v>
+        <v>986</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>761</v>
+        <v>914</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>762</v>
+        <v>981</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>889</v>
+        <v>915</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>890</v>
+        <v>760</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>891</v>
+        <v>761</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>968</v>
+        <v>888</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>711</v>
+        <v>891</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>811</v>
+        <v>968</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>590</v>
+        <v>711</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>527</v>
+        <v>900</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>943</v>
+        <v>588</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>941</v>
+        <v>589</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>942</v>
+        <v>590</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>808</v>
+        <v>527</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>1071</v>
+        <v>943</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1072</v>
+        <v>941</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>785</v>
+        <v>942</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>869</v>
+        <v>806</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>870</v>
+        <v>807</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>871</v>
+        <v>808</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>641</v>
+        <v>1071</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>642</v>
+        <v>1072</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>643</v>
+        <v>785</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>529</v>
+        <v>870</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>530</v>
+        <v>871</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>438</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>809</v>
+        <v>439</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>994</v>
+        <v>441</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>649</v>
+        <v>444</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>929</v>
+        <v>809</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>930</v>
+        <v>810</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>995</v>
+        <v>647</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>996</v>
+        <v>648</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>997</v>
+        <v>649</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>998</v>
+        <v>929</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1000</v>
+        <v>931</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>731</v>
+        <v>997</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>854</v>
+        <v>998</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>855</v>
+        <v>999</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>856</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>665</v>
+        <v>1005</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>966</v>
+        <v>854</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>927</v>
+        <v>855</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>910</v>
+        <v>856</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>1001</v>
+        <v>665</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1002</v>
+        <v>666</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1003</v>
+        <v>667</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1008</v>
+        <v>910</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>430</v>
+        <v>1006</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>431</v>
+        <v>1007</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>432</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>433</v>
+        <v>1021</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>434</v>
+        <v>1022</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>435</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>601</v>
+        <v>431</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>602</v>
+        <v>432</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>446</v>
+        <v>596</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>545</v>
+        <v>446</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>467</v>
+        <v>599</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>408</v>
+        <v>622</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>850</v>
+        <v>411</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>827</v>
+        <v>412</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>828</v>
+        <v>413</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>829</v>
+        <v>414</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>1168</v>
+        <v>848</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1169</v>
+        <v>849</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1170</v>
+        <v>850</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>1161</v>
+        <v>830</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1162</v>
+        <v>831</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1160</v>
+        <v>832</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>728</v>
+        <v>1156</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>729</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>724</v>
+        <v>1161</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>725</v>
+        <v>1162</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>726</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>518</v>
+        <v>729</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>593</v>
+        <v>726</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>676</v>
+        <v>518</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1035</v>
+        <v>593</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>1045</v>
+        <v>674</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1046</v>
+        <v>675</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1047</v>
+        <v>676</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>1028</v>
+        <v>654</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1027</v>
+        <v>655</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>842</v>
+        <v>1045</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>843</v>
+        <v>1046</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>844</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>866</v>
+        <v>1028</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>867</v>
+        <v>1027</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>868</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>471</v>
+        <v>842</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>472</v>
+        <v>843</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>473</v>
+        <v>844</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>975</v>
+        <v>866</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1004</v>
+        <v>868</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>1175</v>
+        <v>972</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1176</v>
+        <v>921</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1177</v>
+        <v>974</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>991</v>
+        <v>495</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>992</v>
+        <v>496</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>993</v>
+        <v>497</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>983</v>
+        <v>1175</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>919</v>
+        <v>1176</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>976</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>918</v>
+        <v>992</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>901</v>
+        <v>983</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>903</v>
+        <v>976</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>480</v>
+        <v>982</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>481</v>
+        <v>918</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>482</v>
+        <v>977</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>1073</v>
+        <v>901</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1074</v>
+        <v>902</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1014</v>
+        <v>903</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>483</v>
+        <v>1073</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>484</v>
+        <v>1074</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>485</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>1165</v>
+        <v>498</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1166</v>
+        <v>499</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1167</v>
+        <v>500</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>944</v>
+        <v>1165</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>945</v>
+        <v>1166</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>946</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>706</v>
+        <v>488</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>801</v>
+        <v>945</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>802</v>
+        <v>946</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>533</v>
+        <v>706</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>502</v>
+        <v>801</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>503</v>
+        <v>802</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>723</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>563</v>
+        <v>723</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>764</v>
+        <v>562</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1011</v>
+        <v>551</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>606</v>
+        <v>763</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>607</v>
+        <v>764</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>1184</v>
+        <v>618</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1191</v>
+        <v>619</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1198</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>1185</v>
+        <v>606</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1192</v>
+        <v>607</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1199</v>
+        <v>608</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>450</v>
+        <v>1184</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>451</v>
+        <v>1191</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>452</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1173</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>1186</v>
+        <v>450</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1193</v>
+        <v>451</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1201</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>689</v>
+        <v>1186</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>690</v>
+        <v>1193</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>691</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>453</v>
+        <v>1187</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>454</v>
+        <v>1194</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>455</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>1205</v>
+        <v>689</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1206</v>
+        <v>690</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1207</v>
+        <v>691</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>767</v>
+        <v>455</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>1051</v>
+        <v>1205</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1052</v>
+        <v>1206</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1053</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>421</v>
+        <v>1051</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>422</v>
+        <v>1052</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>423</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>1016</v>
+        <v>821</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1017</v>
+        <v>822</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1018</v>
+        <v>823</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>746</v>
+        <v>423</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>905</v>
+        <v>1016</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>904</v>
+        <v>1017</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>906</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>907</v>
+        <v>744</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>908</v>
+        <v>745</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>909</v>
+        <v>746</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>540</v>
+        <v>905</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>541</v>
+        <v>904</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>542</v>
+        <v>906</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>662</v>
+        <v>907</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>663</v>
+        <v>908</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>664</v>
+        <v>909</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>694</v>
+        <v>542</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>967</v>
+        <v>662</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>926</v>
+        <v>663</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>912</v>
+        <v>664</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>623</v>
+        <v>967</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>624</v>
+        <v>926</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>625</v>
+        <v>912</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>896</v>
+        <v>836</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>897</v>
+        <v>837</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>971</v>
+        <v>686</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>920</v>
+        <v>687</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>973</v>
+        <v>688</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>950</v>
+        <v>896</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>474</v>
+        <v>971</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>475</v>
+        <v>920</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>476</v>
+        <v>973</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>568</v>
+        <v>951</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>569</v>
+        <v>952</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>770</v>
+        <v>476</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>772</v>
+        <v>568</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>714</v>
+        <v>770</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>881</v>
+        <v>771</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>882</v>
+        <v>772</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>883</v>
+        <v>354</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>1147</v>
+        <v>712</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1148</v>
+        <v>713</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1146</v>
+        <v>714</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>953</v>
+        <v>881</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>955</v>
+        <v>882</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>956</v>
+        <v>883</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>747</v>
+        <v>1147</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>748</v>
+        <v>1148</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>749</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>576</v>
+        <v>953</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>577</v>
+        <v>955</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>578</v>
+        <v>956</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>1024</v>
+        <v>576</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1025</v>
+        <v>577</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1026</v>
+        <v>578</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>429</v>
+        <v>826</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>626</v>
+        <v>1024</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>627</v>
+        <v>1025</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>628</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>932</v>
+        <v>626</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>933</v>
+        <v>627</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>735</v>
+        <v>418</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>736</v>
+        <v>419</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>737</v>
+        <v>420</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>738</v>
+        <v>932</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>739</v>
+        <v>933</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>740</v>
+        <v>934</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
-        <v>629</v>
+        <v>738</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>631</v>
+        <v>740</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A481" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A482" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D480" s="1" t="s">
+      <c r="D482" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1232">
   <si>
     <t>key</t>
   </si>
@@ -4149,6 +4149,48 @@
     <rPh sb="0" eb="2">
       <t>ニホn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system.error.x.notenable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}が、無効です。</t>
+    <rPh sb="5" eb="7">
+      <t>ムコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not enable {0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4210,8 +4252,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4363,7 +4415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="155">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4436,6 +4488,11 @@
     <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -4509,6 +4566,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4783,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G482"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:XFD166"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5802,6 +5864,17 @@
         <v>184</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>185</v>
@@ -7033,925 +7106,925 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>1039</v>
+        <v>1229</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1040</v>
+        <v>1230</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1041</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>447</v>
+        <v>1039</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>448</v>
+        <v>1040</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>449</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>1048</v>
+        <v>447</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1049</v>
+        <v>448</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1050</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>969</v>
+        <v>1048</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>924</v>
+        <v>1049</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>910</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>489</v>
+        <v>969</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>490</v>
+        <v>924</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>491</v>
+        <v>910</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>878</v>
+        <v>489</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>879</v>
+        <v>490</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>880</v>
+        <v>491</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>566</v>
+        <v>865</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>872</v>
+        <v>546</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>873</v>
+        <v>547</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>874</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>707</v>
+        <v>872</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>708</v>
+        <v>873</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>709</v>
+        <v>874</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>394</v>
+        <v>707</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>396</v>
+        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>1188</v>
+        <v>459</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1195</v>
+        <v>460</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1202</v>
+        <v>461</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>818</v>
+        <v>1188</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>819</v>
+        <v>1195</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>820</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>637</v>
+        <v>820</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>782</v>
+        <v>656</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>783</v>
+        <v>657</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>784</v>
+        <v>658</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>1211</v>
+        <v>698</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1212</v>
+        <v>699</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1213</v>
+        <v>700</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>1154</v>
+        <v>1211</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1153</v>
+        <v>1212</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1152</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>468</v>
+        <v>1154</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>469</v>
+        <v>1153</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>470</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>781</v>
+        <v>470</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>1149</v>
+        <v>779</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1150</v>
+        <v>780</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1151</v>
+        <v>781</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>579</v>
+        <v>1149</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>580</v>
+        <v>1150</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>581</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>1019</v>
+        <v>534</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1020</v>
+        <v>535</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>1216</v>
+        <v>1019</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1215</v>
+        <v>1020</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1214</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>1</v>
+        <v>1216</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>5</v>
+        <v>1215</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>479</v>
+        <v>222</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>670</v>
+        <v>479</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>509</v>
+        <v>670</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>853</v>
+        <v>509</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>646</v>
+        <v>853</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>791</v>
+        <v>646</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>682</v>
+        <v>791</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>426</v>
+        <v>682</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>947</v>
+        <v>424</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>948</v>
+        <v>425</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>949</v>
+        <v>426</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>570</v>
+        <v>947</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>571</v>
+        <v>948</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>572</v>
+        <v>949</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>1036</v>
+        <v>522</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1037</v>
+        <v>523</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1038</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>492</v>
+        <v>1036</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>493</v>
+        <v>1037</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>494</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>773</v>
+        <v>492</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>24</v>
+        <v>493</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>774</v>
+        <v>494</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>462</v>
+        <v>773</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>464</v>
+        <v>774</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>611</v>
+        <v>464</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>796</v>
+        <v>611</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>584</v>
+        <v>796</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>1012</v>
+        <v>582</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1013</v>
+        <v>583</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1014</v>
+        <v>584</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>803</v>
+        <v>1012</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>804</v>
+        <v>1013</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>805</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>1189</v>
+        <v>803</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1196</v>
+        <v>804</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1203</v>
+        <v>805</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>456</v>
+        <v>1189</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>457</v>
+        <v>1196</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>458</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>841</v>
+        <v>458</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>1042</v>
+        <v>839</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1043</v>
+        <v>840</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1044</v>
+        <v>841</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>715</v>
+        <v>1042</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>716</v>
+        <v>1043</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>717</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>617</v>
+        <v>720</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>758</v>
+        <v>614</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>894</v>
+        <v>756</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>895</v>
+        <v>757</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>701</v>
+        <v>894</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>703</v>
+        <v>895</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>793</v>
+        <v>684</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>962</v>
+        <v>685</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>432</v>
+        <v>962</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>834</v>
+        <v>776</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>835</v>
+        <v>432</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>1208</v>
+        <v>833</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1209</v>
+        <v>834</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1210</v>
+        <v>835</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>638</v>
+        <v>1208</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>639</v>
+        <v>1209</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>640</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>959</v>
+        <v>552</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>960</v>
+        <v>553</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>961</v>
+        <v>554</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>1031</v>
+        <v>959</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1030</v>
+        <v>960</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1032</v>
+        <v>961</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>695</v>
+        <v>1031</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>696</v>
+        <v>1030</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>697</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>875</v>
+        <v>677</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>876</v>
+        <v>678</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>877</v>
+        <v>679</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>958</v>
+        <v>875</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>957</v>
+        <v>876</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>759</v>
+        <v>877</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>1009</v>
+        <v>958</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1010</v>
+        <v>957</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>954</v>
+        <v>759</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>886</v>
+        <v>1009</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>887</v>
+        <v>1010</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>859</v>
+        <v>887</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>885</v>
+        <v>858</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>753</v>
+        <v>884</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>755</v>
+        <v>885</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>575</v>
+        <v>755</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>777</v>
+        <v>573</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>778</v>
+        <v>574</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>575</v>
@@ -7959,1565 +8032,1587 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>510</v>
+        <v>777</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>985</v>
+        <v>510</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>916</v>
+        <v>511</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>979</v>
+        <v>512</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>760</v>
+        <v>987</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>761</v>
+        <v>915</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>762</v>
+        <v>980</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>888</v>
+        <v>760</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>889</v>
+        <v>761</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>968</v>
+        <v>890</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>710</v>
+        <v>925</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>711</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>812</v>
+        <v>710</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>900</v>
+        <v>711</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>589</v>
+        <v>812</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>590</v>
+        <v>900</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>813</v>
+        <v>588</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>814</v>
+        <v>589</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>943</v>
+        <v>813</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>941</v>
+        <v>814</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>942</v>
+        <v>527</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>806</v>
+        <v>943</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>807</v>
+        <v>941</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>808</v>
+        <v>942</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>1071</v>
+        <v>806</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1072</v>
+        <v>807</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>869</v>
+        <v>1071</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>870</v>
+        <v>1072</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>871</v>
+        <v>785</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>641</v>
+        <v>869</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>642</v>
+        <v>870</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>643</v>
+        <v>871</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>809</v>
+        <v>442</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>810</v>
+        <v>443</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>994</v>
+        <v>444</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>648</v>
+        <v>810</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>649</v>
+        <v>994</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>929</v>
+        <v>647</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>930</v>
+        <v>648</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>931</v>
+        <v>649</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>995</v>
+        <v>929</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>996</v>
+        <v>930</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>997</v>
+        <v>931</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>730</v>
+        <v>999</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>731</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>854</v>
+        <v>1005</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>856</v>
+        <v>731</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>667</v>
+        <v>856</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>966</v>
+        <v>665</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>927</v>
+        <v>666</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>910</v>
+        <v>667</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>1001</v>
+        <v>966</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1002</v>
+        <v>927</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1003</v>
+        <v>910</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>430</v>
+        <v>1021</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>431</v>
+        <v>1022</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>432</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>602</v>
+        <v>435</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>673</v>
+        <v>596</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>446</v>
+        <v>673</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>598</v>
+        <v>446</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>599</v>
+        <v>446</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>622</v>
+        <v>467</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>405</v>
+        <v>622</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>850</v>
+        <v>414</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>1168</v>
+        <v>1224</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1169</v>
+        <v>1225</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1170</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>1161</v>
+        <v>830</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1162</v>
+        <v>831</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1160</v>
+        <v>832</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>728</v>
+        <v>1156</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>729</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>724</v>
+        <v>1161</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>725</v>
+        <v>1162</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>726</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>518</v>
+        <v>729</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>593</v>
+        <v>726</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>676</v>
+        <v>518</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1035</v>
+        <v>593</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>1045</v>
+        <v>674</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1046</v>
+        <v>675</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1047</v>
+        <v>676</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>1028</v>
+        <v>654</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1027</v>
+        <v>655</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>842</v>
+        <v>1045</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>843</v>
+        <v>1046</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>844</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>866</v>
+        <v>1028</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>867</v>
+        <v>1027</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>868</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>471</v>
+        <v>842</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>472</v>
+        <v>843</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>473</v>
+        <v>844</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>975</v>
+        <v>866</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1004</v>
+        <v>868</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>1175</v>
+        <v>972</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1176</v>
+        <v>921</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1177</v>
+        <v>974</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>991</v>
+        <v>495</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>992</v>
+        <v>496</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>993</v>
+        <v>497</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>983</v>
+        <v>1175</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>919</v>
+        <v>1176</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>976</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>918</v>
+        <v>992</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>901</v>
+        <v>983</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>903</v>
+        <v>976</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>480</v>
+        <v>982</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>481</v>
+        <v>918</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>482</v>
+        <v>977</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>1073</v>
+        <v>901</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1074</v>
+        <v>902</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1014</v>
+        <v>903</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>483</v>
+        <v>1073</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>484</v>
+        <v>1074</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>485</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>1165</v>
+        <v>498</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1166</v>
+        <v>499</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1167</v>
+        <v>500</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>944</v>
+        <v>1165</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>945</v>
+        <v>1166</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>946</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>706</v>
+        <v>488</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>801</v>
+        <v>945</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>802</v>
+        <v>946</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>533</v>
+        <v>706</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>502</v>
+        <v>801</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>503</v>
+        <v>802</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>723</v>
+        <v>417</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>563</v>
+        <v>723</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>764</v>
+        <v>562</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1011</v>
+        <v>551</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>606</v>
+        <v>763</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>607</v>
+        <v>764</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>1184</v>
+        <v>618</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1191</v>
+        <v>619</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1198</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>1185</v>
+        <v>606</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1192</v>
+        <v>607</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1199</v>
+        <v>608</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>450</v>
+        <v>1184</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>451</v>
+        <v>1191</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>452</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1173</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>1186</v>
+        <v>450</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1193</v>
+        <v>451</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1201</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>689</v>
+        <v>1186</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>690</v>
+        <v>1193</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>691</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>453</v>
+        <v>1187</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>454</v>
+        <v>1194</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>455</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>1205</v>
+        <v>689</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1206</v>
+        <v>690</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1207</v>
+        <v>691</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>767</v>
+        <v>455</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>1051</v>
+        <v>1205</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1052</v>
+        <v>1206</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1053</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>421</v>
+        <v>1051</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>422</v>
+        <v>1052</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>423</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>1016</v>
+        <v>821</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1017</v>
+        <v>822</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1018</v>
+        <v>823</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>746</v>
+        <v>423</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>905</v>
+        <v>1016</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>904</v>
+        <v>1017</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>906</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>907</v>
+        <v>744</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>908</v>
+        <v>745</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>909</v>
+        <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>540</v>
+        <v>905</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>541</v>
+        <v>904</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>542</v>
+        <v>906</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>662</v>
+        <v>907</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>663</v>
+        <v>908</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>664</v>
+        <v>909</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>694</v>
+        <v>542</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>967</v>
+        <v>662</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>926</v>
+        <v>663</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>912</v>
+        <v>664</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>623</v>
+        <v>967</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>624</v>
+        <v>926</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>625</v>
+        <v>912</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>896</v>
+        <v>836</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>897</v>
+        <v>837</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>971</v>
+        <v>686</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>920</v>
+        <v>687</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>973</v>
+        <v>688</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>950</v>
+        <v>896</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>474</v>
+        <v>971</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>475</v>
+        <v>920</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>476</v>
+        <v>973</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>568</v>
+        <v>951</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>569</v>
+        <v>952</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>770</v>
+        <v>476</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>772</v>
+        <v>568</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>714</v>
+        <v>770</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>881</v>
+        <v>771</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>882</v>
+        <v>772</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>883</v>
+        <v>354</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>1147</v>
+        <v>712</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1148</v>
+        <v>713</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1146</v>
+        <v>714</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>953</v>
+        <v>881</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>955</v>
+        <v>882</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>956</v>
+        <v>883</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>747</v>
+        <v>1147</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>748</v>
+        <v>1148</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>749</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>576</v>
+        <v>953</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>577</v>
+        <v>955</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>578</v>
+        <v>956</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>1024</v>
+        <v>576</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1025</v>
+        <v>577</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1026</v>
+        <v>578</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>429</v>
+        <v>826</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>626</v>
+        <v>1024</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>627</v>
+        <v>1025</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>628</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>932</v>
+        <v>626</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>933</v>
+        <v>627</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>735</v>
+        <v>418</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>736</v>
+        <v>419</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>737</v>
+        <v>420</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
-        <v>738</v>
+        <v>932</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>739</v>
+        <v>933</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>740</v>
+        <v>934</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
-        <v>629</v>
+        <v>738</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>631</v>
+        <v>740</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A483" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A484" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D482" s="1" t="s">
+      <c r="D484" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1235">
   <si>
     <t>key</t>
   </si>
@@ -4191,6 +4191,18 @@
   </si>
   <si>
     <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>viewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューワー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4845,10 +4857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G484"/>
+  <dimension ref="A1:G485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H486" sqref="H486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9486,133 +9498,144 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>576</v>
+        <v>1232</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>577</v>
+        <v>1233</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>578</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>826</v>
+        <v>578</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>1024</v>
+        <v>824</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1026</v>
+        <v>826</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>427</v>
+        <v>1024</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>428</v>
+        <v>1025</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>429</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
-        <v>932</v>
+        <v>418</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>933</v>
+        <v>419</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>934</v>
+        <v>420</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
-        <v>735</v>
+        <v>932</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>736</v>
+        <v>933</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>737</v>
+        <v>934</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A485" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D484" s="1" t="s">
+      <c r="D485" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1253">
   <si>
     <t>key</t>
   </si>
@@ -4203,6 +4203,81 @@
   </si>
   <si>
     <t>ビューワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時計</t>
+    <rPh sb="0" eb="2">
+      <t>トケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recovery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recovery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system.error.x.illegal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illegal {0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}が、不正です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_and_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_of_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_or_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0} and {1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0} or {1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}と、{1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}か、{1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{1}の、{0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0} of {1}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4264,8 +4339,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4427,7 +4542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="195">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4505,6 +4620,26 @@
     <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -4583,6 +4718,26 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4857,10 +5012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H486" sqref="H486"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F491" sqref="F491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5867,314 +6022,317 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>182</v>
+        <v>1241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>183</v>
+        <v>1242</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>184</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>1226</v>
+        <v>182</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1228</v>
+        <v>183</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1227</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>185</v>
+        <v>1226</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>186</v>
+        <v>1228</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>187</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>236</v>
@@ -6182,1276 +6340,1273 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1158</v>
+        <v>241</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1034</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>244</v>
+        <v>1033</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>236</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D166" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>3</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>250</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1115</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>250</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>273</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G226" s="1"/>
+        <v>387</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" s="1" t="s">
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>1204</v>
-      </c>
+      <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>732</v>
+        <v>1190</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>733</v>
+        <v>1197</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G232" s="1"/>
+        <v>1204</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>513</v>
+        <v>732</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>515</v>
+        <v>734</v>
       </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>988</v>
+        <v>513</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>989</v>
+        <v>514</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>990</v>
+        <v>515</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>1180</v>
+        <v>988</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1179</v>
+        <v>989</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1183</v>
+        <v>990</v>
       </c>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>970</v>
+        <v>1180</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>923</v>
+        <v>1179</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>964</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>603</v>
+        <v>970</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>604</v>
+        <v>923</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G237" s="1"/>
+        <v>964</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>1217</v>
+        <v>603</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1218</v>
+        <v>604</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1219</v>
+        <v>605</v>
       </c>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>650</v>
+        <v>1217</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>651</v>
+        <v>1218</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>652</v>
+        <v>1219</v>
       </c>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>845</v>
+        <v>650</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>846</v>
+        <v>651</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>847</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>525</v>
+        <v>815</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>526</v>
+        <v>816</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>963</v>
+        <v>817</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>938</v>
+        <v>525</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>939</v>
+        <v>526</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>751</v>
+        <v>939</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>752</v>
+        <v>940</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>1079</v>
+        <v>750</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1075</v>
+        <v>751</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1077</v>
+        <v>653</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>659</v>
+        <v>1078</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>660</v>
+        <v>1076</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>661</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>1163</v>
+        <v>659</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1164</v>
+        <v>660</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1174</v>
+        <v>661</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>892</v>
+        <v>1181</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>893</v>
+        <v>1178</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>965</v>
+        <v>892</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>1080</v>
+        <v>965</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1081</v>
+        <v>928</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1082</v>
+        <v>913</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>797</v>
+        <v>1080</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>798</v>
+        <v>1081</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>799</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>861</v>
+        <v>798</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>862</v>
+        <v>799</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>1229</v>
+        <v>860</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1230</v>
+        <v>861</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1231</v>
+        <v>862</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>1039</v>
+        <v>1229</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1040</v>
+        <v>1230</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1041</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>447</v>
+        <v>1039</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>448</v>
+        <v>1040</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>449</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>1048</v>
+        <v>447</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1049</v>
+        <v>448</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1050</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>969</v>
+        <v>1048</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>924</v>
+        <v>1049</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>910</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>489</v>
+        <v>969</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>490</v>
+        <v>924</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>491</v>
+        <v>910</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>878</v>
+        <v>489</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>879</v>
+        <v>490</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>880</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>566</v>
+        <v>865</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>872</v>
+        <v>1235</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>873</v>
+        <v>1236</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>874</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>707</v>
+        <v>546</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>708</v>
+        <v>547</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>709</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>394</v>
+        <v>872</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>395</v>
+        <v>873</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>396</v>
+        <v>874</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>397</v>
+        <v>707</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>398</v>
+        <v>708</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>399</v>
+        <v>709</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>1188</v>
+        <v>400</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1195</v>
+        <v>401</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1202</v>
+        <v>402</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>818</v>
+        <v>459</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>819</v>
+        <v>460</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>820</v>
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>635</v>
+        <v>1188</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>636</v>
+        <v>1195</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>637</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>657</v>
+        <v>819</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>658</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>782</v>
+        <v>635</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>783</v>
+        <v>636</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>784</v>
+        <v>637</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>1211</v>
+        <v>782</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1212</v>
+        <v>783</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1213</v>
+        <v>784</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>1154</v>
+        <v>698</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1153</v>
+        <v>699</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1152</v>
+        <v>700</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>468</v>
+        <v>1211</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>469</v>
+        <v>1212</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>470</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>779</v>
+        <v>1154</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>780</v>
+        <v>1153</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>781</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>1149</v>
+        <v>468</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1150</v>
+        <v>469</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1151</v>
+        <v>470</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>579</v>
+        <v>779</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>581</v>
+        <v>781</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>537</v>
+        <v>1149</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>538</v>
+        <v>1150</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>539</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>1019</v>
+        <v>537</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1020</v>
+        <v>538</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>539</v>
@@ -7459,2183 +7614,2249 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>1216</v>
+        <v>534</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1215</v>
+        <v>535</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1214</v>
+        <v>536</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>1</v>
+        <v>1019</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>5</v>
+        <v>1020</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>222</v>
+        <v>539</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>477</v>
+        <v>1216</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>478</v>
+        <v>1215</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>479</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>669</v>
+        <v>5</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>670</v>
+        <v>222</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>851</v>
+        <v>668</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>852</v>
+        <v>669</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>853</v>
+        <v>670</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>644</v>
+        <v>507</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>789</v>
+        <v>851</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>424</v>
+        <v>789</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>425</v>
+        <v>790</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>426</v>
+        <v>791</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>947</v>
+        <v>680</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>948</v>
+        <v>681</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>949</v>
+        <v>682</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>570</v>
+        <v>424</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>571</v>
+        <v>425</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>572</v>
+        <v>426</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>519</v>
+        <v>947</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>520</v>
+        <v>948</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>1036</v>
+        <v>519</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1037</v>
+        <v>520</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1038</v>
+        <v>521</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>773</v>
+        <v>1036</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>24</v>
+        <v>1037</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>774</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>609</v>
+        <v>773</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>610</v>
+        <v>24</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>611</v>
+        <v>774</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>794</v>
+        <v>462</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>795</v>
+        <v>463</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>796</v>
+        <v>464</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>1012</v>
+        <v>794</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1013</v>
+        <v>795</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1014</v>
+        <v>796</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>803</v>
+        <v>582</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>804</v>
+        <v>583</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>805</v>
+        <v>584</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>1189</v>
+        <v>1012</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1196</v>
+        <v>1013</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1203</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>456</v>
+        <v>803</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>458</v>
+        <v>805</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>839</v>
+        <v>1189</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>840</v>
+        <v>1196</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>841</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>1042</v>
+        <v>456</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1043</v>
+        <v>457</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1044</v>
+        <v>458</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>717</v>
+        <v>841</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>718</v>
+        <v>1042</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>719</v>
+        <v>1043</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>720</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>585</v>
+        <v>718</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>587</v>
+        <v>720</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>756</v>
+        <v>585</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>757</v>
+        <v>586</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>758</v>
+        <v>587</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>894</v>
+        <v>612</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>895</v>
+        <v>613</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>683</v>
+        <v>894</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>685</v>
+        <v>895</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>792</v>
+        <v>701</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>962</v>
+        <v>703</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>775</v>
+        <v>683</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>432</v>
+        <v>685</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>835</v>
+        <v>962</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>1208</v>
+        <v>775</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1209</v>
+        <v>776</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1210</v>
+        <v>432</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>640</v>
+        <v>835</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>552</v>
+        <v>1208</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>553</v>
+        <v>1209</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>554</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>959</v>
+        <v>638</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>960</v>
+        <v>639</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>961</v>
+        <v>640</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>1031</v>
+        <v>552</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1030</v>
+        <v>553</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1032</v>
+        <v>554</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>695</v>
+        <v>959</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>696</v>
+        <v>960</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>697</v>
+        <v>961</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>677</v>
+        <v>1031</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>678</v>
+        <v>1030</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>679</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>875</v>
+        <v>695</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>876</v>
+        <v>696</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>877</v>
+        <v>697</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>958</v>
+        <v>677</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>957</v>
+        <v>678</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>1009</v>
+        <v>875</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1010</v>
+        <v>876</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>954</v>
+        <v>877</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>886</v>
+        <v>958</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>887</v>
+        <v>957</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>857</v>
+        <v>1009</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>858</v>
+        <v>1010</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>859</v>
+        <v>954</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>573</v>
+        <v>884</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>575</v>
+        <v>885</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>575</v>
+        <v>755</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>985</v>
+        <v>777</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>916</v>
+        <v>778</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>979</v>
+        <v>575</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>984</v>
+        <v>510</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>917</v>
+        <v>511</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>978</v>
+        <v>512</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>760</v>
+        <v>986</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>761</v>
+        <v>914</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>762</v>
+        <v>981</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>889</v>
+        <v>915</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>890</v>
+        <v>760</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>891</v>
+        <v>761</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>968</v>
+        <v>888</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>711</v>
+        <v>891</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>811</v>
+        <v>968</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>590</v>
+        <v>711</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>527</v>
+        <v>900</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>943</v>
+        <v>588</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>941</v>
+        <v>589</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>942</v>
+        <v>590</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>808</v>
+        <v>527</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>1071</v>
+        <v>943</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1072</v>
+        <v>941</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>785</v>
+        <v>942</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>869</v>
+        <v>806</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>870</v>
+        <v>807</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>871</v>
+        <v>808</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>641</v>
+        <v>1071</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>642</v>
+        <v>1072</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>643</v>
+        <v>785</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>529</v>
+        <v>870</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>530</v>
+        <v>871</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>438</v>
+        <v>643</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>809</v>
+        <v>439</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>994</v>
+        <v>441</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>649</v>
+        <v>444</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>929</v>
+        <v>809</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>930</v>
+        <v>810</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>995</v>
+        <v>647</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>996</v>
+        <v>648</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>997</v>
+        <v>649</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>998</v>
+        <v>929</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1000</v>
+        <v>931</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>731</v>
+        <v>997</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>854</v>
+        <v>998</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>855</v>
+        <v>999</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>856</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>665</v>
+        <v>1005</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>966</v>
+        <v>854</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>927</v>
+        <v>855</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>910</v>
+        <v>856</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>1001</v>
+        <v>665</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1002</v>
+        <v>666</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1003</v>
+        <v>667</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1008</v>
+        <v>910</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>430</v>
+        <v>1006</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>431</v>
+        <v>1007</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>432</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>433</v>
+        <v>1021</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>434</v>
+        <v>1022</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>435</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>601</v>
+        <v>431</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>602</v>
+        <v>432</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>446</v>
+        <v>596</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>545</v>
+        <v>446</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>467</v>
+        <v>599</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>408</v>
+        <v>622</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>850</v>
+        <v>411</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>1224</v>
+        <v>412</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1225</v>
+        <v>413</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1207</v>
+        <v>414</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>1168</v>
+        <v>1224</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1169</v>
+        <v>1225</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1170</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>1161</v>
+        <v>830</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1162</v>
+        <v>831</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1160</v>
+        <v>832</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>728</v>
+        <v>1156</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>729</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>724</v>
+        <v>1161</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>725</v>
+        <v>1162</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>726</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>518</v>
+        <v>729</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>593</v>
+        <v>726</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>676</v>
+        <v>518</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1035</v>
+        <v>593</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>1045</v>
+        <v>674</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1046</v>
+        <v>675</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1047</v>
+        <v>676</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>1028</v>
+        <v>654</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1027</v>
+        <v>655</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>842</v>
+        <v>1045</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>843</v>
+        <v>1046</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>844</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>866</v>
+        <v>1028</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>867</v>
+        <v>1027</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>868</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>471</v>
+        <v>842</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>472</v>
+        <v>843</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>473</v>
+        <v>844</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>975</v>
+        <v>866</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1004</v>
+        <v>868</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>1175</v>
+        <v>1238</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1176</v>
+        <v>1239</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1177</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>992</v>
+        <v>921</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>983</v>
+        <v>495</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>919</v>
+        <v>496</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>976</v>
+        <v>497</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>982</v>
+        <v>1175</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>918</v>
+        <v>1176</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>977</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>901</v>
+        <v>991</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>902</v>
+        <v>992</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>903</v>
+        <v>993</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>480</v>
+        <v>983</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>481</v>
+        <v>919</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>482</v>
+        <v>976</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>1073</v>
+        <v>982</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1074</v>
+        <v>918</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1014</v>
+        <v>977</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>498</v>
+        <v>901</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>499</v>
+        <v>902</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>500</v>
+        <v>903</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>1165</v>
+        <v>1073</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1166</v>
+        <v>1074</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1167</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>944</v>
+        <v>483</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>945</v>
+        <v>484</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>946</v>
+        <v>485</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>704</v>
+        <v>1165</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>705</v>
+        <v>1166</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>706</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>800</v>
+        <v>486</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>801</v>
+        <v>487</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>802</v>
+        <v>488</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>531</v>
+        <v>944</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>532</v>
+        <v>945</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>533</v>
+        <v>946</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>501</v>
+        <v>704</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>502</v>
+        <v>705</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>503</v>
+        <v>706</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>415</v>
+        <v>800</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>416</v>
+        <v>801</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>417</v>
+        <v>802</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>721</v>
+        <v>501</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>722</v>
+        <v>502</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>723</v>
+        <v>503</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>556</v>
+        <v>416</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>557</v>
+        <v>417</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>549</v>
+        <v>721</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>550</v>
+        <v>722</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>551</v>
+        <v>723</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>763</v>
+        <v>555</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>764</v>
+        <v>556</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1011</v>
+        <v>563</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>1184</v>
+        <v>763</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1191</v>
+        <v>764</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1198</v>
+        <v>551</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>1185</v>
+        <v>618</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1192</v>
+        <v>619</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1199</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>450</v>
+        <v>606</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>451</v>
+        <v>607</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>452</v>
+        <v>608</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1172</v>
+        <v>1191</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1173</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>1187</v>
+        <v>450</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1194</v>
+        <v>451</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1201</v>
+        <v>452</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>689</v>
+        <v>1171</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>690</v>
+        <v>1172</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>691</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>453</v>
+        <v>1186</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>454</v>
+        <v>1193</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>455</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1223</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>765</v>
+        <v>689</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>766</v>
+        <v>690</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>767</v>
+        <v>691</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>1051</v>
+        <v>453</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1052</v>
+        <v>454</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1053</v>
+        <v>455</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>821</v>
+        <v>1205</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>822</v>
+        <v>1206</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>823</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>421</v>
+        <v>765</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>423</v>
+        <v>767</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1018</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>745</v>
+        <v>822</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>905</v>
+        <v>421</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>904</v>
+        <v>422</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>906</v>
+        <v>423</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>907</v>
+        <v>1016</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>908</v>
+        <v>1017</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>909</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>540</v>
+        <v>744</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>541</v>
+        <v>745</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>542</v>
+        <v>746</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>662</v>
+        <v>905</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>663</v>
+        <v>904</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>664</v>
+        <v>906</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>692</v>
+        <v>907</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>693</v>
+        <v>908</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>694</v>
+        <v>909</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>967</v>
+        <v>540</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>926</v>
+        <v>541</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>912</v>
+        <v>542</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>786</v>
+        <v>662</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>787</v>
+        <v>663</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>788</v>
+        <v>664</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>836</v>
+        <v>967</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>837</v>
+        <v>926</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>838</v>
+        <v>912</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>687</v>
+        <v>787</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>688</v>
+        <v>788</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>896</v>
+        <v>623</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>897</v>
+        <v>624</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>971</v>
+        <v>836</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>920</v>
+        <v>837</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>973</v>
+        <v>838</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>950</v>
+        <v>686</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>951</v>
+        <v>687</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>952</v>
+        <v>688</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>474</v>
+        <v>896</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>476</v>
+        <v>897</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>567</v>
+        <v>971</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>568</v>
+        <v>920</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>569</v>
+        <v>973</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>768</v>
+        <v>950</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>769</v>
+        <v>951</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>770</v>
+        <v>952</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>771</v>
+        <v>474</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>772</v>
+        <v>475</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>354</v>
+        <v>476</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>712</v>
+        <v>567</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>713</v>
+        <v>568</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>714</v>
+        <v>569</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>881</v>
+        <v>768</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>882</v>
+        <v>769</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>883</v>
+        <v>770</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>1147</v>
+        <v>771</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1148</v>
+        <v>772</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1146</v>
+        <v>354</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>953</v>
+        <v>712</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>955</v>
+        <v>713</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>956</v>
+        <v>714</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>747</v>
+        <v>881</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>1232</v>
+        <v>1147</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1233</v>
+        <v>1148</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1234</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>576</v>
+        <v>953</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>577</v>
+        <v>955</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>578</v>
+        <v>956</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>1024</v>
+        <v>1232</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1025</v>
+        <v>1233</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1026</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>427</v>
+        <v>576</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>428</v>
+        <v>577</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>429</v>
+        <v>578</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>626</v>
+        <v>824</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>627</v>
+        <v>825</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>628</v>
+        <v>826</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
-        <v>418</v>
+        <v>1024</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>419</v>
+        <v>1025</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>420</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
-        <v>932</v>
+        <v>427</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>933</v>
+        <v>428</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>934</v>
+        <v>429</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
-        <v>735</v>
+        <v>626</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>736</v>
+        <v>627</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>737</v>
+        <v>628</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
-        <v>738</v>
+        <v>418</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>739</v>
+        <v>419</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
-        <v>741</v>
+        <v>932</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>742</v>
+        <v>933</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>743</v>
+        <v>934</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
-        <v>629</v>
+        <v>1244</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>630</v>
+        <v>1247</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>631</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A486" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A487" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A488" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A489" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A490" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A491" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B491" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D485" s="1" t="s">
+      <c r="D491" s="1" t="s">
         <v>634</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94E8B599-B953-A545-A211-6181F5680D76}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="880" windowWidth="33460" windowHeight="21560" tabRatio="990"/>
+    <workbookView xWindow="5800" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="messages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1268">
   <si>
     <t>key</t>
   </si>
@@ -2625,15 +2626,6 @@
   </si>
   <si>
     <t>チェックボックス</t>
-  </si>
-  <si>
-    <t>radiobutton</t>
-  </si>
-  <si>
-    <t>Radio Button</t>
-  </si>
-  <si>
-    <t>ラジオボタン</t>
   </si>
   <si>
     <t>link</t>
@@ -4280,12 +4272,87 @@
     <t>{0} of {1}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Radio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>badge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Badge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0} {1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}{1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4745,6 +4812,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5011,21 +5081,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G491"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F491" sqref="F491"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A488" sqref="A488:XFD488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5053,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5061,41 +5131,41 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5106,7 +5176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5114,10 +5184,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -5125,10 +5195,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -5136,10 +5206,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5147,10 +5217,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5161,7 +5231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -5169,15 +5239,15 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -5185,10 +5255,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -5210,7 +5280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -5221,12 +5291,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -5237,12 +5307,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -5253,7 +5323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -5264,7 +5334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -5275,7 +5345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -5286,7 +5356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -5297,7 +5367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5308,7 +5378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -5319,7 +5389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -5330,7 +5400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -5341,7 +5411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -5352,7 +5422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -5363,7 +5433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -5374,7 +5444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -5382,10 +5452,10 @@
         <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -5396,7 +5466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -5407,7 +5477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -5418,7 +5488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -5429,7 +5499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -5440,7 +5510,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -5451,7 +5521,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -5462,7 +5532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -5473,7 +5543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -5484,7 +5554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -5495,7 +5565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5506,7 +5576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -5517,7 +5587,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -5528,7 +5598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -5539,7 +5609,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -5550,7 +5620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -5561,7 +5631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -5572,7 +5642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -5583,7 +5653,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
@@ -5594,24 +5664,24 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -5620,9 +5690,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>139</v>
@@ -5631,75 +5701,75 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>141</v>
@@ -5708,9 +5778,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>142</v>
@@ -5719,64 +5789,64 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>148</v>
@@ -5785,64 +5855,64 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>151</v>
@@ -5851,22 +5921,22 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>153</v>
       </c>
@@ -5874,10 +5944,10 @@
         <v>154</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>155</v>
       </c>
@@ -5888,29 +5958,29 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>158</v>
       </c>
@@ -5921,7 +5991,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>161</v>
       </c>
@@ -5932,7 +6002,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -5943,29 +6013,29 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>167</v>
       </c>
@@ -5976,7 +6046,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>170</v>
       </c>
@@ -5987,7 +6057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>173</v>
       </c>
@@ -5998,7 +6068,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>176</v>
       </c>
@@ -6009,7 +6079,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>179</v>
       </c>
@@ -6020,18 +6090,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>182</v>
       </c>
@@ -6042,18 +6112,18 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>185</v>
       </c>
@@ -6064,7 +6134,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>188</v>
       </c>
@@ -6075,7 +6145,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>191</v>
       </c>
@@ -6086,7 +6156,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>194</v>
       </c>
@@ -6097,7 +6167,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>197</v>
       </c>
@@ -6108,7 +6178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>200</v>
       </c>
@@ -6119,7 +6189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>203</v>
       </c>
@@ -6130,12 +6200,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>206</v>
       </c>
@@ -6146,12 +6216,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>209</v>
       </c>
@@ -6162,39 +6232,39 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>214</v>
       </c>
@@ -6205,7 +6275,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>216</v>
       </c>
@@ -6216,12 +6286,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>218</v>
       </c>
@@ -6232,7 +6302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
         <v>221</v>
       </c>
@@ -6243,7 +6313,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>223</v>
       </c>
@@ -6254,23 +6324,23 @@
         <v>225</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
         <v>226</v>
       </c>
@@ -6281,7 +6351,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>229</v>
       </c>
@@ -6289,15 +6359,15 @@
         <v>230</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>231</v>
       </c>
@@ -6308,7 +6378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>234</v>
       </c>
@@ -6319,7 +6389,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>237</v>
       </c>
@@ -6327,7 +6397,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>239</v>
       </c>
@@ -6338,7 +6408,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>240</v>
       </c>
@@ -6346,7 +6416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>241</v>
       </c>
@@ -6357,26 +6427,26 @@
         <v>243</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
         <v>244</v>
       </c>
@@ -6387,7 +6457,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>245</v>
       </c>
@@ -6401,7 +6471,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>246</v>
       </c>
@@ -6412,23 +6482,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>247</v>
       </c>
@@ -6436,10 +6506,10 @@
         <v>154</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>248</v>
       </c>
@@ -6450,7 +6520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>251</v>
       </c>
@@ -6458,10 +6528,10 @@
         <v>252</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>253</v>
       </c>
@@ -6472,7 +6542,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>254</v>
       </c>
@@ -6483,7 +6553,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
         <v>257</v>
       </c>
@@ -6494,7 +6564,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
         <v>260</v>
       </c>
@@ -6505,7 +6575,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
         <v>263</v>
       </c>
@@ -6516,7 +6586,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
         <v>266</v>
       </c>
@@ -6527,7 +6597,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
         <v>267</v>
       </c>
@@ -6535,10 +6605,10 @@
         <v>268</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>269</v>
       </c>
@@ -6546,10 +6616,10 @@
         <v>270</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
         <v>271</v>
       </c>
@@ -6560,7 +6630,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
         <v>274</v>
       </c>
@@ -6571,7 +6641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>277</v>
       </c>
@@ -6582,7 +6652,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
         <v>280</v>
       </c>
@@ -6593,7 +6663,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
         <v>283</v>
       </c>
@@ -6604,7 +6674,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
         <v>286</v>
       </c>
@@ -6615,7 +6685,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
         <v>289</v>
       </c>
@@ -6626,7 +6696,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
         <v>292</v>
       </c>
@@ -6637,7 +6707,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>295</v>
       </c>
@@ -6648,7 +6718,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>298</v>
       </c>
@@ -6659,7 +6729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>301</v>
       </c>
@@ -6670,7 +6740,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>304</v>
       </c>
@@ -6681,7 +6751,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>307</v>
       </c>
@@ -6692,7 +6762,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>310</v>
       </c>
@@ -6703,7 +6773,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>313</v>
       </c>
@@ -6714,7 +6784,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>316</v>
       </c>
@@ -6725,7 +6795,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>319</v>
       </c>
@@ -6736,7 +6806,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>322</v>
       </c>
@@ -6747,7 +6817,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>325</v>
       </c>
@@ -6758,7 +6828,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>328</v>
       </c>
@@ -6769,7 +6839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>331</v>
       </c>
@@ -6780,7 +6850,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
         <v>334</v>
       </c>
@@ -6791,7 +6861,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>337</v>
       </c>
@@ -6802,7 +6872,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
         <v>340</v>
       </c>
@@ -6813,7 +6883,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
         <v>343</v>
       </c>
@@ -6824,7 +6894,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>346</v>
       </c>
@@ -6835,7 +6905,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>349</v>
       </c>
@@ -6846,7 +6916,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
         <v>352</v>
       </c>
@@ -6857,7 +6927,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>355</v>
       </c>
@@ -6868,7 +6938,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
         <v>358</v>
       </c>
@@ -6879,7 +6949,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
         <v>361</v>
       </c>
@@ -6890,7 +6960,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
         <v>364</v>
       </c>
@@ -6901,7 +6971,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
         <v>367</v>
       </c>
@@ -6912,7 +6982,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
         <v>370</v>
       </c>
@@ -6923,7 +6993,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
         <v>373</v>
       </c>
@@ -6934,7 +7004,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
         <v>376</v>
       </c>
@@ -6945,7 +7015,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
         <v>379</v>
       </c>
@@ -6956,7 +7026,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>382</v>
       </c>
@@ -6967,7 +7037,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>385</v>
       </c>
@@ -6978,7 +7048,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>388</v>
       </c>
@@ -6990,7 +7060,7 @@
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>391</v>
       </c>
@@ -7002,30 +7072,30 @@
       </c>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7">
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7">
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>732</v>
       </c>
@@ -7037,7 +7107,7 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>513</v>
       </c>
@@ -7049,2819 +7119,2875 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A240" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A243" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A244" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A246" s="1" t="s">
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A247" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A252" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A253" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A254" s="1" t="s">
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A255" s="1" t="s">
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A256" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A262" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A264" s="1" t="s">
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A265" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A267" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269" s="1" t="s">
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="1" t="s">
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="1" t="s">
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="1" t="s">
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A273" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A274" s="1" t="s">
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A275" s="1" t="s">
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A276" s="1" t="s">
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A277" s="1" t="s">
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A278" s="1" t="s">
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A279" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A280" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282" s="1" t="s">
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A284" s="1" t="s">
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A285" s="1" t="s">
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A286" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A287" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>1216</v>
+        <v>534</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1215</v>
+        <v>535</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A290" s="1" t="s">
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A291" s="1" t="s">
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A292" s="1" t="s">
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A293" s="1" t="s">
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B295" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A294" s="1" t="s">
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B296" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A295" s="1" t="s">
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A296" s="1" t="s">
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A297" s="1" t="s">
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A298" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A299" s="1" t="s">
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A300" s="1" t="s">
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A301" s="1" t="s">
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A302" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A303" s="1" t="s">
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A304" s="1" t="s">
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A305" s="1" t="s">
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A306" s="1" t="s">
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A307" s="1" t="s">
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A308" s="1" t="s">
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A309" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A311" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A312" s="1" t="s">
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A313" s="1" t="s">
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A314" s="1" t="s">
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B406" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="D406" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A315" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A316" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A317" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A318" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A319" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A320" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A321" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A322" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A323" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A324" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A325" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A326" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A327" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A328" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A329" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A330" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A331" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A332" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A333" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A334" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A335" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A336" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A337" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A338" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A339" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A340" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A341" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A342" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A343" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A344" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A345" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A346" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A347" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A348" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A349" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A350" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A351" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A352" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A353" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A354" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A355" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A356" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A357" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A358" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A359" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A360" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A361" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A362" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A363" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A364" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A365" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A366" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A367" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A368" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A369" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A370" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A371" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A372" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A373" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A374" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A375" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A376" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A377" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A378" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A379" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A380" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A381" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A382" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A383" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A384" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A385" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A386" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A387" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A388" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A389" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A390" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A391" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A392" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A393" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A394" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A395" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A396" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A397" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A398" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A399" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A400" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A401" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A402" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A403" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A404" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A405" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A406" s="1" t="s">
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="B411" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="D411" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A409" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A410" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A411" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
         <v>972</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D412" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D420" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A413" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A414" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A415" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A416" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A417" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A418" s="1" t="s">
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D418" s="1" t="s">
+      <c r="D458" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A419" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A420" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A421" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A422" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A423" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A424" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A425" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A426" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A427" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A428" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A429" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A430" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A431" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A432" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A433" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A434" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A435" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A436" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A437" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A438" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A439" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A440" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A441" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A442" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A443" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A444" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A445" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A446" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A447" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A448" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A449" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A450" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A451" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A452" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A453" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A454" s="1" t="s">
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D454" s="1" t="s">
+      <c r="D459" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A455" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D455" s="1" t="s">
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D463" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A456" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A457" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A458" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A459" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A460" s="1" t="s">
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="B464" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D460" s="1" t="s">
+      <c r="D464" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A461" s="1" t="s">
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B465" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D461" s="1" t="s">
+      <c r="D465" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A462" s="1" t="s">
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="B466" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D462" s="1" t="s">
+      <c r="D466" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A463" s="1" t="s">
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D463" s="1" t="s">
+      <c r="D467" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A464" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A465" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A466" s="1" t="s">
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D466" s="1" t="s">
+      <c r="B478" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A467" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A468" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A469" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A470" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A471" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A472" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A473" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A474" s="1" t="s">
+      <c r="D478" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A475" s="1" t="s">
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B479" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="D475" s="1" t="s">
+      <c r="D479" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A476" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A477" s="1" t="s">
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D477" s="1" t="s">
+      <c r="D481" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A478" s="1" t="s">
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="D478" s="1" t="s">
+      <c r="D482" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A479" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A480" s="1" t="s">
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D480" s="1" t="s">
+      <c r="D484" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A481" s="1" t="s">
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D481" s="1" t="s">
+      <c r="D485" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A482" s="1" t="s">
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D482" s="1" t="s">
+      <c r="D486" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A483" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="D483" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A484" s="1" t="s">
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="D489" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D484" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A485" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D485" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A486" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A487" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A488" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A489" s="1" t="s">
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B494" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D489" s="1" t="s">
+      <c r="D494" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A490" s="1" t="s">
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B495" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D490" s="1" t="s">
+      <c r="D495" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A491" s="1" t="s">
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D491" s="1" t="s">
+      <c r="D496" s="1" t="s">
         <v>634</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A220:G425">
+  <sortState ref="A220:G428">
     <sortCondition ref="A220"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94E8B599-B953-A545-A211-6181F5680D76}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72E1441D-15B7-254D-B780-0069975E76F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="messages" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1278">
   <si>
     <t>key</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t># Japanese messages Copyright (C) 2017-2017 hiro20v. &lt;https://github.com/hiro20v&gt;</t>
   </si>
   <si>
     <t># Default messages</t>
@@ -3211,10 +3208,6 @@
     <rPh sb="0" eb="2">
       <t>ヒッs</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Copyright (C) 2009-2017 Lightbend Inc. &lt;https://www.lightbend.com&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4345,6 +4338,57 @@
   </si>
   <si>
     <t>{0}{1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Copyright (C) 2009-2018 Lightbend Inc. &lt;https://www.lightbend.com&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Japanese messages Copyright (C) 2017-2018 hiro20v. &lt;https://github.com/hiro20v&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map.rotate.lambda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map.rotate.phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map.rotate.gamma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>77</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5082,10 +5126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G496"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A488" sqref="A488:XFD488"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5131,10 +5175,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5144,10 +5188,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1012</v>
+        <v>1269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5157,511 +5201,511 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5671,7 +5715,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5681,244 +5725,244 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5928,7 +5972,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5938,266 +5982,266 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>1225</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6207,13 +6251,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6223,13 +6267,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6239,24 +6283,24 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6266,24 +6310,24 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D140" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6293,46 +6337,46 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6342,24 +6386,24 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="D153" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6369,111 +6413,111 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>2</v>
@@ -6484,1761 +6528,1759 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>8</v>
+        <v>1271</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>247</v>
+        <v>1273</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>154</v>
+        <v>1268</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1268</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>250</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>250</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>256</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>262</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1114</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1113</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>279</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>282</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G227" s="1"/>
+        <v>377</v>
+      </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G228" s="1"/>
+        <v>380</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="G229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G230" s="1"/>
+        <v>384</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
+      <c r="A231" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>1187</v>
+        <v>390</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1194</v>
+        <v>391</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1201</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G236" s="1"/>
+        <v>1199</v>
+      </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>1260</v>
+        <v>731</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1261</v>
+        <v>732</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1259</v>
+        <v>733</v>
       </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>967</v>
+        <v>512</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>920</v>
+        <v>513</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>961</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>603</v>
+        <v>984</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>604</v>
+        <v>985</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>605</v>
+        <v>986</v>
       </c>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>1214</v>
+        <v>1175</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1215</v>
+        <v>1174</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1216</v>
+        <v>1178</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>650</v>
+        <v>1258</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>651</v>
+        <v>1259</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>652</v>
+        <v>1257</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>845</v>
+        <v>966</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>846</v>
+        <v>919</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>847</v>
+        <v>960</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>815</v>
+        <v>602</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>816</v>
+        <v>603</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>817</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>525</v>
+        <v>1212</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>526</v>
+        <v>1213</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>960</v>
-      </c>
+        <v>1214</v>
+      </c>
+      <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>935</v>
+        <v>649</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>936</v>
+        <v>650</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>937</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>750</v>
+        <v>844</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>752</v>
+        <v>846</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>1076</v>
+        <v>814</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1072</v>
+        <v>815</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>653</v>
+        <v>816</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>1075</v>
+        <v>524</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1073</v>
+        <v>525</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1074</v>
+        <v>959</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
-        <v>659</v>
+        <v>934</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>660</v>
+        <v>935</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>661</v>
+        <v>936</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>1262</v>
+        <v>749</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1263</v>
+        <v>750</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1264</v>
+        <v>751</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>1160</v>
+        <v>1074</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1161</v>
+        <v>1070</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1171</v>
+        <v>652</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>1178</v>
+        <v>1073</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1175</v>
+        <v>1071</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1179</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>889</v>
+        <v>658</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>890</v>
+        <v>659</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>962</v>
+        <v>1260</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>925</v>
+        <v>1261</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>910</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>1077</v>
+        <v>1158</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1078</v>
+        <v>1159</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1079</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>797</v>
+        <v>1176</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>798</v>
+        <v>1173</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>799</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>1226</v>
+        <v>961</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1227</v>
+        <v>924</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1228</v>
+        <v>909</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>1036</v>
+        <v>1075</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>447</v>
+        <v>796</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>448</v>
+        <v>797</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>449</v>
+        <v>798</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>1045</v>
+        <v>859</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1046</v>
+        <v>860</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1047</v>
+        <v>861</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>966</v>
+        <v>1224</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>921</v>
+        <v>1225</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>907</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>489</v>
+        <v>1034</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>490</v>
+        <v>1035</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>491</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>875</v>
+        <v>446</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>876</v>
+        <v>447</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>877</v>
+        <v>448</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>863</v>
+        <v>1043</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>864</v>
+        <v>1044</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>564</v>
+        <v>965</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>565</v>
+        <v>920</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>566</v>
+        <v>906</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>1232</v>
+        <v>488</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1233</v>
+        <v>489</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1234</v>
+        <v>490</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>546</v>
+        <v>874</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>547</v>
+        <v>875</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>548</v>
+        <v>876</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>707</v>
+        <v>563</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>708</v>
+        <v>564</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>709</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>394</v>
+        <v>1230</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>395</v>
+        <v>1231</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>396</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>397</v>
+        <v>545</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>398</v>
+        <v>546</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>399</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>400</v>
+        <v>868</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>401</v>
+        <v>869</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>402</v>
+        <v>870</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>459</v>
+        <v>1275</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>460</v>
+        <v>1276</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>461</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>1185</v>
+        <v>706</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1192</v>
+        <v>707</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1199</v>
+        <v>708</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>818</v>
+        <v>393</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>819</v>
+        <v>394</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>820</v>
+        <v>395</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>635</v>
+        <v>396</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>636</v>
+        <v>397</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>637</v>
+        <v>398</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>656</v>
+        <v>399</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>657</v>
+        <v>400</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>658</v>
+        <v>401</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>782</v>
+        <v>458</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>783</v>
+        <v>459</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>784</v>
+        <v>460</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>698</v>
+        <v>1183</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>699</v>
+        <v>1190</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>700</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>1208</v>
+        <v>817</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1209</v>
+        <v>818</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1210</v>
+        <v>819</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>1151</v>
+        <v>634</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1150</v>
+        <v>635</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1149</v>
+        <v>636</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>468</v>
+        <v>655</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>469</v>
+        <v>656</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>470</v>
+        <v>657</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>1146</v>
+        <v>697</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1147</v>
+        <v>698</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1148</v>
+        <v>699</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>579</v>
+        <v>1206</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>580</v>
+        <v>1207</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>581</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>537</v>
+        <v>1149</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>538</v>
+        <v>1148</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>539</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>1016</v>
+        <v>778</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1017</v>
+        <v>779</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>539</v>
+        <v>780</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>1213</v>
+        <v>1144</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1212</v>
+        <v>1145</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1211</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>1</v>
+        <v>578</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>5</v>
+        <v>579</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>222</v>
+        <v>580</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>668</v>
+        <v>533</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>669</v>
+        <v>534</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>670</v>
+        <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>507</v>
+        <v>1014</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>508</v>
+        <v>1015</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>851</v>
+        <v>1211</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>852</v>
+        <v>1210</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>853</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>644</v>
+        <v>1</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>645</v>
+        <v>5</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>646</v>
+        <v>221</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>789</v>
+        <v>476</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>790</v>
+        <v>477</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>791</v>
+        <v>478</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>944</v>
+        <v>850</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>946</v>
+        <v>852</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>519</v>
+        <v>788</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>520</v>
+        <v>789</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>521</v>
+        <v>790</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>522</v>
+        <v>679</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>523</v>
+        <v>680</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>524</v>
+        <v>681</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>1033</v>
+        <v>423</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1034</v>
+        <v>424</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1035</v>
+        <v>425</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>492</v>
+        <v>943</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>493</v>
+        <v>944</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>494</v>
+        <v>945</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>773</v>
+        <v>569</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>24</v>
+        <v>570</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>774</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>609</v>
+        <v>521</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>611</v>
+        <v>523</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>794</v>
+        <v>1031</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>795</v>
+        <v>1032</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>796</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>583</v>
+        <v>492</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>584</v>
+        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>1009</v>
+        <v>772</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1010</v>
+        <v>23</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1011</v>
+        <v>773</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>803</v>
+        <v>461</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>804</v>
+        <v>462</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>805</v>
+        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>1186</v>
+        <v>608</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1193</v>
+        <v>609</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1200</v>
+        <v>610</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>456</v>
+        <v>793</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>457</v>
+        <v>794</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>458</v>
+        <v>795</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>839</v>
+        <v>581</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>840</v>
+        <v>582</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>841</v>
+        <v>583</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1041</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>718</v>
+        <v>1184</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>719</v>
+        <v>1191</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>720</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>615</v>
+        <v>455</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>616</v>
+        <v>456</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>617</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>585</v>
+        <v>838</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>586</v>
+        <v>839</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>587</v>
+        <v>840</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>612</v>
+        <v>1037</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>613</v>
+        <v>1038</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>614</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>891</v>
+        <v>717</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>892</v>
+        <v>718</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>701</v>
+        <v>614</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>702</v>
+        <v>615</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>703</v>
+        <v>616</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>684</v>
+        <v>585</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>685</v>
+        <v>586</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>792</v>
+        <v>611</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>793</v>
+        <v>612</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>959</v>
+        <v>613</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>432</v>
+        <v>757</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>835</v>
+        <v>891</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>1205</v>
+        <v>700</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1206</v>
+        <v>701</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1207</v>
+        <v>702</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>552</v>
+        <v>791</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>553</v>
+        <v>792</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>554</v>
+        <v>958</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>956</v>
+        <v>774</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>957</v>
+        <v>775</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>958</v>
+        <v>431</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>1028</v>
+        <v>832</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1027</v>
+        <v>833</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1029</v>
+        <v>834</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>695</v>
+        <v>1203</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>696</v>
+        <v>1204</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>697</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>872</v>
+        <v>551</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>873</v>
+        <v>552</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>874</v>
+        <v>553</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8246,1749 +8288,1804 @@
         <v>955</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>759</v>
+        <v>957</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>951</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>883</v>
+        <v>694</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>884</v>
+        <v>695</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>857</v>
+        <v>676</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>858</v>
+        <v>677</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>859</v>
+        <v>678</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>753</v>
+        <v>954</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>754</v>
+        <v>953</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>573</v>
+        <v>1005</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>574</v>
+        <v>1006</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>575</v>
+        <v>950</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>575</v>
+        <v>883</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>510</v>
+        <v>856</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>511</v>
+        <v>857</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>512</v>
+        <v>858</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>982</v>
+        <v>880</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>976</v>
+        <v>881</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>981</v>
+        <v>752</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>914</v>
+        <v>753</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>975</v>
+        <v>754</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>983</v>
+        <v>572</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>911</v>
+        <v>573</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>978</v>
+        <v>574</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>984</v>
+        <v>776</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>912</v>
+        <v>777</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>977</v>
+        <v>574</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>760</v>
+        <v>509</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>761</v>
+        <v>510</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>762</v>
+        <v>511</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>885</v>
+        <v>981</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>886</v>
+        <v>912</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>887</v>
+        <v>980</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>888</v>
+        <v>913</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>710</v>
+        <v>911</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>711</v>
+        <v>976</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>811</v>
+        <v>759</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>812</v>
+        <v>760</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>897</v>
+        <v>761</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>588</v>
+        <v>884</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>590</v>
+        <v>885</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>813</v>
+        <v>886</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>527</v>
+        <v>887</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>939</v>
+        <v>907</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>807</v>
+        <v>709</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>808</v>
+        <v>710</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>1068</v>
+        <v>810</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1069</v>
+        <v>811</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>785</v>
+        <v>896</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>866</v>
+        <v>587</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>867</v>
+        <v>588</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>868</v>
+        <v>589</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>641</v>
+        <v>812</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>642</v>
+        <v>813</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>528</v>
+        <v>939</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>529</v>
+        <v>937</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>530</v>
+        <v>938</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>436</v>
+        <v>805</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>437</v>
+        <v>806</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>438</v>
+        <v>807</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>439</v>
+        <v>1066</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>440</v>
+        <v>1067</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>441</v>
+        <v>784</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>442</v>
+        <v>865</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>443</v>
+        <v>866</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>444</v>
+        <v>867</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>809</v>
+        <v>640</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>810</v>
+        <v>641</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>991</v>
+        <v>642</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>649</v>
+        <v>529</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>926</v>
+        <v>435</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>927</v>
+        <v>436</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>928</v>
+        <v>437</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>992</v>
+        <v>438</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>993</v>
+        <v>439</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>994</v>
+        <v>440</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>995</v>
+        <v>441</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>996</v>
+        <v>442</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>997</v>
+        <v>443</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>1002</v>
+        <v>808</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>730</v>
+        <v>809</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>731</v>
+        <v>990</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>854</v>
+        <v>646</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>855</v>
+        <v>647</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>856</v>
+        <v>648</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>665</v>
+        <v>925</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>666</v>
+        <v>926</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>667</v>
+        <v>927</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>924</v>
+        <v>992</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>907</v>
+        <v>993</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1004</v>
+        <v>729</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1005</v>
+        <v>730</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>1018</v>
+        <v>853</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1019</v>
+        <v>854</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1020</v>
+        <v>855</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>430</v>
+        <v>664</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>431</v>
+        <v>665</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>432</v>
+        <v>666</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>433</v>
+        <v>962</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>434</v>
+        <v>923</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>435</v>
+        <v>906</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>600</v>
+        <v>997</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>601</v>
+        <v>998</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>602</v>
+        <v>999</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>594</v>
+        <v>1002</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>595</v>
+        <v>1003</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>596</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>671</v>
+        <v>1016</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>672</v>
+        <v>1017</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>673</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>597</v>
+        <v>432</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>598</v>
+        <v>433</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>599</v>
+        <v>434</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>465</v>
+        <v>593</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>466</v>
+        <v>594</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>467</v>
+        <v>595</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>406</v>
+        <v>596</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>407</v>
+        <v>597</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>408</v>
+        <v>598</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>411</v>
+        <v>544</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>848</v>
+        <v>619</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>849</v>
+        <v>620</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>850</v>
+        <v>621</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>1221</v>
+        <v>402</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1222</v>
+        <v>403</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1204</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>827</v>
+        <v>405</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>828</v>
+        <v>406</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>829</v>
+        <v>407</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>1165</v>
+        <v>408</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1166</v>
+        <v>409</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1167</v>
+        <v>410</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>830</v>
+        <v>411</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>831</v>
+        <v>412</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>832</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>1154</v>
+        <v>847</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1153</v>
+        <v>848</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1152</v>
+        <v>849</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1157</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>727</v>
+        <v>826</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>728</v>
+        <v>827</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>729</v>
+        <v>828</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>724</v>
+        <v>1163</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>725</v>
+        <v>1164</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>726</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>516</v>
+        <v>829</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>517</v>
+        <v>830</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>518</v>
+        <v>831</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>591</v>
+        <v>1152</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>592</v>
+        <v>1151</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>593</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>674</v>
+        <v>1156</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>675</v>
+        <v>1157</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>676</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>654</v>
+        <v>726</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>655</v>
+        <v>727</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1032</v>
+        <v>728</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>1042</v>
+        <v>723</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1043</v>
+        <v>724</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1044</v>
+        <v>725</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>1025</v>
+        <v>515</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1024</v>
+        <v>516</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1026</v>
+        <v>517</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>842</v>
+        <v>590</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>843</v>
+        <v>591</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>844</v>
+        <v>592</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>1256</v>
+        <v>673</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1257</v>
+        <v>674</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1258</v>
+        <v>675</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>1253</v>
+        <v>653</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1254</v>
+        <v>654</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1255</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>471</v>
+        <v>1040</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>472</v>
+        <v>1041</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>473</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>972</v>
+        <v>1023</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>919</v>
+        <v>1022</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1001</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>558</v>
+        <v>841</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>559</v>
+        <v>842</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>560</v>
+        <v>843</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>1235</v>
+        <v>1254</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1236</v>
+        <v>1255</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1237</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>969</v>
+        <v>1251</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>918</v>
+        <v>1252</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>971</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>1172</v>
+        <v>971</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1173</v>
+        <v>918</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1174</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>988</v>
+        <v>557</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>989</v>
+        <v>558</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>990</v>
+        <v>559</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>980</v>
+        <v>1233</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>916</v>
+        <v>1234</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>973</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>898</v>
+        <v>494</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>899</v>
+        <v>495</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>900</v>
+        <v>496</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>480</v>
+        <v>1170</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>481</v>
+        <v>1171</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>482</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>1070</v>
+        <v>987</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1071</v>
+        <v>988</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>498</v>
+        <v>979</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>499</v>
+        <v>915</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>500</v>
+        <v>972</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>483</v>
+        <v>978</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>484</v>
+        <v>914</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>485</v>
+        <v>973</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>1162</v>
+        <v>897</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1163</v>
+        <v>898</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1164</v>
+        <v>899</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>941</v>
+        <v>1068</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>942</v>
+        <v>1069</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>943</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>704</v>
+        <v>497</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>705</v>
+        <v>498</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>706</v>
+        <v>499</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>800</v>
+        <v>482</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>801</v>
+        <v>483</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>802</v>
+        <v>484</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>531</v>
+        <v>1160</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>532</v>
+        <v>1161</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>533</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>415</v>
+        <v>940</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>416</v>
+        <v>941</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>417</v>
+        <v>942</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>504</v>
+        <v>703</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>505</v>
+        <v>704</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>506</v>
+        <v>705</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>721</v>
+        <v>799</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>723</v>
+        <v>801</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>549</v>
+        <v>414</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>550</v>
+        <v>415</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>551</v>
+        <v>416</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>763</v>
+        <v>503</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>764</v>
+        <v>504</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>619</v>
+        <v>721</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1008</v>
+        <v>722</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>1181</v>
+        <v>560</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1188</v>
+        <v>561</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1195</v>
+        <v>562</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>1182</v>
+        <v>548</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1189</v>
+        <v>549</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1196</v>
+        <v>550</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>450</v>
+        <v>762</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>451</v>
+        <v>763</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>452</v>
+        <v>550</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>1168</v>
+        <v>617</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1169</v>
+        <v>618</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1170</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>1183</v>
+        <v>605</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1190</v>
+        <v>606</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1197</v>
+        <v>607</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>689</v>
+        <v>1180</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>690</v>
+        <v>1187</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>691</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1220</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>765</v>
+        <v>1181</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>766</v>
+        <v>1188</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>767</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>1250</v>
+        <v>1182</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1251</v>
+        <v>1189</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1252</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1048</v>
+        <v>688</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1049</v>
+        <v>689</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1050</v>
+        <v>690</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>821</v>
+        <v>452</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>822</v>
+        <v>453</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>823</v>
+        <v>454</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>421</v>
+        <v>1200</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>422</v>
+        <v>1201</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>423</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1013</v>
+        <v>764</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1014</v>
+        <v>765</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1015</v>
+        <v>766</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>744</v>
+        <v>1248</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>745</v>
+        <v>1249</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>746</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>902</v>
+        <v>1046</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>901</v>
+        <v>1047</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>903</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>905</v>
+        <v>821</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>663</v>
+        <v>1012</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>664</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>692</v>
+        <v>743</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>693</v>
+        <v>744</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>964</v>
+        <v>901</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>786</v>
+        <v>903</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>787</v>
+        <v>904</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>788</v>
+        <v>905</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>623</v>
+        <v>539</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>624</v>
+        <v>540</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>625</v>
+        <v>541</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>836</v>
+        <v>661</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>837</v>
+        <v>662</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>838</v>
+        <v>663</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>893</v>
+        <v>963</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>894</v>
+        <v>922</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>968</v>
+        <v>785</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>917</v>
+        <v>786</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>970</v>
+        <v>787</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>947</v>
+        <v>622</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>948</v>
+        <v>623</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>949</v>
+        <v>624</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>474</v>
+        <v>835</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>475</v>
+        <v>836</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>476</v>
+        <v>837</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>567</v>
+        <v>685</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>568</v>
+        <v>686</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>569</v>
+        <v>687</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>768</v>
+        <v>892</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>770</v>
+        <v>893</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>771</v>
+        <v>967</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>772</v>
+        <v>916</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>354</v>
+        <v>969</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>712</v>
+        <v>946</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>713</v>
+        <v>947</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>714</v>
+        <v>948</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>878</v>
+        <v>473</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>879</v>
+        <v>474</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>880</v>
+        <v>475</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>1144</v>
+        <v>566</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1145</v>
+        <v>567</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1143</v>
+        <v>568</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>950</v>
+        <v>767</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>952</v>
+        <v>768</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>953</v>
+        <v>769</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>749</v>
+        <v>353</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>1229</v>
+        <v>711</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1230</v>
+        <v>712</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1231</v>
+        <v>713</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>576</v>
+        <v>877</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>577</v>
+        <v>878</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>578</v>
+        <v>879</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>824</v>
+        <v>1142</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>825</v>
+        <v>1143</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>826</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>1021</v>
+        <v>949</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1022</v>
+        <v>951</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1023</v>
+        <v>952</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>427</v>
+        <v>746</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>428</v>
+        <v>747</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>429</v>
+        <v>748</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>626</v>
+        <v>1227</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>627</v>
+        <v>1228</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>628</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>418</v>
+        <v>575</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>419</v>
+        <v>576</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>420</v>
+        <v>577</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>929</v>
+        <v>823</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>930</v>
+        <v>824</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>931</v>
+        <v>825</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>1265</v>
+        <v>1019</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1266</v>
+        <v>1020</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1267</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>1241</v>
+        <v>426</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1244</v>
+        <v>427</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1246</v>
+        <v>428</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>735</v>
+        <v>625</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>736</v>
+        <v>626</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>737</v>
+        <v>627</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>738</v>
+        <v>417</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>739</v>
+        <v>418</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>740</v>
+        <v>419</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>1242</v>
+        <v>928</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1249</v>
+        <v>929</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1248</v>
+        <v>930</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>1243</v>
+        <v>1263</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1245</v>
+        <v>1264</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1247</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>742</v>
+        <v>1242</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>743</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>629</v>
+        <v>734</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>630</v>
+        <v>735</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>631</v>
+        <v>736</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="D501" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D496" s="1" t="s">
-        <v>634</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A220:G428">
-    <sortCondition ref="A220"/>
+  <sortState ref="A224:G433">
+    <sortCondition ref="A224"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72E1441D-15B7-254D-B780-0069975E76F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9D92922-05AD-3143-B62B-1804C0583823}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1281">
   <si>
     <t>key</t>
   </si>
@@ -4389,6 +4389,18 @@
     <rPh sb="0" eb="1">
       <t>イロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5126,10 +5138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E274" sqref="E274"/>
+    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9461,625 +9473,636 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>617</v>
+        <v>1278</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>618</v>
+        <v>1279</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1007</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>607</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1186</v>
+        <v>606</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1193</v>
+        <v>607</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>449</v>
+        <v>1180</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>450</v>
+        <v>1187</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>451</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>1166</v>
+        <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1167</v>
+        <v>450</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>688</v>
+        <v>1182</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>689</v>
+        <v>1189</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>690</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1201</v>
+        <v>453</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>765</v>
+        <v>1201</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>766</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1248</v>
+        <v>764</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1249</v>
+        <v>765</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1250</v>
+        <v>766</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1046</v>
+        <v>1248</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1047</v>
+        <v>1249</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1048</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>820</v>
+        <v>1046</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>821</v>
+        <v>1047</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>822</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1011</v>
+        <v>420</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1013</v>
+        <v>422</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>743</v>
+        <v>1011</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>901</v>
+        <v>743</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>902</v>
+        <v>745</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>540</v>
+        <v>904</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>541</v>
+        <v>905</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>963</v>
+        <v>691</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>785</v>
+        <v>963</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>835</v>
+        <v>622</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>685</v>
+        <v>835</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>892</v>
+        <v>685</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>893</v>
+        <v>686</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>474</v>
+        <v>947</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>475</v>
+        <v>948</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>713</v>
+        <v>353</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>879</v>
+        <v>713</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>1142</v>
+        <v>877</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>951</v>
+        <v>1143</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>952</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>746</v>
+        <v>949</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>747</v>
+        <v>951</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>1227</v>
+        <v>746</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1228</v>
+        <v>747</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>575</v>
+        <v>1227</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>576</v>
+        <v>1228</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>577</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>823</v>
+        <v>575</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>1019</v>
+        <v>823</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1020</v>
+        <v>824</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>426</v>
+        <v>1019</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>427</v>
+        <v>1020</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>428</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>928</v>
+        <v>417</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>929</v>
+        <v>418</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>930</v>
+        <v>419</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>1263</v>
+        <v>928</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1264</v>
+        <v>929</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1265</v>
+        <v>930</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>734</v>
+        <v>1239</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>735</v>
+        <v>1242</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>736</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>1240</v>
+        <v>737</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1247</v>
+        <v>738</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1246</v>
+        <v>739</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>740</v>
+        <v>1241</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>741</v>
+        <v>1243</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>742</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B502" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D501" s="1" t="s">
+      <c r="D502" s="1" t="s">
         <v>633</v>
       </c>
     </row>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9D92922-05AD-3143-B62B-1804C0583823}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF33AF20-FCB9-6F41-878E-E532F6632405}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1287">
   <si>
     <t>key</t>
   </si>
@@ -4401,6 +4401,36 @@
   </si>
   <si>
     <t>スライド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <rPh sb="0" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eternal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eternal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永遠</t>
+    <rPh sb="0" eb="2">
+      <t>エイエn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5138,10 +5168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G502"/>
+  <dimension ref="A1:G504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8080,353 +8110,353 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>802</v>
+        <v>1284</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>803</v>
+        <v>1285</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>804</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>1184</v>
+        <v>802</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1191</v>
+        <v>803</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>455</v>
+        <v>1184</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>456</v>
+        <v>1191</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>457</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>838</v>
+        <v>455</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>1037</v>
+        <v>838</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1038</v>
+        <v>839</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1039</v>
+        <v>840</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>714</v>
+        <v>1037</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>715</v>
+        <v>1038</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>716</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>614</v>
+        <v>717</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>890</v>
+        <v>755</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>891</v>
+        <v>756</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>700</v>
+        <v>890</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>431</v>
+        <v>958</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>834</v>
+        <v>431</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>1203</v>
+        <v>832</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1204</v>
+        <v>833</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1205</v>
+        <v>834</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>637</v>
+        <v>1203</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>638</v>
+        <v>1204</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>639</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>955</v>
+        <v>551</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>956</v>
+        <v>552</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>957</v>
+        <v>553</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>1026</v>
+        <v>955</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1025</v>
+        <v>956</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>694</v>
+        <v>1026</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>695</v>
+        <v>1025</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>696</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>871</v>
+        <v>676</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>872</v>
+        <v>677</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>873</v>
+        <v>678</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>954</v>
+        <v>871</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>953</v>
+        <v>872</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>758</v>
+        <v>873</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1006</v>
+        <v>953</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>950</v>
+        <v>758</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>882</v>
+        <v>1005</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>883</v>
+        <v>1006</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>881</v>
+        <v>857</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>752</v>
+        <v>880</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>754</v>
+        <v>881</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>572</v>
+        <v>752</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>777</v>
+        <v>573</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>574</v>
@@ -8434,1680 +8464,1702 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>509</v>
+        <v>776</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>510</v>
+        <v>777</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>981</v>
+        <v>509</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>912</v>
+        <v>510</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>975</v>
+        <v>511</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>759</v>
+        <v>983</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>760</v>
+        <v>911</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>761</v>
+        <v>976</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>884</v>
+        <v>759</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>885</v>
+        <v>760</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>964</v>
+        <v>886</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>709</v>
+        <v>921</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>710</v>
+        <v>907</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>811</v>
+        <v>709</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>896</v>
+        <v>710</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>587</v>
+        <v>810</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>589</v>
+        <v>896</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>812</v>
+        <v>587</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>813</v>
+        <v>588</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>939</v>
+        <v>812</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>938</v>
+        <v>526</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>805</v>
+        <v>939</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>806</v>
+        <v>937</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>807</v>
+        <v>938</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>1066</v>
+        <v>805</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1067</v>
+        <v>806</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>865</v>
+        <v>1066</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>866</v>
+        <v>1067</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>867</v>
+        <v>784</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>640</v>
+        <v>865</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>641</v>
+        <v>866</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>642</v>
+        <v>867</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>808</v>
+        <v>441</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>809</v>
+        <v>442</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>990</v>
+        <v>443</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>646</v>
+        <v>808</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>648</v>
+        <v>990</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>925</v>
+        <v>646</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>926</v>
+        <v>647</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>927</v>
+        <v>648</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>991</v>
+        <v>925</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>992</v>
+        <v>926</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>993</v>
+        <v>927</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>729</v>
+        <v>995</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>853</v>
+        <v>1001</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>854</v>
+        <v>729</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>962</v>
+        <v>664</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>923</v>
+        <v>665</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>906</v>
+        <v>666</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>998</v>
+        <v>923</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>429</v>
+        <v>1016</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>430</v>
+        <v>1017</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>431</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>598</v>
+        <v>445</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>619</v>
+        <v>464</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>847</v>
+        <v>411</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>1219</v>
+        <v>847</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1220</v>
+        <v>848</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1202</v>
+        <v>849</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>826</v>
+        <v>1281</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>827</v>
+        <v>1283</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>828</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>1163</v>
+        <v>1219</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1164</v>
+        <v>1220</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1165</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>1156</v>
+        <v>829</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1157</v>
+        <v>830</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1155</v>
+        <v>831</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>726</v>
+        <v>1152</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>727</v>
+        <v>1151</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>728</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>723</v>
+        <v>1156</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>724</v>
+        <v>1157</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>725</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>515</v>
+        <v>726</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>590</v>
+        <v>723</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>673</v>
+        <v>515</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1030</v>
+        <v>592</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>1040</v>
+        <v>673</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1041</v>
+        <v>674</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1042</v>
+        <v>675</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>1023</v>
+        <v>653</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1022</v>
+        <v>654</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>841</v>
+        <v>1040</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>842</v>
+        <v>1041</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>843</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>1254</v>
+        <v>1023</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1255</v>
+        <v>1022</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1256</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>1251</v>
+        <v>841</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1252</v>
+        <v>842</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1253</v>
+        <v>843</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>470</v>
+        <v>1254</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>471</v>
+        <v>1255</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>472</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>971</v>
+        <v>1251</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>918</v>
+        <v>1252</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1000</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1233</v>
+        <v>971</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1234</v>
+        <v>918</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1235</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>968</v>
+        <v>557</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>917</v>
+        <v>558</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>970</v>
+        <v>559</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>494</v>
+        <v>1233</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>495</v>
+        <v>1234</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>496</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>1170</v>
+        <v>968</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1171</v>
+        <v>917</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1172</v>
+        <v>970</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>987</v>
+        <v>494</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>988</v>
+        <v>495</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>989</v>
+        <v>496</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>979</v>
+        <v>1170</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>915</v>
+        <v>1171</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>972</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>897</v>
+        <v>979</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>899</v>
+        <v>972</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>479</v>
+        <v>978</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>480</v>
+        <v>914</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>481</v>
+        <v>973</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>1068</v>
+        <v>897</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1069</v>
+        <v>898</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1010</v>
+        <v>899</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>483</v>
+        <v>1069</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>484</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>1160</v>
+        <v>497</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1161</v>
+        <v>498</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1162</v>
+        <v>499</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>940</v>
+        <v>1160</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>941</v>
+        <v>1161</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>942</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>703</v>
+        <v>485</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>799</v>
+        <v>940</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>800</v>
+        <v>941</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>801</v>
+        <v>942</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>530</v>
+        <v>703</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>500</v>
+        <v>799</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>502</v>
+        <v>801</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>414</v>
+        <v>530</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>720</v>
+        <v>414</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>762</v>
+        <v>560</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>1278</v>
+        <v>548</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1279</v>
+        <v>549</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1007</v>
+        <v>550</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>605</v>
+        <v>1278</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>606</v>
+        <v>1279</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>607</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>1179</v>
+        <v>617</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1186</v>
+        <v>618</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1193</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>1180</v>
+        <v>605</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1187</v>
+        <v>606</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1194</v>
+        <v>607</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>449</v>
+        <v>1179</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>450</v>
+        <v>1186</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>451</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1168</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>1181</v>
+        <v>449</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1188</v>
+        <v>450</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1195</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>688</v>
+        <v>1181</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>689</v>
+        <v>1188</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>690</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>453</v>
+        <v>1189</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>454</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1201</v>
+        <v>689</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1218</v>
+        <v>690</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>764</v>
+        <v>452</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1248</v>
+        <v>1200</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1249</v>
+        <v>1201</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1250</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>1046</v>
+        <v>764</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1047</v>
+        <v>765</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1048</v>
+        <v>766</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>820</v>
+        <v>1248</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>821</v>
+        <v>1249</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>822</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>420</v>
+        <v>1046</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>421</v>
+        <v>1047</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>422</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>1011</v>
+        <v>820</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1012</v>
+        <v>821</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1013</v>
+        <v>822</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>743</v>
+        <v>420</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>901</v>
+        <v>1011</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>900</v>
+        <v>1012</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>902</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>903</v>
+        <v>743</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>904</v>
+        <v>744</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>905</v>
+        <v>745</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>539</v>
+        <v>901</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>541</v>
+        <v>902</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>661</v>
+        <v>903</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>662</v>
+        <v>904</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>663</v>
+        <v>905</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>963</v>
+        <v>661</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>922</v>
+        <v>662</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>908</v>
+        <v>663</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>623</v>
+        <v>922</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>624</v>
+        <v>908</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>892</v>
+        <v>835</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>893</v>
+        <v>836</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>967</v>
+        <v>685</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>916</v>
+        <v>686</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>969</v>
+        <v>687</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>946</v>
+        <v>892</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>473</v>
+        <v>967</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>474</v>
+        <v>916</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>475</v>
+        <v>969</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>566</v>
+        <v>946</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>567</v>
+        <v>947</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>568</v>
+        <v>948</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>767</v>
+        <v>473</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>770</v>
+        <v>566</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>877</v>
+        <v>770</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>878</v>
+        <v>771</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>879</v>
+        <v>353</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>1142</v>
+        <v>711</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1143</v>
+        <v>712</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1141</v>
+        <v>713</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>951</v>
+        <v>878</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>952</v>
+        <v>879</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>746</v>
+        <v>1142</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>747</v>
+        <v>1143</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>748</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>1227</v>
+        <v>949</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1228</v>
+        <v>951</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1229</v>
+        <v>952</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>575</v>
+        <v>746</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>823</v>
+        <v>1227</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>824</v>
+        <v>1228</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>825</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>1019</v>
+        <v>575</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1020</v>
+        <v>576</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1021</v>
+        <v>577</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>426</v>
+        <v>823</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>625</v>
+        <v>1019</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>626</v>
+        <v>1020</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>627</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>928</v>
+        <v>625</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>929</v>
+        <v>626</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>930</v>
+        <v>627</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>1263</v>
+        <v>417</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1264</v>
+        <v>418</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1265</v>
+        <v>419</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>1239</v>
+        <v>928</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1242</v>
+        <v>929</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>734</v>
+        <v>1263</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>735</v>
+        <v>1264</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>736</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>737</v>
+        <v>1239</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>739</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>1240</v>
+        <v>734</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1247</v>
+        <v>735</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1246</v>
+        <v>736</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1241</v>
+        <v>737</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1243</v>
+        <v>738</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1245</v>
+        <v>739</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>740</v>
+        <v>1240</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>741</v>
+        <v>1247</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>742</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>628</v>
+        <v>1241</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>629</v>
+        <v>1243</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>630</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B504" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D502" s="1" t="s">
+      <c r="D504" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A224:G433">
+  <sortState ref="A224:G435">
     <sortCondition ref="A224"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF33AF20-FCB9-6F41-878E-E532F6632405}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3276A134-9615-8244-AA5F-93CCE1BBBEA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1293">
   <si>
     <t>key</t>
   </si>
@@ -4431,6 +4431,33 @@
     <rPh sb="0" eb="2">
       <t>エイエn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <rPh sb="0" eb="2">
+      <t>シゼn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theme.natural</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Natural</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theme.business</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Business</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5168,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G504"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6421,71 +6448,74 @@
         <v>1217</v>
       </c>
     </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>8</v>
+        <v>1288</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>8</v>
+        <v>228</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>234</v>
@@ -6496,172 +6526,169 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>1153</v>
+        <v>239</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1154</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>1028</v>
+        <v>240</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1029</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>234</v>
+        <v>1153</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>235</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>244</v>
+        <v>1028</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>235</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>931</v>
+        <v>244</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>932</v>
+        <v>234</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>933</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>1271</v>
+        <v>931</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1274</v>
+        <v>932</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>1268</v>
+        <v>933</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>1266</v>
+        <v>1273</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>249</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>248</v>
@@ -6672,540 +6699,553 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>255</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1112</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>272</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>275</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G231" s="1"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G232" s="1"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>8</v>
+        <v>390</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="G234" s="1"/>
     </row>
@@ -7214,653 +7254,640 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1199</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>512</v>
+        <v>1185</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>513</v>
+        <v>1192</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G238" s="1"/>
+        <v>1199</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>984</v>
+        <v>731</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>985</v>
+        <v>732</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>986</v>
+        <v>733</v>
       </c>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>1175</v>
+        <v>512</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1174</v>
+        <v>513</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1178</v>
+        <v>514</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>1258</v>
+        <v>984</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1259</v>
+        <v>985</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1257</v>
+        <v>986</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>966</v>
+        <v>1175</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>919</v>
+        <v>1174</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>960</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>602</v>
+        <v>1258</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>603</v>
+        <v>1259</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>604</v>
+        <v>1257</v>
       </c>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>1212</v>
+        <v>966</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1213</v>
+        <v>919</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G244" s="1"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>844</v>
+        <v>1212</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>845</v>
+        <v>1213</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>846</v>
-      </c>
+        <v>1214</v>
+      </c>
+      <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>814</v>
+        <v>649</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>815</v>
+        <v>650</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>816</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>524</v>
+        <v>844</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>525</v>
+        <v>845</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>959</v>
+        <v>846</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
-        <v>934</v>
+        <v>814</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>935</v>
+        <v>815</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>936</v>
+        <v>816</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>749</v>
+        <v>524</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>751</v>
+        <v>959</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>1074</v>
+        <v>934</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1070</v>
+        <v>935</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>652</v>
+        <v>936</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>1073</v>
+        <v>749</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1071</v>
+        <v>750</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1072</v>
+        <v>751</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>658</v>
+        <v>1074</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>659</v>
+        <v>1070</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>1260</v>
+        <v>1073</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1261</v>
+        <v>1071</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1262</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>1158</v>
+        <v>658</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1159</v>
+        <v>659</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1169</v>
+        <v>660</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>1176</v>
+        <v>1260</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1173</v>
+        <v>1261</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1177</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>888</v>
+        <v>1158</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>889</v>
+        <v>1159</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>961</v>
+        <v>1176</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>924</v>
+        <v>1173</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>909</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>1075</v>
+        <v>888</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1077</v>
+        <v>889</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>796</v>
+        <v>961</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>797</v>
+        <v>924</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>798</v>
+        <v>909</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>859</v>
+        <v>1075</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>860</v>
+        <v>1076</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>861</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>1224</v>
+        <v>796</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1225</v>
+        <v>797</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1226</v>
+        <v>798</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>1034</v>
+        <v>859</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1035</v>
+        <v>860</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1036</v>
+        <v>861</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>446</v>
+        <v>1224</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>447</v>
+        <v>1225</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>448</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>965</v>
+        <v>446</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>920</v>
+        <v>447</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>906</v>
+        <v>448</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>488</v>
+        <v>1043</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>489</v>
+        <v>1044</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>490</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>874</v>
+        <v>965</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>875</v>
+        <v>920</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>862</v>
+        <v>488</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>863</v>
+        <v>489</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>864</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>563</v>
+        <v>874</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>564</v>
+        <v>875</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>565</v>
+        <v>876</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>1230</v>
+        <v>862</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1231</v>
+        <v>863</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1232</v>
+        <v>864</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>868</v>
+        <v>1230</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>869</v>
+        <v>1231</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>870</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>1275</v>
+        <v>545</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1276</v>
+        <v>546</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1277</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>706</v>
+        <v>868</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>707</v>
+        <v>869</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>708</v>
+        <v>870</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>393</v>
+        <v>1275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>394</v>
+        <v>1276</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>395</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>396</v>
+        <v>706</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>397</v>
+        <v>707</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>398</v>
+        <v>708</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>1183</v>
+        <v>399</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1190</v>
+        <v>400</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1197</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>817</v>
+        <v>458</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>818</v>
+        <v>459</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>819</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>634</v>
+        <v>1183</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>635</v>
+        <v>1190</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>636</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>655</v>
+        <v>817</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>657</v>
+        <v>819</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>781</v>
+        <v>634</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>782</v>
+        <v>635</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>783</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>1206</v>
+        <v>781</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1207</v>
+        <v>782</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1208</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>1149</v>
+        <v>697</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1148</v>
+        <v>698</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1147</v>
+        <v>699</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>467</v>
+        <v>1206</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>468</v>
+        <v>1207</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>469</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>778</v>
+        <v>1149</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>779</v>
+        <v>1148</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>780</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>1144</v>
+        <v>467</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1145</v>
+        <v>468</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1146</v>
+        <v>469</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>578</v>
+        <v>778</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>579</v>
+        <v>779</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>580</v>
+        <v>780</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>536</v>
+        <v>1144</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>537</v>
+        <v>1145</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>538</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>1014</v>
+        <v>536</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1015</v>
+        <v>537</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>538</v>
@@ -7868,2299 +7895,2321 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>1211</v>
+        <v>533</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1210</v>
+        <v>534</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1209</v>
+        <v>535</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>1</v>
+        <v>1014</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>5</v>
+        <v>1015</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>221</v>
+        <v>538</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>476</v>
+        <v>1211</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>477</v>
+        <v>1210</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>478</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>667</v>
+        <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>668</v>
+        <v>5</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>669</v>
+        <v>221</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>850</v>
+        <v>667</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>851</v>
+        <v>668</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>852</v>
+        <v>669</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>643</v>
+        <v>506</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>644</v>
+        <v>507</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>788</v>
+        <v>850</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>789</v>
+        <v>851</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>423</v>
+        <v>788</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>424</v>
+        <v>789</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>425</v>
+        <v>790</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>943</v>
+        <v>679</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>944</v>
+        <v>680</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>945</v>
+        <v>681</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>570</v>
+        <v>424</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>571</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>518</v>
+        <v>943</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>519</v>
+        <v>944</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>520</v>
+        <v>945</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>1031</v>
+        <v>518</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1032</v>
+        <v>519</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1033</v>
+        <v>520</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>772</v>
+        <v>1031</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>23</v>
+        <v>1032</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>773</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>608</v>
+        <v>772</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>609</v>
+        <v>23</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>610</v>
+        <v>773</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>793</v>
+        <v>461</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>794</v>
+        <v>462</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>795</v>
+        <v>463</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>1008</v>
+        <v>793</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1009</v>
+        <v>794</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1010</v>
+        <v>795</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>1284</v>
+        <v>581</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1285</v>
+        <v>582</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1286</v>
+        <v>583</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>802</v>
+        <v>1008</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>803</v>
+        <v>1009</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>804</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>1184</v>
+        <v>1284</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1191</v>
+        <v>1285</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1198</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>455</v>
+        <v>802</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>456</v>
+        <v>803</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>838</v>
+        <v>1184</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>839</v>
+        <v>1191</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>840</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>1037</v>
+        <v>455</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1038</v>
+        <v>456</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1039</v>
+        <v>457</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>714</v>
+        <v>838</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>717</v>
+        <v>1037</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>718</v>
+        <v>1038</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>719</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>614</v>
+        <v>714</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>584</v>
+        <v>717</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>585</v>
+        <v>718</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>755</v>
+        <v>584</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>756</v>
+        <v>585</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>757</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>890</v>
+        <v>611</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>891</v>
+        <v>612</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>682</v>
+        <v>890</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>684</v>
+        <v>891</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>791</v>
+        <v>700</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>792</v>
+        <v>701</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>958</v>
+        <v>702</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>774</v>
+        <v>682</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>775</v>
+        <v>683</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>431</v>
+        <v>684</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>834</v>
+        <v>958</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>1203</v>
+        <v>774</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1204</v>
+        <v>775</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1205</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>637</v>
+        <v>832</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>551</v>
+        <v>1203</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>552</v>
+        <v>1204</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>553</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>955</v>
+        <v>637</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>956</v>
+        <v>638</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>957</v>
+        <v>639</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>1026</v>
+        <v>551</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1025</v>
+        <v>552</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1027</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>694</v>
+        <v>955</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>695</v>
+        <v>956</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>696</v>
+        <v>957</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>676</v>
+        <v>1026</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>677</v>
+        <v>1025</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>678</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>871</v>
+        <v>694</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>872</v>
+        <v>695</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>873</v>
+        <v>696</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>954</v>
+        <v>676</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>953</v>
+        <v>677</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>1005</v>
+        <v>871</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>950</v>
+        <v>873</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>882</v>
+        <v>954</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>883</v>
+        <v>953</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>856</v>
+        <v>1005</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>857</v>
+        <v>1006</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>858</v>
+        <v>950</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>572</v>
+        <v>880</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>574</v>
+        <v>881</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>981</v>
+        <v>776</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>912</v>
+        <v>777</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>975</v>
+        <v>574</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>980</v>
+        <v>509</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>913</v>
+        <v>510</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>974</v>
+        <v>511</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>759</v>
+        <v>982</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>760</v>
+        <v>910</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>761</v>
+        <v>977</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>885</v>
+        <v>911</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>886</v>
+        <v>759</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>887</v>
+        <v>760</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>964</v>
+        <v>884</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>710</v>
+        <v>887</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>810</v>
+        <v>964</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>588</v>
+        <v>709</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>526</v>
+        <v>896</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>939</v>
+        <v>587</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>937</v>
+        <v>588</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>938</v>
+        <v>589</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>807</v>
+        <v>526</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>1066</v>
+        <v>939</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1067</v>
+        <v>937</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>784</v>
+        <v>938</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>865</v>
+        <v>805</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>866</v>
+        <v>806</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>867</v>
+        <v>807</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>640</v>
+        <v>1066</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>641</v>
+        <v>1067</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>642</v>
+        <v>784</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>527</v>
+        <v>865</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>528</v>
+        <v>866</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>529</v>
+        <v>867</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>435</v>
+        <v>640</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>438</v>
+        <v>527</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>808</v>
+        <v>438</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>809</v>
+        <v>439</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>990</v>
+        <v>440</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>646</v>
+        <v>441</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>925</v>
+        <v>808</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>991</v>
+        <v>646</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>992</v>
+        <v>647</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>993</v>
+        <v>648</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>994</v>
+        <v>925</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>995</v>
+        <v>926</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>996</v>
+        <v>927</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>729</v>
+        <v>992</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>730</v>
+        <v>993</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>853</v>
+        <v>994</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>854</v>
+        <v>995</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>855</v>
+        <v>996</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>962</v>
+        <v>853</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>923</v>
+        <v>854</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>997</v>
+        <v>664</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>998</v>
+        <v>665</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>999</v>
+        <v>666</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>1002</v>
+        <v>962</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1003</v>
+        <v>923</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1004</v>
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>429</v>
+        <v>1002</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>430</v>
+        <v>1003</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>431</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>432</v>
+        <v>1016</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>433</v>
+        <v>1017</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>434</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>599</v>
+        <v>429</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>601</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>593</v>
+        <v>432</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>444</v>
+        <v>593</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>445</v>
+        <v>595</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>464</v>
+        <v>596</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>847</v>
+        <v>408</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>1281</v>
+        <v>411</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1283</v>
+        <v>412</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1282</v>
+        <v>413</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>1219</v>
+        <v>847</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1220</v>
+        <v>848</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1202</v>
+        <v>849</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>826</v>
+        <v>1281</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>827</v>
+        <v>1283</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>828</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>1163</v>
+        <v>1219</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1164</v>
+        <v>1220</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1165</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>1156</v>
+        <v>829</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1157</v>
+        <v>830</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1155</v>
+        <v>831</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>726</v>
+        <v>1152</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>727</v>
+        <v>1151</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>728</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>723</v>
+        <v>1156</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>724</v>
+        <v>1157</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>725</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>515</v>
+        <v>726</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>590</v>
+        <v>723</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>673</v>
+        <v>515</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1030</v>
+        <v>592</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>1040</v>
+        <v>673</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1041</v>
+        <v>674</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1042</v>
+        <v>675</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>1023</v>
+        <v>653</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1022</v>
+        <v>654</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>841</v>
+        <v>1040</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>842</v>
+        <v>1041</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>843</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>1254</v>
+        <v>1023</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1255</v>
+        <v>1022</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1256</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>1251</v>
+        <v>841</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1252</v>
+        <v>842</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1253</v>
+        <v>843</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>470</v>
+        <v>1254</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>471</v>
+        <v>1255</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>472</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>971</v>
+        <v>1251</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>918</v>
+        <v>1252</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1000</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>1233</v>
+        <v>971</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1234</v>
+        <v>918</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1235</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>968</v>
+        <v>557</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>917</v>
+        <v>558</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>970</v>
+        <v>559</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>494</v>
+        <v>1233</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>495</v>
+        <v>1234</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>496</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>1170</v>
+        <v>968</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1171</v>
+        <v>917</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1172</v>
+        <v>970</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>987</v>
+        <v>494</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>988</v>
+        <v>495</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>989</v>
+        <v>496</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>979</v>
+        <v>1170</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>915</v>
+        <v>1171</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>972</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>897</v>
+        <v>979</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>899</v>
+        <v>972</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>479</v>
+        <v>978</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>480</v>
+        <v>914</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>481</v>
+        <v>973</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>1068</v>
+        <v>897</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1069</v>
+        <v>898</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1010</v>
+        <v>899</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>483</v>
+        <v>1069</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>484</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>1160</v>
+        <v>497</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1161</v>
+        <v>498</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1162</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>940</v>
+        <v>1160</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>941</v>
+        <v>1161</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>942</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>703</v>
+        <v>485</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>799</v>
+        <v>940</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>800</v>
+        <v>941</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>801</v>
+        <v>942</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>530</v>
+        <v>703</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>500</v>
+        <v>799</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>502</v>
+        <v>801</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>414</v>
+        <v>530</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>720</v>
+        <v>414</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>762</v>
+        <v>560</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>1278</v>
+        <v>548</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1279</v>
+        <v>549</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1007</v>
+        <v>550</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>605</v>
+        <v>1278</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>606</v>
+        <v>1279</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>607</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>1179</v>
+        <v>617</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1186</v>
+        <v>618</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1193</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>1180</v>
+        <v>605</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1187</v>
+        <v>606</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1194</v>
+        <v>607</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>449</v>
+        <v>1179</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>450</v>
+        <v>1186</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>451</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1168</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>1181</v>
+        <v>449</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1188</v>
+        <v>450</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1195</v>
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>688</v>
+        <v>1181</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>689</v>
+        <v>1188</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>690</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>453</v>
+        <v>1189</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>454</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1201</v>
+        <v>689</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1218</v>
+        <v>690</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>764</v>
+        <v>452</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1248</v>
+        <v>1200</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1249</v>
+        <v>1201</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1250</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1046</v>
+        <v>764</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1047</v>
+        <v>765</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1048</v>
+        <v>766</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>820</v>
+        <v>1248</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>821</v>
+        <v>1249</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>822</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>420</v>
+        <v>1046</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>421</v>
+        <v>1047</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>422</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1011</v>
+        <v>820</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1012</v>
+        <v>821</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1013</v>
+        <v>822</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>743</v>
+        <v>420</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>901</v>
+        <v>1011</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>900</v>
+        <v>1012</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>902</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>903</v>
+        <v>743</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>904</v>
+        <v>744</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>905</v>
+        <v>745</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>539</v>
+        <v>901</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>541</v>
+        <v>902</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>661</v>
+        <v>903</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>662</v>
+        <v>904</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>663</v>
+        <v>905</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>963</v>
+        <v>661</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>922</v>
+        <v>662</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>908</v>
+        <v>663</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>623</v>
+        <v>922</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>624</v>
+        <v>908</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>892</v>
+        <v>835</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>893</v>
+        <v>836</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>967</v>
+        <v>685</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>916</v>
+        <v>686</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>969</v>
+        <v>687</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>946</v>
+        <v>892</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D478" s="1" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>473</v>
+        <v>967</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>474</v>
+        <v>916</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>475</v>
+        <v>969</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>566</v>
+        <v>946</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>567</v>
+        <v>947</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>568</v>
+        <v>948</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>767</v>
+        <v>473</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>770</v>
+        <v>566</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>877</v>
+        <v>770</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>878</v>
+        <v>771</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>879</v>
+        <v>353</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>1142</v>
+        <v>711</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1143</v>
+        <v>712</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1141</v>
+        <v>713</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>951</v>
+        <v>878</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>952</v>
+        <v>879</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>746</v>
+        <v>1142</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>747</v>
+        <v>1143</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>748</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>1227</v>
+        <v>949</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1228</v>
+        <v>951</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1229</v>
+        <v>952</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>575</v>
+        <v>746</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>823</v>
+        <v>1227</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>824</v>
+        <v>1228</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>825</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>1019</v>
+        <v>575</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1020</v>
+        <v>576</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1021</v>
+        <v>577</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>426</v>
+        <v>823</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>625</v>
+        <v>1019</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>626</v>
+        <v>1020</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>627</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>928</v>
+        <v>625</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>929</v>
+        <v>626</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>930</v>
+        <v>627</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>1263</v>
+        <v>417</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1264</v>
+        <v>418</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1265</v>
+        <v>419</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>1239</v>
+        <v>928</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1242</v>
+        <v>929</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>734</v>
+        <v>1263</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>735</v>
+        <v>1264</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>736</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>737</v>
+        <v>1239</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>739</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>1240</v>
+        <v>734</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1247</v>
+        <v>735</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1246</v>
+        <v>736</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>1241</v>
+        <v>737</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1243</v>
+        <v>738</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1245</v>
+        <v>739</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>740</v>
+        <v>1240</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>741</v>
+        <v>1247</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>742</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>628</v>
+        <v>1241</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>629</v>
+        <v>1243</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>630</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D504" s="1" t="s">
+      <c r="D506" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A224:G435">
-    <sortCondition ref="A224"/>
+  <sortState ref="A226:G437">
+    <sortCondition ref="A226"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3276A134-9615-8244-AA5F-93CCE1BBBEA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2EF50B9-F288-DD41-B38A-E8BE7ED61244}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1295">
   <si>
     <t>key</t>
   </si>
@@ -4458,6 +4458,14 @@
   </si>
   <si>
     <t>ビジネス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amcharts.lang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en_US</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5195,10 +5203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6608,57 +6616,54 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>245</v>
+        <v>1293</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>2</v>
+        <v>1294</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>3</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>933</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1268</v>
@@ -6670,1853 +6675,1856 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
         <v>1266</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>249</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1110</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>249</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>272</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G233" s="1"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="1:7">
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="1" t="s">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7">
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>1199</v>
-      </c>
+      <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>731</v>
+        <v>1185</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>732</v>
+        <v>1192</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G239" s="1"/>
+        <v>1199</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>512</v>
+        <v>731</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>513</v>
+        <v>732</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>984</v>
+        <v>512</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>985</v>
+        <v>513</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>986</v>
+        <v>514</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>1175</v>
+        <v>984</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1174</v>
+        <v>985</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1178</v>
+        <v>986</v>
       </c>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>1258</v>
+        <v>1175</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1259</v>
+        <v>1174</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1257</v>
+        <v>1178</v>
       </c>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>966</v>
+        <v>1258</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>919</v>
+        <v>1259</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>960</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>602</v>
+        <v>966</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>603</v>
+        <v>919</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G245" s="1"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>1212</v>
+        <v>602</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1213</v>
+        <v>603</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1214</v>
+        <v>604</v>
       </c>
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>649</v>
+        <v>1212</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>650</v>
+        <v>1213</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>651</v>
+        <v>1214</v>
       </c>
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>844</v>
+        <v>649</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>845</v>
+        <v>650</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>846</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>524</v>
+        <v>814</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>525</v>
+        <v>815</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>959</v>
+        <v>816</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>934</v>
+        <v>524</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>935</v>
+        <v>525</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>749</v>
+        <v>934</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>750</v>
+        <v>935</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>751</v>
+        <v>936</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>1074</v>
+        <v>749</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1072</v>
+        <v>652</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>658</v>
+        <v>1073</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>659</v>
+        <v>1071</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>660</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>1260</v>
+        <v>658</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1261</v>
+        <v>659</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1262</v>
+        <v>660</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>1158</v>
+        <v>1260</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1159</v>
+        <v>1261</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1169</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>888</v>
+        <v>1176</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>889</v>
+        <v>1173</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>961</v>
+        <v>888</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>1075</v>
+        <v>961</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1076</v>
+        <v>924</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1077</v>
+        <v>909</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>796</v>
+        <v>1075</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>797</v>
+        <v>1076</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>798</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>861</v>
+        <v>798</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>1224</v>
+        <v>859</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1225</v>
+        <v>860</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1226</v>
+        <v>861</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>1034</v>
+        <v>1224</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1035</v>
+        <v>1225</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1036</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>446</v>
+        <v>1034</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>447</v>
+        <v>1035</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>448</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>1043</v>
+        <v>446</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1044</v>
+        <v>447</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1045</v>
+        <v>448</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>920</v>
+        <v>1044</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>906</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>488</v>
+        <v>965</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>489</v>
+        <v>920</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>490</v>
+        <v>906</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>874</v>
+        <v>488</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>875</v>
+        <v>489</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>876</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>1230</v>
+        <v>563</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1231</v>
+        <v>564</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1232</v>
+        <v>565</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>545</v>
+        <v>1230</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>546</v>
+        <v>1231</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>547</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>870</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>1275</v>
+        <v>868</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1276</v>
+        <v>869</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1277</v>
+        <v>870</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>706</v>
+        <v>1275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>707</v>
+        <v>1276</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>708</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>393</v>
+        <v>706</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>394</v>
+        <v>707</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>1183</v>
+        <v>458</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1190</v>
+        <v>459</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1197</v>
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>817</v>
+        <v>1183</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>818</v>
+        <v>1190</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>819</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>781</v>
+        <v>655</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>782</v>
+        <v>656</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>783</v>
+        <v>657</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>1206</v>
+        <v>697</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1207</v>
+        <v>698</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1208</v>
+        <v>699</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>467</v>
+        <v>1149</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>468</v>
+        <v>1148</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>578</v>
+        <v>1144</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>579</v>
+        <v>1145</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>580</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1015</v>
+        <v>534</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>1211</v>
+        <v>1014</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1210</v>
+        <v>1015</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1209</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>5</v>
+        <v>1210</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>478</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>643</v>
+        <v>850</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>679</v>
+        <v>788</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>423</v>
+        <v>679</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>943</v>
+        <v>423</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>944</v>
+        <v>424</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>945</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>569</v>
+        <v>943</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>570</v>
+        <v>944</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>571</v>
+        <v>945</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>1031</v>
+        <v>521</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1032</v>
+        <v>522</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1033</v>
+        <v>523</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>491</v>
+        <v>1031</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>492</v>
+        <v>1032</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>493</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>772</v>
+        <v>491</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>773</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>461</v>
+        <v>772</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>463</v>
+        <v>773</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>793</v>
+        <v>608</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>581</v>
+        <v>793</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>1008</v>
+        <v>581</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1009</v>
+        <v>582</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1010</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>1284</v>
+        <v>1008</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1285</v>
+        <v>1009</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1286</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>802</v>
+        <v>1284</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>803</v>
+        <v>1285</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>804</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>1184</v>
+        <v>802</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1191</v>
+        <v>803</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>455</v>
+        <v>1184</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>456</v>
+        <v>1191</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>457</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>838</v>
+        <v>455</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>1037</v>
+        <v>838</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1038</v>
+        <v>839</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1039</v>
+        <v>840</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>714</v>
+        <v>1037</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>715</v>
+        <v>1038</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>716</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>614</v>
+        <v>717</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>890</v>
+        <v>755</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>891</v>
+        <v>756</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>700</v>
+        <v>890</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>431</v>
+        <v>958</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>834</v>
+        <v>431</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>1203</v>
+        <v>832</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1204</v>
+        <v>833</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1205</v>
+        <v>834</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>637</v>
+        <v>1203</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>638</v>
+        <v>1204</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>639</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>955</v>
+        <v>551</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>956</v>
+        <v>552</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>957</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>1026</v>
+        <v>955</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1025</v>
+        <v>956</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>694</v>
+        <v>1026</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>695</v>
+        <v>1025</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>696</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>871</v>
+        <v>676</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>872</v>
+        <v>677</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>873</v>
+        <v>678</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>954</v>
+        <v>871</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>953</v>
+        <v>872</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>758</v>
+        <v>873</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1006</v>
+        <v>953</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>950</v>
+        <v>758</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>882</v>
+        <v>1005</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>883</v>
+        <v>1006</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>881</v>
+        <v>857</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>752</v>
+        <v>880</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>754</v>
+        <v>881</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>572</v>
+        <v>752</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>777</v>
+        <v>573</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>574</v>
@@ -8524,1049 +8532,1049 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>509</v>
+        <v>776</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>510</v>
+        <v>777</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>981</v>
+        <v>509</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>912</v>
+        <v>510</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>975</v>
+        <v>511</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>759</v>
+        <v>983</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>760</v>
+        <v>911</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>761</v>
+        <v>976</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>884</v>
+        <v>759</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>885</v>
+        <v>760</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>964</v>
+        <v>886</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>709</v>
+        <v>921</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>710</v>
+        <v>907</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>811</v>
+        <v>709</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>896</v>
+        <v>710</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>587</v>
+        <v>810</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>589</v>
+        <v>896</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>812</v>
+        <v>587</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>813</v>
+        <v>588</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>939</v>
+        <v>812</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>938</v>
+        <v>526</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>805</v>
+        <v>939</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>806</v>
+        <v>937</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>807</v>
+        <v>938</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>1066</v>
+        <v>805</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1067</v>
+        <v>806</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>865</v>
+        <v>1066</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>866</v>
+        <v>1067</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>867</v>
+        <v>784</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>640</v>
+        <v>865</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>641</v>
+        <v>866</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>642</v>
+        <v>867</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>808</v>
+        <v>441</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>809</v>
+        <v>442</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>990</v>
+        <v>443</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>646</v>
+        <v>808</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>648</v>
+        <v>990</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>925</v>
+        <v>646</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>926</v>
+        <v>647</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>927</v>
+        <v>648</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>991</v>
+        <v>925</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>992</v>
+        <v>926</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>993</v>
+        <v>927</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>729</v>
+        <v>995</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>853</v>
+        <v>1001</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>854</v>
+        <v>729</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>962</v>
+        <v>664</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>923</v>
+        <v>665</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>906</v>
+        <v>666</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>998</v>
+        <v>923</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>429</v>
+        <v>1016</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>430</v>
+        <v>1017</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>431</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>598</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>619</v>
+        <v>464</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>847</v>
+        <v>411</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>1281</v>
+        <v>847</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1283</v>
+        <v>848</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1282</v>
+        <v>849</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1220</v>
+        <v>1283</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1202</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>826</v>
+        <v>1219</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>827</v>
+        <v>1220</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>828</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>1163</v>
+        <v>826</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1164</v>
+        <v>827</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1165</v>
+        <v>828</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>829</v>
+        <v>1163</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>830</v>
+        <v>1164</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>831</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>1152</v>
+        <v>829</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1151</v>
+        <v>830</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1150</v>
+        <v>831</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>728</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>1040</v>
+        <v>653</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1041</v>
+        <v>654</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>841</v>
+        <v>1023</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>843</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>1254</v>
+        <v>841</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1255</v>
+        <v>842</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>470</v>
+        <v>1251</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>471</v>
+        <v>1252</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>472</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>918</v>
+        <v>471</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>559</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>1233</v>
+        <v>557</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1234</v>
+        <v>558</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1235</v>
+        <v>559</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>968</v>
+        <v>1233</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>917</v>
+        <v>1234</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>970</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>496</v>
+        <v>970</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>1170</v>
+        <v>494</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1171</v>
+        <v>495</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>988</v>
+        <v>1171</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>897</v>
+        <v>978</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>479</v>
+        <v>897</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>480</v>
+        <v>898</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>481</v>
+        <v>899</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1010</v>
+        <v>481</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>497</v>
+        <v>1068</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>498</v>
+        <v>1069</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>499</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>1160</v>
+        <v>482</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1161</v>
+        <v>483</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1162</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>485</v>
+        <v>1160</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>486</v>
+        <v>1161</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>487</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>940</v>
+        <v>485</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>941</v>
+        <v>486</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>942</v>
+        <v>487</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>704</v>
+        <v>941</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>705</v>
+        <v>942</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>530</v>
+        <v>799</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>720</v>
+        <v>503</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>762</v>
+        <v>548</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>550</v>
@@ -9574,642 +9582,653 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>1278</v>
+        <v>762</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1279</v>
+        <v>763</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>617</v>
+        <v>1278</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>618</v>
+        <v>1279</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1007</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>607</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1186</v>
+        <v>606</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1193</v>
+        <v>607</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>449</v>
+        <v>1180</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>450</v>
+        <v>1187</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>451</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>1166</v>
+        <v>449</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1167</v>
+        <v>450</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>688</v>
+        <v>1182</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>689</v>
+        <v>1189</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>690</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1201</v>
+        <v>453</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>765</v>
+        <v>1201</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>766</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>1248</v>
+        <v>764</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1249</v>
+        <v>765</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1250</v>
+        <v>766</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1046</v>
+        <v>1248</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1047</v>
+        <v>1249</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1048</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>820</v>
+        <v>1046</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>821</v>
+        <v>1047</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>822</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>1011</v>
+        <v>420</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1013</v>
+        <v>422</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>743</v>
+        <v>1011</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>901</v>
+        <v>743</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>902</v>
+        <v>745</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>540</v>
+        <v>904</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>541</v>
+        <v>905</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>963</v>
+        <v>691</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>785</v>
+        <v>963</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>835</v>
+        <v>622</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>685</v>
+        <v>835</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>892</v>
+        <v>685</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>893</v>
+        <v>686</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>474</v>
+        <v>947</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>475</v>
+        <v>948</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>713</v>
+        <v>353</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>879</v>
+        <v>713</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>1142</v>
+        <v>877</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>951</v>
+        <v>1143</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>952</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>746</v>
+        <v>949</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>747</v>
+        <v>951</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>1227</v>
+        <v>746</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1228</v>
+        <v>747</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>575</v>
+        <v>1227</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>576</v>
+        <v>1228</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>577</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>823</v>
+        <v>575</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>1019</v>
+        <v>823</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1020</v>
+        <v>824</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>426</v>
+        <v>1019</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>427</v>
+        <v>1020</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>428</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>928</v>
+        <v>417</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>929</v>
+        <v>418</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>930</v>
+        <v>419</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>1263</v>
+        <v>928</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1264</v>
+        <v>929</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1265</v>
+        <v>930</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>734</v>
+        <v>1239</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>735</v>
+        <v>1242</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>736</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>1240</v>
+        <v>737</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1247</v>
+        <v>738</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1246</v>
+        <v>739</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>740</v>
+        <v>1241</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>741</v>
+        <v>1243</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>742</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D506" s="1" t="s">
+      <c r="D507" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A226:G437">
-    <sortCondition ref="A226"/>
+  <sortState ref="A227:G438">
+    <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2EF50B9-F288-DD41-B38A-E8BE7ED61244}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4446588B-7EB4-7A4E-B76B-E67191505F8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1293">
   <si>
     <t>key</t>
   </si>
@@ -4458,14 +4458,6 @@
   </si>
   <si>
     <t>ビジネス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>amcharts.lang</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>en_US</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5203,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6616,54 +6608,57 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>1293</v>
+        <v>245</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1294</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1294</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>245</v>
+        <v>931</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2</v>
+        <v>932</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D172" s="1" t="s">
         <v>933</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1268</v>
@@ -6675,1856 +6670,1853 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>249</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1110</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>155</v>
+        <v>266</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>156</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1111</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D196" s="1" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D206" s="1" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D219" s="1" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D229" s="1" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="G238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>1185</v>
+        <v>731</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1192</v>
+        <v>732</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1199</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>731</v>
+        <v>512</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>732</v>
+        <v>513</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>733</v>
+        <v>514</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>512</v>
+        <v>984</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>513</v>
+        <v>985</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>514</v>
+        <v>986</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>984</v>
+        <v>1175</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>985</v>
+        <v>1174</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>986</v>
+        <v>1178</v>
       </c>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>1175</v>
+        <v>1258</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1174</v>
+        <v>1259</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1178</v>
+        <v>1257</v>
       </c>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>1258</v>
+        <v>966</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1259</v>
+        <v>919</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G244" s="1"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>966</v>
+        <v>602</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>919</v>
+        <v>603</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>960</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>602</v>
+        <v>1212</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>603</v>
+        <v>1213</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>604</v>
+        <v>1214</v>
       </c>
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>1212</v>
+        <v>649</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1213</v>
+        <v>650</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1214</v>
+        <v>651</v>
       </c>
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>649</v>
+        <v>844</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>650</v>
+        <v>845</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G248" s="1"/>
+        <v>846</v>
+      </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
-        <v>844</v>
+        <v>814</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>846</v>
+        <v>816</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>814</v>
+        <v>524</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>815</v>
+        <v>525</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>816</v>
+        <v>959</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>524</v>
+        <v>934</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>525</v>
+        <v>935</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>934</v>
+        <v>749</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>935</v>
+        <v>750</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>936</v>
+        <v>751</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>749</v>
+        <v>1074</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>750</v>
+        <v>1070</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>652</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>1073</v>
+        <v>658</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1071</v>
+        <v>659</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1072</v>
+        <v>660</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>658</v>
+        <v>1260</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>659</v>
+        <v>1261</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>660</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>1260</v>
+        <v>1158</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1261</v>
+        <v>1159</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1262</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>1176</v>
+        <v>888</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1177</v>
+        <v>889</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>888</v>
+        <v>961</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>889</v>
+        <v>924</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>961</v>
+        <v>1075</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>924</v>
+        <v>1076</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>909</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>1075</v>
+        <v>796</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1076</v>
+        <v>797</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1077</v>
+        <v>798</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>797</v>
+        <v>860</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>798</v>
+        <v>861</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>859</v>
+        <v>1224</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>860</v>
+        <v>1225</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>861</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>1224</v>
+        <v>1034</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1225</v>
+        <v>1035</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1226</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>1034</v>
+        <v>446</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1035</v>
+        <v>447</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1036</v>
+        <v>448</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>446</v>
+        <v>1043</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>447</v>
+        <v>1044</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>448</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>1043</v>
+        <v>965</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1044</v>
+        <v>920</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1045</v>
+        <v>906</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>965</v>
+        <v>488</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>920</v>
+        <v>489</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>906</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>488</v>
+        <v>874</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>489</v>
+        <v>875</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>490</v>
+        <v>876</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>862</v>
+        <v>563</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>863</v>
+        <v>564</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>864</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>563</v>
+        <v>1230</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>564</v>
+        <v>1231</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>565</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>1230</v>
+        <v>545</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1231</v>
+        <v>546</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1232</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>545</v>
+        <v>868</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>546</v>
+        <v>869</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>547</v>
+        <v>870</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>868</v>
+        <v>1275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>869</v>
+        <v>1276</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>870</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>1275</v>
+        <v>706</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1276</v>
+        <v>707</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1277</v>
+        <v>708</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>706</v>
+        <v>393</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>707</v>
+        <v>394</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>708</v>
+        <v>395</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>458</v>
+        <v>1183</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>459</v>
+        <v>1190</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>460</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>1183</v>
+        <v>817</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1190</v>
+        <v>818</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1197</v>
+        <v>819</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>817</v>
+        <v>634</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>818</v>
+        <v>635</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>819</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>655</v>
+        <v>781</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>781</v>
+        <v>697</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>782</v>
+        <v>698</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>783</v>
+        <v>699</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>697</v>
+        <v>1206</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>698</v>
+        <v>1207</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>699</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>1206</v>
+        <v>1149</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1207</v>
+        <v>1148</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1208</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>1149</v>
+        <v>467</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1148</v>
+        <v>468</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1147</v>
+        <v>469</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>467</v>
+        <v>778</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>468</v>
+        <v>779</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>469</v>
+        <v>780</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>778</v>
+        <v>1144</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>779</v>
+        <v>1145</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>780</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>1144</v>
+        <v>578</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1145</v>
+        <v>579</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1146</v>
+        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>578</v>
+        <v>536</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>580</v>
+        <v>538</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>533</v>
+        <v>1014</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>534</v>
+        <v>1015</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>1014</v>
+        <v>1211</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1015</v>
+        <v>1210</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>538</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>1211</v>
+        <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1210</v>
+        <v>5</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>1</v>
+        <v>476</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>221</v>
+        <v>478</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>476</v>
+        <v>667</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>477</v>
+        <v>668</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>478</v>
+        <v>669</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>667</v>
+        <v>506</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>668</v>
+        <v>507</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>669</v>
+        <v>508</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>506</v>
+        <v>850</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>507</v>
+        <v>851</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>508</v>
+        <v>852</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>850</v>
+        <v>643</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>851</v>
+        <v>644</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>852</v>
+        <v>645</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>643</v>
+        <v>788</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>645</v>
+        <v>790</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>788</v>
+        <v>679</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>789</v>
+        <v>680</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>790</v>
+        <v>681</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>679</v>
+        <v>423</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>680</v>
+        <v>424</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>681</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>423</v>
+        <v>943</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>424</v>
+        <v>944</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>425</v>
+        <v>945</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>943</v>
+        <v>569</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>944</v>
+        <v>570</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>945</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>521</v>
+        <v>1031</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>522</v>
+        <v>1032</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>523</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>1031</v>
+        <v>491</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1032</v>
+        <v>492</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1033</v>
+        <v>493</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>491</v>
+        <v>772</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>492</v>
+        <v>23</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>493</v>
+        <v>773</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>772</v>
+        <v>461</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>23</v>
+        <v>462</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>773</v>
+        <v>463</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>461</v>
+        <v>608</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>462</v>
+        <v>609</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>463</v>
+        <v>610</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>608</v>
+        <v>793</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>609</v>
+        <v>794</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>610</v>
+        <v>795</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>793</v>
+        <v>581</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>794</v>
+        <v>582</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>795</v>
+        <v>583</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>581</v>
+        <v>1008</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>582</v>
+        <v>1009</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>583</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>1008</v>
+        <v>1284</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1009</v>
+        <v>1285</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1010</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>1284</v>
+        <v>802</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1285</v>
+        <v>803</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1286</v>
+        <v>804</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>802</v>
+        <v>1184</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>803</v>
+        <v>1191</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>804</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>1184</v>
+        <v>455</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1191</v>
+        <v>456</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1198</v>
+        <v>457</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>455</v>
+        <v>838</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>456</v>
+        <v>839</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>457</v>
+        <v>840</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>838</v>
+        <v>1037</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>839</v>
+        <v>1038</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>840</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>1037</v>
+        <v>714</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1038</v>
+        <v>715</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1039</v>
+        <v>716</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>717</v>
+        <v>614</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>611</v>
+        <v>755</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>612</v>
+        <v>756</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>613</v>
+        <v>757</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>755</v>
+        <v>890</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>757</v>
+        <v>891</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>890</v>
+        <v>700</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>891</v>
+        <v>701</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>682</v>
+        <v>791</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>683</v>
+        <v>792</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>684</v>
+        <v>958</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>958</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>774</v>
+        <v>832</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>775</v>
+        <v>833</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>431</v>
+        <v>834</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>832</v>
+        <v>1203</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>833</v>
+        <v>1204</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>834</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>1203</v>
+        <v>637</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1204</v>
+        <v>638</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1205</v>
+        <v>639</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>637</v>
+        <v>551</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>551</v>
+        <v>955</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>552</v>
+        <v>956</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>553</v>
+        <v>957</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>955</v>
+        <v>1026</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>956</v>
+        <v>1025</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>957</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>1026</v>
+        <v>694</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1025</v>
+        <v>695</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1027</v>
+        <v>696</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>676</v>
+        <v>871</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>677</v>
+        <v>872</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>678</v>
+        <v>873</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>871</v>
+        <v>954</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>872</v>
+        <v>953</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>873</v>
+        <v>758</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>954</v>
+        <v>1005</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>953</v>
+        <v>1006</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>758</v>
+        <v>950</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>1005</v>
+        <v>882</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>950</v>
+        <v>883</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>883</v>
+        <v>857</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>880</v>
+        <v>752</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>881</v>
+        <v>753</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>752</v>
+        <v>572</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>753</v>
+        <v>573</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>754</v>
+        <v>574</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>572</v>
+        <v>776</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>573</v>
+        <v>777</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>574</v>
@@ -8532,1049 +8524,1049 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>776</v>
+        <v>509</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>777</v>
+        <v>510</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>509</v>
+        <v>981</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>510</v>
+        <v>912</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>511</v>
+        <v>975</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>983</v>
+        <v>759</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>911</v>
+        <v>760</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>976</v>
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>759</v>
+        <v>884</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>761</v>
+        <v>885</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>886</v>
+        <v>964</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>887</v>
+        <v>921</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>921</v>
+        <v>709</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>907</v>
+        <v>710</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>710</v>
+        <v>896</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>810</v>
+        <v>587</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>811</v>
+        <v>588</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>896</v>
+        <v>589</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>587</v>
+        <v>812</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>588</v>
+        <v>813</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>812</v>
+        <v>939</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>813</v>
+        <v>937</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>526</v>
+        <v>938</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>939</v>
+        <v>805</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>937</v>
+        <v>806</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>938</v>
+        <v>807</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>805</v>
+        <v>1066</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>806</v>
+        <v>1067</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>1066</v>
+        <v>865</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1067</v>
+        <v>866</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>784</v>
+        <v>867</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>865</v>
+        <v>640</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>866</v>
+        <v>641</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>867</v>
+        <v>642</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>640</v>
+        <v>527</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>641</v>
+        <v>528</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>642</v>
+        <v>529</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>527</v>
+        <v>435</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>528</v>
+        <v>436</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>529</v>
+        <v>437</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>441</v>
+        <v>808</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>442</v>
+        <v>809</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>443</v>
+        <v>990</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>808</v>
+        <v>646</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>809</v>
+        <v>647</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>990</v>
+        <v>648</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>646</v>
+        <v>925</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>647</v>
+        <v>926</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>648</v>
+        <v>927</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>925</v>
+        <v>991</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>926</v>
+        <v>992</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>927</v>
+        <v>993</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>995</v>
+        <v>729</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>996</v>
+        <v>730</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>1001</v>
+        <v>853</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>729</v>
+        <v>854</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>730</v>
+        <v>855</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>853</v>
+        <v>664</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>854</v>
+        <v>665</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>855</v>
+        <v>666</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>664</v>
+        <v>962</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>665</v>
+        <v>923</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>666</v>
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>962</v>
+        <v>997</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>906</v>
+        <v>999</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>1016</v>
+        <v>429</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1017</v>
+        <v>430</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1018</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>432</v>
+        <v>599</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>433</v>
+        <v>600</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>670</v>
+        <v>444</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>671</v>
+        <v>445</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>672</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>444</v>
+        <v>596</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>445</v>
+        <v>597</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>445</v>
+        <v>598</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>542</v>
+        <v>464</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>544</v>
+        <v>466</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>464</v>
+        <v>619</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>466</v>
+        <v>621</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>619</v>
+        <v>402</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>620</v>
+        <v>403</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>621</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>411</v>
+        <v>847</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>412</v>
+        <v>848</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>413</v>
+        <v>849</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>847</v>
+        <v>1281</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>848</v>
+        <v>1283</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>849</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>1281</v>
+        <v>1219</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1283</v>
+        <v>1220</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1282</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>1219</v>
+        <v>826</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1220</v>
+        <v>827</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1202</v>
+        <v>828</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>826</v>
+        <v>1163</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>827</v>
+        <v>1164</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>828</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>1163</v>
+        <v>829</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1164</v>
+        <v>830</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1165</v>
+        <v>831</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>829</v>
+        <v>1152</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>830</v>
+        <v>1151</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>831</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>1156</v>
+        <v>726</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1157</v>
+        <v>727</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1155</v>
+        <v>728</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>723</v>
+        <v>515</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>724</v>
+        <v>516</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>725</v>
+        <v>517</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>675</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>653</v>
+        <v>1040</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>654</v>
+        <v>1041</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>1023</v>
+        <v>841</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1022</v>
+        <v>842</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1024</v>
+        <v>843</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>841</v>
+        <v>1254</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>842</v>
+        <v>1255</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>843</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>1251</v>
+        <v>470</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1252</v>
+        <v>471</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1253</v>
+        <v>472</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>470</v>
+        <v>971</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>471</v>
+        <v>918</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>472</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>971</v>
+        <v>557</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>918</v>
+        <v>558</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1000</v>
+        <v>559</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>557</v>
+        <v>1233</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>558</v>
+        <v>1234</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>559</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>1233</v>
+        <v>968</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1234</v>
+        <v>917</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1235</v>
+        <v>970</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>968</v>
+        <v>494</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>917</v>
+        <v>495</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>970</v>
+        <v>496</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>494</v>
+        <v>1170</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>495</v>
+        <v>1171</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>496</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>1170</v>
+        <v>987</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1171</v>
+        <v>988</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1172</v>
+        <v>989</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>988</v>
+        <v>915</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>978</v>
+        <v>897</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>973</v>
+        <v>899</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>897</v>
+        <v>479</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>898</v>
+        <v>480</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>899</v>
+        <v>481</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>479</v>
+        <v>1068</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>480</v>
+        <v>1069</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>481</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>1068</v>
+        <v>497</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1069</v>
+        <v>498</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1010</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>482</v>
+        <v>1160</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>483</v>
+        <v>1161</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>484</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>1160</v>
+        <v>485</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1161</v>
+        <v>486</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1162</v>
+        <v>487</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>485</v>
+        <v>940</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>486</v>
+        <v>941</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>487</v>
+        <v>942</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>940</v>
+        <v>703</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>941</v>
+        <v>704</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>942</v>
+        <v>705</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>703</v>
+        <v>799</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>799</v>
+        <v>530</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>800</v>
+        <v>531</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>801</v>
+        <v>532</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>502</v>
+        <v>416</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>415</v>
+        <v>504</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>503</v>
+        <v>720</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>504</v>
+        <v>721</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>505</v>
+        <v>722</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>720</v>
+        <v>554</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>721</v>
+        <v>555</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>722</v>
+        <v>556</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>548</v>
+        <v>762</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>549</v>
+        <v>763</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>550</v>
@@ -9582,653 +9574,642 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>762</v>
+        <v>1278</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>763</v>
+        <v>1279</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>550</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>1278</v>
+        <v>617</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1279</v>
+        <v>618</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1280</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1007</v>
+        <v>607</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>605</v>
+        <v>1179</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>606</v>
+        <v>1186</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>607</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>1180</v>
+        <v>449</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1187</v>
+        <v>450</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1194</v>
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>449</v>
+        <v>1166</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>450</v>
+        <v>1167</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>451</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1166</v>
+        <v>1181</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1167</v>
+        <v>1188</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1168</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1182</v>
+        <v>688</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1189</v>
+        <v>689</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1196</v>
+        <v>690</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>688</v>
+        <v>452</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>689</v>
+        <v>453</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>690</v>
+        <v>454</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>452</v>
+        <v>1200</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>453</v>
+        <v>1201</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>454</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1200</v>
+        <v>764</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1201</v>
+        <v>765</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1218</v>
+        <v>766</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>764</v>
+        <v>1248</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>765</v>
+        <v>1249</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>766</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1248</v>
+        <v>1046</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1249</v>
+        <v>1047</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1250</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1046</v>
+        <v>820</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1047</v>
+        <v>821</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1048</v>
+        <v>822</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>820</v>
+        <v>420</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>821</v>
+        <v>421</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>822</v>
+        <v>422</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>420</v>
+        <v>1011</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>421</v>
+        <v>1012</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>422</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>1011</v>
+        <v>743</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1012</v>
+        <v>744</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1013</v>
+        <v>745</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>743</v>
+        <v>901</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>744</v>
+        <v>900</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>745</v>
+        <v>902</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>903</v>
+        <v>539</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>904</v>
+        <v>540</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>905</v>
+        <v>541</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>540</v>
+        <v>662</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>541</v>
+        <v>663</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>691</v>
+        <v>963</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>692</v>
+        <v>922</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>693</v>
+        <v>908</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>963</v>
+        <v>785</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>922</v>
+        <v>786</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>908</v>
+        <v>787</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>785</v>
+        <v>622</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>786</v>
+        <v>623</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>787</v>
+        <v>624</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>622</v>
+        <v>835</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>623</v>
+        <v>836</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>624</v>
+        <v>837</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>836</v>
+        <v>686</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>837</v>
+        <v>687</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>685</v>
+        <v>892</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D478" s="1" t="s">
-        <v>687</v>
+        <v>893</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>892</v>
+        <v>967</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>893</v>
+        <v>916</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>916</v>
+        <v>947</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>946</v>
+        <v>473</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>947</v>
+        <v>474</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>948</v>
+        <v>475</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>474</v>
+        <v>567</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>566</v>
+        <v>767</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>567</v>
+        <v>768</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>568</v>
+        <v>769</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>769</v>
+        <v>353</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>353</v>
+        <v>713</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>711</v>
+        <v>877</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>712</v>
+        <v>878</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>713</v>
+        <v>879</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>877</v>
+        <v>1142</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>878</v>
+        <v>1143</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>879</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>1142</v>
+        <v>949</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1143</v>
+        <v>951</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1141</v>
+        <v>952</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>949</v>
+        <v>746</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>951</v>
+        <v>747</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>952</v>
+        <v>748</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>746</v>
+        <v>1227</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>747</v>
+        <v>1228</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>748</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>1227</v>
+        <v>575</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1228</v>
+        <v>576</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1229</v>
+        <v>577</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>575</v>
+        <v>823</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>576</v>
+        <v>824</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>577</v>
+        <v>825</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>823</v>
+        <v>1019</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>824</v>
+        <v>1020</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>825</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>1019</v>
+        <v>426</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1020</v>
+        <v>427</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1021</v>
+        <v>428</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>426</v>
+        <v>625</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>427</v>
+        <v>626</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>428</v>
+        <v>627</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>626</v>
+        <v>418</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>627</v>
+        <v>419</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>417</v>
+        <v>928</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>418</v>
+        <v>929</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>419</v>
+        <v>930</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>928</v>
+        <v>1263</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>929</v>
+        <v>1264</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>930</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1263</v>
+        <v>1239</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>1239</v>
+        <v>734</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1242</v>
+        <v>735</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1244</v>
+        <v>736</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>737</v>
+        <v>1240</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>738</v>
+        <v>1247</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>739</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>1241</v>
+        <v>740</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1243</v>
+        <v>741</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1245</v>
+        <v>742</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>740</v>
+        <v>628</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>742</v>
+        <v>630</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D507" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G438">
-    <sortCondition ref="A227"/>
+  <sortState ref="A226:G437">
+    <sortCondition ref="A226"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4446588B-7EB4-7A4E-B76B-E67191505F8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF59350E-4463-554E-9333-C44C01178E94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1294">
   <si>
     <t>key</t>
   </si>
@@ -4458,6 +4458,10 @@
   </si>
   <si>
     <t>ビジネス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plotlyjs.lang</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5195,10 +5199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6608,57 +6612,51 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>2</v>
+        <v>1293</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>933</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1268</v>
@@ -6670,1853 +6668,1856 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
         <v>1266</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>249</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1110</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>249</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>272</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G233" s="1"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="1:7">
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="1" t="s">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7">
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>1199</v>
-      </c>
+      <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>731</v>
+        <v>1185</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>732</v>
+        <v>1192</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G239" s="1"/>
+        <v>1199</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>512</v>
+        <v>731</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>513</v>
+        <v>732</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>984</v>
+        <v>512</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>985</v>
+        <v>513</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>986</v>
+        <v>514</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>1175</v>
+        <v>984</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1174</v>
+        <v>985</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1178</v>
+        <v>986</v>
       </c>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>1258</v>
+        <v>1175</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1259</v>
+        <v>1174</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1257</v>
+        <v>1178</v>
       </c>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>966</v>
+        <v>1258</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>919</v>
+        <v>1259</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>960</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>602</v>
+        <v>966</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>603</v>
+        <v>919</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G245" s="1"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>1212</v>
+        <v>602</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1213</v>
+        <v>603</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1214</v>
+        <v>604</v>
       </c>
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>649</v>
+        <v>1212</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>650</v>
+        <v>1213</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>651</v>
+        <v>1214</v>
       </c>
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>844</v>
+        <v>649</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>845</v>
+        <v>650</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>846</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>524</v>
+        <v>814</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>525</v>
+        <v>815</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>959</v>
+        <v>816</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>934</v>
+        <v>524</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>935</v>
+        <v>525</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>749</v>
+        <v>934</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>750</v>
+        <v>935</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>751</v>
+        <v>936</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>1074</v>
+        <v>749</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1072</v>
+        <v>652</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>658</v>
+        <v>1073</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>659</v>
+        <v>1071</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>660</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>1260</v>
+        <v>658</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1261</v>
+        <v>659</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1262</v>
+        <v>660</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>1158</v>
+        <v>1260</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1159</v>
+        <v>1261</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1169</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>888</v>
+        <v>1176</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>889</v>
+        <v>1173</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>961</v>
+        <v>888</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>1075</v>
+        <v>961</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1076</v>
+        <v>924</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1077</v>
+        <v>909</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>796</v>
+        <v>1075</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>797</v>
+        <v>1076</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>798</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>861</v>
+        <v>798</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>1224</v>
+        <v>859</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1225</v>
+        <v>860</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1226</v>
+        <v>861</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>1034</v>
+        <v>1224</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1035</v>
+        <v>1225</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1036</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>446</v>
+        <v>1034</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>447</v>
+        <v>1035</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>448</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>1043</v>
+        <v>446</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1044</v>
+        <v>447</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1045</v>
+        <v>448</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>920</v>
+        <v>1044</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>906</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>488</v>
+        <v>965</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>489</v>
+        <v>920</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>490</v>
+        <v>906</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>874</v>
+        <v>488</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>875</v>
+        <v>489</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>876</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>1230</v>
+        <v>563</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1231</v>
+        <v>564</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1232</v>
+        <v>565</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>545</v>
+        <v>1230</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>546</v>
+        <v>1231</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>547</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>870</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>1275</v>
+        <v>868</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1276</v>
+        <v>869</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1277</v>
+        <v>870</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>706</v>
+        <v>1275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>707</v>
+        <v>1276</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>708</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>393</v>
+        <v>706</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>394</v>
+        <v>707</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>1183</v>
+        <v>458</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1190</v>
+        <v>459</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1197</v>
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>817</v>
+        <v>1183</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>818</v>
+        <v>1190</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>819</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>781</v>
+        <v>655</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>782</v>
+        <v>656</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>783</v>
+        <v>657</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>1206</v>
+        <v>697</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1207</v>
+        <v>698</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1208</v>
+        <v>699</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>467</v>
+        <v>1149</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>468</v>
+        <v>1148</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>578</v>
+        <v>1144</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>579</v>
+        <v>1145</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>580</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1015</v>
+        <v>534</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>1211</v>
+        <v>1014</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1210</v>
+        <v>1015</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1209</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>5</v>
+        <v>1210</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>478</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>643</v>
+        <v>850</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>679</v>
+        <v>788</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>423</v>
+        <v>679</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>943</v>
+        <v>423</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>944</v>
+        <v>424</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>945</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>569</v>
+        <v>943</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>570</v>
+        <v>944</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>571</v>
+        <v>945</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>1031</v>
+        <v>521</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1032</v>
+        <v>522</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1033</v>
+        <v>523</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>491</v>
+        <v>1031</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>492</v>
+        <v>1032</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>493</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>772</v>
+        <v>491</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>773</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>461</v>
+        <v>772</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>463</v>
+        <v>773</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>793</v>
+        <v>608</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>581</v>
+        <v>793</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>1008</v>
+        <v>581</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1009</v>
+        <v>582</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1010</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>1284</v>
+        <v>1008</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1285</v>
+        <v>1009</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1286</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>802</v>
+        <v>1284</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>803</v>
+        <v>1285</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>804</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>1184</v>
+        <v>802</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1191</v>
+        <v>803</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>455</v>
+        <v>1184</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>456</v>
+        <v>1191</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>457</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>838</v>
+        <v>455</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>1037</v>
+        <v>838</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1038</v>
+        <v>839</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1039</v>
+        <v>840</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>714</v>
+        <v>1037</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>715</v>
+        <v>1038</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>716</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>614</v>
+        <v>717</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>890</v>
+        <v>755</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>891</v>
+        <v>756</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>700</v>
+        <v>890</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>431</v>
+        <v>958</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>834</v>
+        <v>431</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>1203</v>
+        <v>832</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1204</v>
+        <v>833</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1205</v>
+        <v>834</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>637</v>
+        <v>1203</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>638</v>
+        <v>1204</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>639</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>955</v>
+        <v>551</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>956</v>
+        <v>552</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>957</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>1026</v>
+        <v>955</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1025</v>
+        <v>956</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>694</v>
+        <v>1026</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>695</v>
+        <v>1025</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>696</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>871</v>
+        <v>676</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>872</v>
+        <v>677</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>873</v>
+        <v>678</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>954</v>
+        <v>871</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>953</v>
+        <v>872</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>758</v>
+        <v>873</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1006</v>
+        <v>953</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>950</v>
+        <v>758</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>882</v>
+        <v>1005</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>883</v>
+        <v>1006</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>881</v>
+        <v>857</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>752</v>
+        <v>880</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>754</v>
+        <v>881</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>572</v>
+        <v>752</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>777</v>
+        <v>573</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>574</v>
@@ -8524,1049 +8525,1049 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>509</v>
+        <v>776</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>510</v>
+        <v>777</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>981</v>
+        <v>509</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>912</v>
+        <v>510</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>975</v>
+        <v>511</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>759</v>
+        <v>983</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>760</v>
+        <v>911</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>761</v>
+        <v>976</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>884</v>
+        <v>759</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>885</v>
+        <v>760</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>964</v>
+        <v>886</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>709</v>
+        <v>921</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>710</v>
+        <v>907</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>811</v>
+        <v>709</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>896</v>
+        <v>710</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>587</v>
+        <v>810</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>589</v>
+        <v>896</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>812</v>
+        <v>587</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>813</v>
+        <v>588</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>939</v>
+        <v>812</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>938</v>
+        <v>526</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>805</v>
+        <v>939</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>806</v>
+        <v>937</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>807</v>
+        <v>938</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>1066</v>
+        <v>805</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1067</v>
+        <v>806</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>865</v>
+        <v>1066</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>866</v>
+        <v>1067</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>867</v>
+        <v>784</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>640</v>
+        <v>865</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>641</v>
+        <v>866</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>642</v>
+        <v>867</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>808</v>
+        <v>441</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>809</v>
+        <v>442</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>990</v>
+        <v>443</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>646</v>
+        <v>808</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>648</v>
+        <v>990</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>925</v>
+        <v>646</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>926</v>
+        <v>647</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>927</v>
+        <v>648</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>991</v>
+        <v>925</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>992</v>
+        <v>926</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>993</v>
+        <v>927</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>729</v>
+        <v>995</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>853</v>
+        <v>1001</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>854</v>
+        <v>729</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>962</v>
+        <v>664</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>923</v>
+        <v>665</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>906</v>
+        <v>666</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>998</v>
+        <v>923</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>429</v>
+        <v>1016</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>430</v>
+        <v>1017</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>431</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>598</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>619</v>
+        <v>464</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>847</v>
+        <v>411</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>1281</v>
+        <v>847</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1283</v>
+        <v>848</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1282</v>
+        <v>849</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1220</v>
+        <v>1283</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1202</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>826</v>
+        <v>1219</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>827</v>
+        <v>1220</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>828</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>1163</v>
+        <v>826</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1164</v>
+        <v>827</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1165</v>
+        <v>828</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>829</v>
+        <v>1163</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>830</v>
+        <v>1164</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>831</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>1152</v>
+        <v>829</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1151</v>
+        <v>830</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1150</v>
+        <v>831</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>728</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>1040</v>
+        <v>653</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1041</v>
+        <v>654</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>841</v>
+        <v>1023</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>843</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>1254</v>
+        <v>841</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1255</v>
+        <v>842</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>470</v>
+        <v>1251</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>471</v>
+        <v>1252</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>472</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>918</v>
+        <v>471</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>559</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>1233</v>
+        <v>557</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1234</v>
+        <v>558</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1235</v>
+        <v>559</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>968</v>
+        <v>1233</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>917</v>
+        <v>1234</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>970</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>496</v>
+        <v>970</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>1170</v>
+        <v>494</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1171</v>
+        <v>495</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>988</v>
+        <v>1171</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>897</v>
+        <v>978</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>479</v>
+        <v>897</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>480</v>
+        <v>898</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>481</v>
+        <v>899</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1010</v>
+        <v>481</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>497</v>
+        <v>1068</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>498</v>
+        <v>1069</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>499</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>1160</v>
+        <v>482</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1161</v>
+        <v>483</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1162</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>485</v>
+        <v>1160</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>486</v>
+        <v>1161</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>487</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>940</v>
+        <v>485</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>941</v>
+        <v>486</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>942</v>
+        <v>487</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>704</v>
+        <v>941</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>705</v>
+        <v>942</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>530</v>
+        <v>799</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>720</v>
+        <v>503</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>762</v>
+        <v>548</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>550</v>
@@ -9574,642 +9575,653 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>1278</v>
+        <v>762</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1279</v>
+        <v>763</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>617</v>
+        <v>1278</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>618</v>
+        <v>1279</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1007</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>607</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1186</v>
+        <v>606</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1193</v>
+        <v>607</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>449</v>
+        <v>1180</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>450</v>
+        <v>1187</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>451</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>1166</v>
+        <v>449</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1167</v>
+        <v>450</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>688</v>
+        <v>1182</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>689</v>
+        <v>1189</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>690</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1201</v>
+        <v>453</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>765</v>
+        <v>1201</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>766</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>1248</v>
+        <v>764</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1249</v>
+        <v>765</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1250</v>
+        <v>766</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1046</v>
+        <v>1248</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1047</v>
+        <v>1249</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1048</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>820</v>
+        <v>1046</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>821</v>
+        <v>1047</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>822</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>1011</v>
+        <v>420</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1013</v>
+        <v>422</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>743</v>
+        <v>1011</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>901</v>
+        <v>743</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>902</v>
+        <v>745</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>540</v>
+        <v>904</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>541</v>
+        <v>905</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>963</v>
+        <v>691</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>785</v>
+        <v>963</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>835</v>
+        <v>622</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>685</v>
+        <v>835</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>892</v>
+        <v>685</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>893</v>
+        <v>686</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>474</v>
+        <v>947</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>475</v>
+        <v>948</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>713</v>
+        <v>353</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>879</v>
+        <v>713</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>1142</v>
+        <v>877</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>951</v>
+        <v>1143</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>952</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>746</v>
+        <v>949</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>747</v>
+        <v>951</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>1227</v>
+        <v>746</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1228</v>
+        <v>747</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>575</v>
+        <v>1227</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>576</v>
+        <v>1228</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>577</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>823</v>
+        <v>575</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>1019</v>
+        <v>823</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1020</v>
+        <v>824</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>426</v>
+        <v>1019</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>427</v>
+        <v>1020</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>428</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>928</v>
+        <v>417</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>929</v>
+        <v>418</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>930</v>
+        <v>419</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>1263</v>
+        <v>928</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1264</v>
+        <v>929</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1265</v>
+        <v>930</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>734</v>
+        <v>1239</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>735</v>
+        <v>1242</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>736</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>1240</v>
+        <v>737</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1247</v>
+        <v>738</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1246</v>
+        <v>739</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>740</v>
+        <v>1241</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>741</v>
+        <v>1243</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>742</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D506" s="1" t="s">
+      <c r="D507" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A226:G437">
-    <sortCondition ref="A226"/>
+  <sortState ref="A227:G438">
+    <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF59350E-4463-554E-9333-C44C01178E94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60D00E4B-7CB3-3640-94A0-E634514AF386}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="740" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="1000" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="messages" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1306">
   <si>
     <t>key</t>
   </si>
@@ -4462,6 +4462,63 @@
   </si>
   <si>
     <t>plotlyjs.lang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Talk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話</t>
+    <rPh sb="0" eb="2">
+      <t>カイw</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>science</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <rPh sb="0" eb="2">
+      <t>カガk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Science</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5199,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E466" sqref="E466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7808,727 +7865,727 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>781</v>
+        <v>1300</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>782</v>
+        <v>1301</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>783</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>1206</v>
+        <v>697</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1207</v>
+        <v>698</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1208</v>
+        <v>699</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>467</v>
+        <v>1149</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>468</v>
+        <v>1148</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>578</v>
+        <v>1144</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>579</v>
+        <v>1145</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>580</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1015</v>
+        <v>534</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>1211</v>
+        <v>1014</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1210</v>
+        <v>1015</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1209</v>
+        <v>538</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>5</v>
+        <v>1210</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>478</v>
+        <v>221</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>643</v>
+        <v>850</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>679</v>
+        <v>788</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>423</v>
+        <v>679</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>943</v>
+        <v>423</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>944</v>
+        <v>424</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>945</v>
+        <v>425</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>569</v>
+        <v>943</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>570</v>
+        <v>944</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>571</v>
+        <v>945</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>1031</v>
+        <v>521</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1032</v>
+        <v>522</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1033</v>
+        <v>523</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>491</v>
+        <v>1031</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>492</v>
+        <v>1032</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>493</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>772</v>
+        <v>491</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>773</v>
+        <v>493</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>461</v>
+        <v>772</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>463</v>
+        <v>773</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>793</v>
+        <v>608</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>581</v>
+        <v>793</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>1008</v>
+        <v>581</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1009</v>
+        <v>582</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1010</v>
+        <v>583</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>1284</v>
+        <v>1008</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1285</v>
+        <v>1009</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1286</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>802</v>
+        <v>1284</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>803</v>
+        <v>1285</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>804</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>1184</v>
+        <v>802</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1191</v>
+        <v>803</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>455</v>
+        <v>1184</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>456</v>
+        <v>1191</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>457</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>838</v>
+        <v>455</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>1037</v>
+        <v>838</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1038</v>
+        <v>839</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1039</v>
+        <v>840</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>714</v>
+        <v>1037</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>715</v>
+        <v>1038</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>716</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>614</v>
+        <v>717</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>890</v>
+        <v>755</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>891</v>
+        <v>756</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>700</v>
+        <v>890</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>431</v>
+        <v>958</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>834</v>
+        <v>431</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>1203</v>
+        <v>832</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1204</v>
+        <v>833</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1205</v>
+        <v>834</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>637</v>
+        <v>1203</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>638</v>
+        <v>1204</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>639</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>955</v>
+        <v>551</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>956</v>
+        <v>552</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>957</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>1026</v>
+        <v>955</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1025</v>
+        <v>956</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>694</v>
+        <v>1026</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>695</v>
+        <v>1025</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>696</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>871</v>
+        <v>676</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>872</v>
+        <v>677</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>873</v>
+        <v>678</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>954</v>
+        <v>871</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>953</v>
+        <v>872</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>758</v>
+        <v>873</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1006</v>
+        <v>953</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>950</v>
+        <v>758</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>882</v>
+        <v>1005</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>883</v>
+        <v>1006</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>881</v>
+        <v>857</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>752</v>
+        <v>880</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>754</v>
+        <v>881</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>572</v>
+        <v>752</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>777</v>
+        <v>573</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>574</v>
@@ -8536,1691 +8593,1735 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>509</v>
+        <v>776</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>510</v>
+        <v>777</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>981</v>
+        <v>509</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>912</v>
+        <v>510</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>975</v>
+        <v>511</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>759</v>
+        <v>983</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>760</v>
+        <v>911</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>761</v>
+        <v>976</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>884</v>
+        <v>759</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>885</v>
+        <v>760</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>964</v>
+        <v>886</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>709</v>
+        <v>921</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>710</v>
+        <v>907</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>811</v>
+        <v>709</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>896</v>
+        <v>710</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>587</v>
+        <v>810</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>589</v>
+        <v>896</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>812</v>
+        <v>587</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>813</v>
+        <v>588</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>939</v>
+        <v>812</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>938</v>
+        <v>526</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>805</v>
+        <v>939</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>806</v>
+        <v>937</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>807</v>
+        <v>938</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>1066</v>
+        <v>805</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1067</v>
+        <v>806</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>865</v>
+        <v>1066</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>866</v>
+        <v>1067</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>867</v>
+        <v>784</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>640</v>
+        <v>865</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>641</v>
+        <v>866</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>642</v>
+        <v>867</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>808</v>
+        <v>441</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>809</v>
+        <v>442</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>990</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>646</v>
+        <v>808</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>648</v>
+        <v>990</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>925</v>
+        <v>646</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>926</v>
+        <v>647</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>927</v>
+        <v>648</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>991</v>
+        <v>925</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>992</v>
+        <v>926</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>993</v>
+        <v>927</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>729</v>
+        <v>995</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>730</v>
+        <v>996</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>853</v>
+        <v>1001</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>854</v>
+        <v>729</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>962</v>
+        <v>664</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>923</v>
+        <v>665</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>906</v>
+        <v>666</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>998</v>
+        <v>923</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>429</v>
+        <v>1016</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>430</v>
+        <v>1017</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>431</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>598</v>
+        <v>445</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>619</v>
+        <v>464</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>847</v>
+        <v>411</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>1281</v>
+        <v>847</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1283</v>
+        <v>848</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1282</v>
+        <v>849</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1220</v>
+        <v>1283</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1202</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>826</v>
+        <v>1219</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>827</v>
+        <v>1220</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>828</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>1163</v>
+        <v>826</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1164</v>
+        <v>827</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1165</v>
+        <v>828</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>829</v>
+        <v>1163</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>830</v>
+        <v>1164</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>831</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1152</v>
+        <v>829</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1151</v>
+        <v>830</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1150</v>
+        <v>831</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>728</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>1040</v>
+        <v>653</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1041</v>
+        <v>654</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>841</v>
+        <v>1023</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>843</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1254</v>
+        <v>841</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1255</v>
+        <v>842</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>470</v>
+        <v>1251</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>471</v>
+        <v>1252</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>472</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>918</v>
+        <v>471</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>559</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>1233</v>
+        <v>557</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1234</v>
+        <v>558</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1235</v>
+        <v>559</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>968</v>
+        <v>1233</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>917</v>
+        <v>1234</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>970</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>496</v>
+        <v>970</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>1170</v>
+        <v>494</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1171</v>
+        <v>495</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>988</v>
+        <v>1171</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>897</v>
+        <v>978</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>479</v>
+        <v>897</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>480</v>
+        <v>898</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>481</v>
+        <v>899</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1010</v>
+        <v>481</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>497</v>
+        <v>1068</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>498</v>
+        <v>1069</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>499</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>1160</v>
+        <v>482</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1161</v>
+        <v>483</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1162</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>485</v>
+        <v>1160</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>486</v>
+        <v>1161</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>487</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>940</v>
+        <v>485</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>941</v>
+        <v>486</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>942</v>
+        <v>487</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>704</v>
+        <v>941</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>705</v>
+        <v>942</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>530</v>
+        <v>799</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>414</v>
+        <v>1297</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>415</v>
+        <v>1299</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>416</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>720</v>
+        <v>414</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>762</v>
+        <v>560</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>1278</v>
+        <v>548</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1279</v>
+        <v>549</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1007</v>
+        <v>550</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>605</v>
+        <v>1278</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>606</v>
+        <v>1279</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>607</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1179</v>
+        <v>617</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1186</v>
+        <v>618</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1193</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>1180</v>
+        <v>605</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1187</v>
+        <v>606</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1194</v>
+        <v>607</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>449</v>
+        <v>1179</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>450</v>
+        <v>1186</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>451</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1168</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1181</v>
+        <v>449</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1188</v>
+        <v>450</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1195</v>
+        <v>451</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>688</v>
+        <v>1181</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>689</v>
+        <v>1188</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>690</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>453</v>
+        <v>1189</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>454</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1201</v>
+        <v>689</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1218</v>
+        <v>690</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>764</v>
+        <v>452</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>766</v>
+        <v>454</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1248</v>
+        <v>1200</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1249</v>
+        <v>1201</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1250</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1046</v>
+        <v>1303</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1047</v>
+        <v>1304</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1048</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>420</v>
+        <v>1248</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>421</v>
+        <v>1249</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>422</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>1011</v>
+        <v>1046</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1012</v>
+        <v>1047</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1013</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>743</v>
+        <v>1294</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>744</v>
+        <v>1295</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>745</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>901</v>
+        <v>820</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>900</v>
+        <v>821</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>902</v>
+        <v>822</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>903</v>
+        <v>420</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>904</v>
+        <v>421</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>905</v>
+        <v>422</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>539</v>
+        <v>1011</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>540</v>
+        <v>1012</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>541</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>691</v>
+        <v>901</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>692</v>
+        <v>900</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>693</v>
+        <v>902</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>963</v>
+        <v>903</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>785</v>
+        <v>539</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>786</v>
+        <v>540</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>787</v>
+        <v>541</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>835</v>
+        <v>691</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>836</v>
+        <v>692</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>837</v>
+        <v>693</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>685</v>
+        <v>963</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>686</v>
+        <v>922</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>687</v>
+        <v>908</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>892</v>
+        <v>785</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>893</v>
+        <v>786</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>967</v>
+        <v>622</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>916</v>
+        <v>623</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>969</v>
+        <v>624</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>946</v>
+        <v>835</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>947</v>
+        <v>836</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>948</v>
+        <v>837</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>473</v>
+        <v>685</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>474</v>
+        <v>686</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>475</v>
+        <v>687</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>566</v>
+        <v>892</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D483" s="1" t="s">
-        <v>568</v>
+        <v>893</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>767</v>
+        <v>967</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>768</v>
+        <v>916</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>769</v>
+        <v>969</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>770</v>
+        <v>946</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>771</v>
+        <v>947</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>353</v>
+        <v>948</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>711</v>
+        <v>473</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>712</v>
+        <v>474</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>713</v>
+        <v>475</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>877</v>
+        <v>566</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>878</v>
+        <v>567</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>879</v>
+        <v>568</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>1142</v>
+        <v>767</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1143</v>
+        <v>768</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1141</v>
+        <v>769</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>949</v>
+        <v>770</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>951</v>
+        <v>771</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>952</v>
+        <v>353</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>1227</v>
+        <v>877</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1228</v>
+        <v>878</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1229</v>
+        <v>879</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>575</v>
+        <v>1142</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>576</v>
+        <v>1143</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>577</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>823</v>
+        <v>949</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>824</v>
+        <v>951</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>825</v>
+        <v>952</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>1019</v>
+        <v>746</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1020</v>
+        <v>747</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1021</v>
+        <v>748</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>426</v>
+        <v>1227</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>427</v>
+        <v>1228</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>428</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>417</v>
+        <v>823</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>418</v>
+        <v>824</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>419</v>
+        <v>825</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>928</v>
+        <v>1019</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>929</v>
+        <v>1020</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>930</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1263</v>
+        <v>426</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1264</v>
+        <v>427</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1265</v>
+        <v>428</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>1239</v>
+        <v>625</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1242</v>
+        <v>626</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1244</v>
+        <v>627</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>734</v>
+        <v>417</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>735</v>
+        <v>418</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>736</v>
+        <v>419</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>737</v>
+        <v>928</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>738</v>
+        <v>929</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>739</v>
+        <v>930</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1247</v>
+        <v>1264</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1246</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>628</v>
+        <v>737</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>629</v>
+        <v>738</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B511" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D507" s="1" t="s">
+      <c r="D511" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G438">
+  <sortState ref="A227:G439">
     <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60D00E4B-7CB3-3640-94A0-E634514AF386}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B8A3DFD-EBD9-C445-90D4-722F1BC58321}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1000" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1309">
   <si>
     <t>key</t>
   </si>
@@ -4519,6 +4519,21 @@
   </si>
   <si>
     <t>サポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pause</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時停止</t>
+    <rPh sb="0" eb="2">
+      <t>イチj</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5256,10 +5271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E466" sqref="E466"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9203,461 +9218,461 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>1156</v>
+        <v>1306</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1157</v>
+        <v>1307</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1155</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>728</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>1040</v>
+        <v>653</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1041</v>
+        <v>654</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>841</v>
+        <v>1023</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>843</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>1254</v>
+        <v>841</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1255</v>
+        <v>842</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>470</v>
+        <v>1251</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>471</v>
+        <v>1252</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>472</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>918</v>
+        <v>471</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>559</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>1233</v>
+        <v>557</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1234</v>
+        <v>558</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1235</v>
+        <v>559</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>968</v>
+        <v>1233</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>917</v>
+        <v>1234</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>970</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>496</v>
+        <v>970</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>1170</v>
+        <v>494</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1171</v>
+        <v>495</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>988</v>
+        <v>1171</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>897</v>
+        <v>978</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>479</v>
+        <v>897</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>480</v>
+        <v>898</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>481</v>
+        <v>899</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1010</v>
+        <v>481</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>497</v>
+        <v>1068</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>498</v>
+        <v>1069</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>499</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>1160</v>
+        <v>482</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1161</v>
+        <v>483</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1162</v>
+        <v>484</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>485</v>
+        <v>1160</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>486</v>
+        <v>1161</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>487</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>940</v>
+        <v>485</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>941</v>
+        <v>486</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>942</v>
+        <v>487</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>704</v>
+        <v>941</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>705</v>
+        <v>942</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>530</v>
+        <v>799</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>1297</v>
+        <v>530</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1299</v>
+        <v>531</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1298</v>
+        <v>532</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>500</v>
+        <v>1297</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>501</v>
+        <v>1299</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>502</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>720</v>
+        <v>503</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>762</v>
+        <v>548</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>550</v>
@@ -9665,663 +9680,674 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>1278</v>
+        <v>762</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1279</v>
+        <v>763</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>617</v>
+        <v>1278</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>618</v>
+        <v>1279</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1007</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>607</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1186</v>
+        <v>606</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1193</v>
+        <v>607</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>449</v>
+        <v>1180</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>450</v>
+        <v>1187</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>451</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1166</v>
+        <v>449</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1167</v>
+        <v>450</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>688</v>
+        <v>1182</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>689</v>
+        <v>1189</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>690</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1201</v>
+        <v>453</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1303</v>
+        <v>1200</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1304</v>
+        <v>1201</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1305</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>764</v>
+        <v>1303</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>765</v>
+        <v>1304</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>766</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>1248</v>
+        <v>764</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1249</v>
+        <v>765</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1250</v>
+        <v>766</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>1046</v>
+        <v>1248</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1047</v>
+        <v>1249</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1048</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>1294</v>
+        <v>1046</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1295</v>
+        <v>1047</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1296</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>820</v>
+        <v>1294</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>821</v>
+        <v>1295</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>822</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>1011</v>
+        <v>420</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1013</v>
+        <v>422</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>743</v>
+        <v>1011</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>901</v>
+        <v>743</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>902</v>
+        <v>745</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>540</v>
+        <v>904</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>541</v>
+        <v>905</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>963</v>
+        <v>691</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>785</v>
+        <v>963</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>835</v>
+        <v>622</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>685</v>
+        <v>835</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>892</v>
+        <v>685</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>893</v>
+        <v>686</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>474</v>
+        <v>947</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>475</v>
+        <v>948</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>713</v>
+        <v>353</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>879</v>
+        <v>713</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>1142</v>
+        <v>877</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>951</v>
+        <v>1143</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>952</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>746</v>
+        <v>949</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>747</v>
+        <v>951</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>1227</v>
+        <v>746</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1228</v>
+        <v>747</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>575</v>
+        <v>1227</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>576</v>
+        <v>1228</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>577</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>823</v>
+        <v>575</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>1019</v>
+        <v>823</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1020</v>
+        <v>824</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>426</v>
+        <v>1019</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>427</v>
+        <v>1020</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>428</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>928</v>
+        <v>417</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>929</v>
+        <v>418</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>930</v>
+        <v>419</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>1263</v>
+        <v>928</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1264</v>
+        <v>929</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1265</v>
+        <v>930</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>734</v>
+        <v>1239</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>735</v>
+        <v>1242</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>736</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
-        <v>1240</v>
+        <v>737</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1247</v>
+        <v>738</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1246</v>
+        <v>739</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1" t="s">
-        <v>740</v>
+        <v>1241</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>741</v>
+        <v>1243</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>742</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D511" s="1" t="s">
+      <c r="D512" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G439">
+  <sortState ref="A227:G440">
     <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B8A3DFD-EBD9-C445-90D4-722F1BC58321}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBDB935E-722F-1D41-8A3F-6EE1477B062C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1000" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1311">
   <si>
     <t>key</t>
   </si>
@@ -4534,6 +4534,14 @@
     <rPh sb="0" eb="2">
       <t>イチj</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openjdk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenJDK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5271,10 +5279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G512"/>
+  <dimension ref="A1:G513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A397" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D410" sqref="D410"/>
+      <selection activeCell="O408" sqref="O408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9152,538 +9160,535 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>1281</v>
+        <v>1309</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1282</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1220</v>
+        <v>1283</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1202</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>826</v>
+        <v>1219</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>827</v>
+        <v>1220</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>828</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>1163</v>
+        <v>826</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1164</v>
+        <v>827</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1165</v>
+        <v>828</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>829</v>
+        <v>1163</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>830</v>
+        <v>1164</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>831</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>1152</v>
+        <v>829</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1151</v>
+        <v>830</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1150</v>
+        <v>831</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>1306</v>
+        <v>1152</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1307</v>
+        <v>1151</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1308</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>1156</v>
+        <v>1306</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1157</v>
+        <v>1307</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1155</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>728</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>1040</v>
+        <v>653</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1041</v>
+        <v>654</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>841</v>
+        <v>1023</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>843</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>1254</v>
+        <v>841</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1255</v>
+        <v>842</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>470</v>
+        <v>1251</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>471</v>
+        <v>1252</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>472</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>918</v>
+        <v>471</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>559</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>1233</v>
+        <v>557</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1234</v>
+        <v>558</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1235</v>
+        <v>559</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>968</v>
+        <v>1233</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>917</v>
+        <v>1234</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>970</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>496</v>
+        <v>970</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>1170</v>
+        <v>494</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1171</v>
+        <v>495</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>988</v>
+        <v>1171</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>897</v>
+        <v>978</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>479</v>
+        <v>897</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>480</v>
+        <v>898</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>481</v>
+        <v>899</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1010</v>
+        <v>481</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>497</v>
+        <v>1068</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>498</v>
+        <v>1069</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>499</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>1160</v>
+        <v>482</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1161</v>
+        <v>483</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1162</v>
+        <v>484</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>485</v>
+        <v>1160</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>486</v>
+        <v>1161</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>487</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>940</v>
+        <v>485</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>941</v>
+        <v>486</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>942</v>
+        <v>487</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>704</v>
+        <v>941</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>705</v>
+        <v>942</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>530</v>
+        <v>799</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>1297</v>
+        <v>530</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1299</v>
+        <v>531</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1298</v>
+        <v>532</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>500</v>
+        <v>1297</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>501</v>
+        <v>1299</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>502</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>720</v>
+        <v>503</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>762</v>
+        <v>548</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>550</v>
@@ -9691,663 +9696,674 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>1278</v>
+        <v>762</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1279</v>
+        <v>763</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>617</v>
+        <v>1278</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>618</v>
+        <v>1279</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1007</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>607</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1186</v>
+        <v>606</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1193</v>
+        <v>607</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>449</v>
+        <v>1180</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>450</v>
+        <v>1187</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>451</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>1166</v>
+        <v>449</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1167</v>
+        <v>450</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>688</v>
+        <v>1182</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>689</v>
+        <v>1189</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>690</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1201</v>
+        <v>453</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>1303</v>
+        <v>1200</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1304</v>
+        <v>1201</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1305</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>764</v>
+        <v>1303</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>765</v>
+        <v>1304</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>766</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>1248</v>
+        <v>764</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1249</v>
+        <v>765</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1250</v>
+        <v>766</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>1046</v>
+        <v>1248</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1047</v>
+        <v>1249</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1048</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>1294</v>
+        <v>1046</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1295</v>
+        <v>1047</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1296</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>820</v>
+        <v>1294</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>821</v>
+        <v>1295</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>822</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>1011</v>
+        <v>420</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1013</v>
+        <v>422</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>743</v>
+        <v>1011</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>901</v>
+        <v>743</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>902</v>
+        <v>745</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>540</v>
+        <v>904</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>541</v>
+        <v>905</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>963</v>
+        <v>691</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>785</v>
+        <v>963</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>835</v>
+        <v>622</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>685</v>
+        <v>835</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>892</v>
+        <v>685</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>893</v>
+        <v>686</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D485" s="1" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>474</v>
+        <v>947</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>475</v>
+        <v>948</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>713</v>
+        <v>353</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>879</v>
+        <v>713</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>1142</v>
+        <v>877</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>951</v>
+        <v>1143</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>952</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>746</v>
+        <v>949</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>747</v>
+        <v>951</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>1227</v>
+        <v>746</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1228</v>
+        <v>747</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>575</v>
+        <v>1227</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>576</v>
+        <v>1228</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>577</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>823</v>
+        <v>575</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1019</v>
+        <v>823</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1020</v>
+        <v>824</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>426</v>
+        <v>1019</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>427</v>
+        <v>1020</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>428</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>928</v>
+        <v>417</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>929</v>
+        <v>418</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>930</v>
+        <v>419</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>1263</v>
+        <v>928</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1264</v>
+        <v>929</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1265</v>
+        <v>930</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>734</v>
+        <v>1239</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>735</v>
+        <v>1242</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>736</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
-        <v>1240</v>
+        <v>737</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1247</v>
+        <v>738</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1246</v>
+        <v>739</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
-        <v>740</v>
+        <v>1241</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>741</v>
+        <v>1243</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>742</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B513" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D512" s="1" t="s">
+      <c r="D513" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G440">
+  <sortState ref="A227:G441">
     <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBDB935E-722F-1D41-8A3F-6EE1477B062C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C01D3FC-8127-BD49-8D58-0DA830952E8A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1000" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1317">
   <si>
     <t>key</t>
   </si>
@@ -4542,6 +4542,36 @@
   </si>
   <si>
     <t>OpenJDK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モドr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進む</t>
+    <rPh sb="0" eb="1">
+      <t>ススm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forward</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5279,10 +5309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G513"/>
+  <dimension ref="A1:G515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O408" sqref="O408"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7561,2809 +7591,2831 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>1260</v>
+        <v>1311</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1261</v>
+        <v>1312</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1262</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>1158</v>
+        <v>1260</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1159</v>
+        <v>1261</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1169</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>888</v>
+        <v>1176</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>889</v>
+        <v>1173</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>961</v>
+        <v>888</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>1075</v>
+        <v>961</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1076</v>
+        <v>924</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1077</v>
+        <v>909</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>796</v>
+        <v>1075</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>797</v>
+        <v>1076</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>798</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>861</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>1224</v>
+        <v>859</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1225</v>
+        <v>860</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1226</v>
+        <v>861</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>1034</v>
+        <v>1224</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1035</v>
+        <v>1225</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1036</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>446</v>
+        <v>1034</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>447</v>
+        <v>1035</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>448</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>1043</v>
+        <v>446</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1044</v>
+        <v>447</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1045</v>
+        <v>448</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>920</v>
+        <v>1044</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>906</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>488</v>
+        <v>965</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>489</v>
+        <v>920</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>490</v>
+        <v>906</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>874</v>
+        <v>488</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>875</v>
+        <v>489</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>876</v>
+        <v>490</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>1230</v>
+        <v>563</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1231</v>
+        <v>564</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1232</v>
+        <v>565</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>545</v>
+        <v>1230</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>546</v>
+        <v>1231</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>547</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>870</v>
+        <v>547</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>1275</v>
+        <v>868</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1276</v>
+        <v>869</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1277</v>
+        <v>870</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>706</v>
+        <v>1275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>707</v>
+        <v>1276</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>708</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>393</v>
+        <v>706</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>394</v>
+        <v>707</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>1183</v>
+        <v>458</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1190</v>
+        <v>459</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1197</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>817</v>
+        <v>1183</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>818</v>
+        <v>1190</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>819</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>1300</v>
+        <v>655</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1301</v>
+        <v>656</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1302</v>
+        <v>657</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>781</v>
+        <v>1300</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>782</v>
+        <v>1301</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>783</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>1206</v>
+        <v>697</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1207</v>
+        <v>698</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1208</v>
+        <v>699</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>467</v>
+        <v>1149</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>468</v>
+        <v>1148</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>578</v>
+        <v>1144</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>579</v>
+        <v>1145</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>580</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1015</v>
+        <v>534</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>1211</v>
+        <v>1014</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1210</v>
+        <v>1015</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1209</v>
+        <v>538</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>5</v>
+        <v>1210</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>478</v>
+        <v>221</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>643</v>
+        <v>850</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>679</v>
+        <v>788</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>423</v>
+        <v>679</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>943</v>
+        <v>423</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>944</v>
+        <v>424</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>945</v>
+        <v>425</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>569</v>
+        <v>943</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>570</v>
+        <v>944</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>571</v>
+        <v>945</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>1031</v>
+        <v>521</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1032</v>
+        <v>522</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1033</v>
+        <v>523</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>491</v>
+        <v>1031</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>492</v>
+        <v>1032</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>493</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>772</v>
+        <v>491</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>773</v>
+        <v>493</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>461</v>
+        <v>772</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>463</v>
+        <v>773</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>793</v>
+        <v>608</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>581</v>
+        <v>793</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>582</v>
+        <v>794</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>583</v>
+        <v>795</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>1008</v>
+        <v>581</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1009</v>
+        <v>582</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1010</v>
+        <v>583</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>1284</v>
+        <v>1008</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1285</v>
+        <v>1009</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1286</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>802</v>
+        <v>1284</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>803</v>
+        <v>1285</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>804</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>1184</v>
+        <v>802</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1191</v>
+        <v>803</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>455</v>
+        <v>1184</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>456</v>
+        <v>1191</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>457</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>838</v>
+        <v>455</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>839</v>
+        <v>456</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>840</v>
+        <v>457</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>1037</v>
+        <v>838</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1038</v>
+        <v>839</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1039</v>
+        <v>840</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>714</v>
+        <v>1037</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>715</v>
+        <v>1038</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>716</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>614</v>
+        <v>717</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>890</v>
+        <v>755</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>891</v>
+        <v>756</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>700</v>
+        <v>890</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>774</v>
+        <v>1314</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>775</v>
+        <v>1316</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>431</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>834</v>
+        <v>958</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>1203</v>
+        <v>774</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1204</v>
+        <v>775</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1205</v>
+        <v>431</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>637</v>
+        <v>832</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>551</v>
+        <v>1203</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>552</v>
+        <v>1204</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>553</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>955</v>
+        <v>637</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>956</v>
+        <v>638</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>957</v>
+        <v>639</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>1026</v>
+        <v>551</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1025</v>
+        <v>552</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1027</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>694</v>
+        <v>955</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>695</v>
+        <v>956</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>696</v>
+        <v>957</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>676</v>
+        <v>1026</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>677</v>
+        <v>1025</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>678</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>871</v>
+        <v>694</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>872</v>
+        <v>695</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>873</v>
+        <v>696</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>954</v>
+        <v>676</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>953</v>
+        <v>677</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>1005</v>
+        <v>871</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>950</v>
+        <v>873</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>882</v>
+        <v>954</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>883</v>
+        <v>953</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>856</v>
+        <v>1005</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>857</v>
+        <v>1006</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>858</v>
+        <v>950</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>572</v>
+        <v>880</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>574</v>
+        <v>881</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>981</v>
+        <v>776</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>912</v>
+        <v>777</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>975</v>
+        <v>574</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>980</v>
+        <v>509</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>913</v>
+        <v>510</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>974</v>
+        <v>511</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>759</v>
+        <v>982</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>760</v>
+        <v>910</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>761</v>
+        <v>977</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>885</v>
+        <v>911</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>886</v>
+        <v>759</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>887</v>
+        <v>760</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>964</v>
+        <v>884</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>710</v>
+        <v>887</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>810</v>
+        <v>964</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>588</v>
+        <v>709</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>526</v>
+        <v>896</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>939</v>
+        <v>587</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>937</v>
+        <v>588</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>938</v>
+        <v>589</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>807</v>
+        <v>526</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>1066</v>
+        <v>939</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1067</v>
+        <v>937</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>784</v>
+        <v>938</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>865</v>
+        <v>805</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>866</v>
+        <v>806</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>867</v>
+        <v>807</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>640</v>
+        <v>1066</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>641</v>
+        <v>1067</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>642</v>
+        <v>784</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>527</v>
+        <v>865</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>528</v>
+        <v>866</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>529</v>
+        <v>867</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>435</v>
+        <v>640</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>438</v>
+        <v>527</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>808</v>
+        <v>438</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>809</v>
+        <v>439</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>990</v>
+        <v>440</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>646</v>
+        <v>441</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>925</v>
+        <v>808</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>991</v>
+        <v>646</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>992</v>
+        <v>647</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>993</v>
+        <v>648</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>994</v>
+        <v>925</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>995</v>
+        <v>926</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>996</v>
+        <v>927</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>729</v>
+        <v>992</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>730</v>
+        <v>993</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>853</v>
+        <v>994</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>854</v>
+        <v>995</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>855</v>
+        <v>996</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>962</v>
+        <v>853</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>923</v>
+        <v>854</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>997</v>
+        <v>664</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>998</v>
+        <v>665</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>999</v>
+        <v>666</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>1002</v>
+        <v>962</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1003</v>
+        <v>923</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1004</v>
+        <v>906</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>429</v>
+        <v>1002</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>430</v>
+        <v>1003</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>431</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>432</v>
+        <v>1016</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>433</v>
+        <v>1017</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>434</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>599</v>
+        <v>429</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>601</v>
+        <v>431</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>593</v>
+        <v>432</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>444</v>
+        <v>593</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>445</v>
+        <v>595</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>464</v>
+        <v>596</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>847</v>
+        <v>408</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>1309</v>
+        <v>411</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1310</v>
+        <v>412</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>1281</v>
+        <v>847</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1283</v>
+        <v>848</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1282</v>
+        <v>849</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>1219</v>
+        <v>1309</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1202</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>826</v>
+        <v>1281</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>827</v>
+        <v>1283</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>828</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1163</v>
+        <v>1219</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1164</v>
+        <v>1220</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1165</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>1306</v>
+        <v>829</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1308</v>
+        <v>831</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>726</v>
+        <v>1306</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>727</v>
+        <v>1307</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>728</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>723</v>
+        <v>1156</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>724</v>
+        <v>1157</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>725</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>515</v>
+        <v>726</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>590</v>
+        <v>723</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>673</v>
+        <v>515</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1030</v>
+        <v>592</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>1040</v>
+        <v>673</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1041</v>
+        <v>674</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1042</v>
+        <v>675</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>1023</v>
+        <v>653</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1022</v>
+        <v>654</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>841</v>
+        <v>1040</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>842</v>
+        <v>1041</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>843</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>1254</v>
+        <v>1023</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1255</v>
+        <v>1022</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1256</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>1251</v>
+        <v>841</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1252</v>
+        <v>842</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1253</v>
+        <v>843</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>470</v>
+        <v>1254</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>471</v>
+        <v>1255</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>472</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>971</v>
+        <v>1251</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>918</v>
+        <v>1252</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1000</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>1233</v>
+        <v>971</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1234</v>
+        <v>918</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1235</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>968</v>
+        <v>557</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>917</v>
+        <v>558</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>970</v>
+        <v>559</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>494</v>
+        <v>1233</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>495</v>
+        <v>1234</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>496</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>1170</v>
+        <v>968</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1171</v>
+        <v>917</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1172</v>
+        <v>970</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>987</v>
+        <v>494</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>988</v>
+        <v>495</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>989</v>
+        <v>496</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>979</v>
+        <v>1170</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>915</v>
+        <v>1171</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>972</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>897</v>
+        <v>979</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>899</v>
+        <v>972</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>479</v>
+        <v>978</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>480</v>
+        <v>914</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>481</v>
+        <v>973</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>1068</v>
+        <v>897</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1069</v>
+        <v>898</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1010</v>
+        <v>899</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>483</v>
+        <v>1069</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>484</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>1160</v>
+        <v>497</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1161</v>
+        <v>498</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1162</v>
+        <v>499</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>940</v>
+        <v>1160</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>941</v>
+        <v>1161</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>942</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>703</v>
+        <v>485</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>799</v>
+        <v>940</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>800</v>
+        <v>941</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>801</v>
+        <v>942</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>530</v>
+        <v>703</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>1297</v>
+        <v>799</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1298</v>
+        <v>801</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>414</v>
+        <v>1297</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>415</v>
+        <v>1299</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>416</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>720</v>
+        <v>414</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>762</v>
+        <v>560</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>1278</v>
+        <v>548</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1279</v>
+        <v>549</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1007</v>
+        <v>550</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>605</v>
+        <v>1278</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>606</v>
+        <v>1279</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>607</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1179</v>
+        <v>617</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1186</v>
+        <v>618</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1193</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>1180</v>
+        <v>605</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1187</v>
+        <v>606</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1194</v>
+        <v>607</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>449</v>
+        <v>1179</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>450</v>
+        <v>1186</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>451</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1168</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1181</v>
+        <v>449</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1188</v>
+        <v>450</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1195</v>
+        <v>451</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>688</v>
+        <v>1181</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>689</v>
+        <v>1188</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>690</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>453</v>
+        <v>1189</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>454</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1201</v>
+        <v>689</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1218</v>
+        <v>690</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>1303</v>
+        <v>452</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1304</v>
+        <v>453</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1305</v>
+        <v>454</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>765</v>
+        <v>1201</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>766</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>1248</v>
+        <v>1303</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1249</v>
+        <v>1304</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1250</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>1046</v>
+        <v>764</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1047</v>
+        <v>765</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1048</v>
+        <v>766</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>1294</v>
+        <v>1248</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1295</v>
+        <v>1249</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1296</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>820</v>
+        <v>1046</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>821</v>
+        <v>1047</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>822</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>420</v>
+        <v>1294</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>421</v>
+        <v>1295</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>422</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>1011</v>
+        <v>820</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1012</v>
+        <v>821</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1013</v>
+        <v>822</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>743</v>
+        <v>420</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>901</v>
+        <v>1011</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>900</v>
+        <v>1012</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>902</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>903</v>
+        <v>743</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>904</v>
+        <v>744</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>905</v>
+        <v>745</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>539</v>
+        <v>901</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>541</v>
+        <v>902</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>661</v>
+        <v>903</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>662</v>
+        <v>904</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>663</v>
+        <v>905</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>963</v>
+        <v>661</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>922</v>
+        <v>662</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>908</v>
+        <v>663</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>623</v>
+        <v>922</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>624</v>
+        <v>908</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>892</v>
+        <v>835</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>893</v>
+        <v>836</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>967</v>
+        <v>685</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>916</v>
+        <v>686</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>969</v>
+        <v>687</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>946</v>
+        <v>892</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>473</v>
+        <v>967</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>474</v>
+        <v>916</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>475</v>
+        <v>969</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>566</v>
+        <v>946</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>567</v>
+        <v>947</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>568</v>
+        <v>948</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>767</v>
+        <v>473</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>770</v>
+        <v>566</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>877</v>
+        <v>770</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>878</v>
+        <v>771</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>879</v>
+        <v>353</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>1142</v>
+        <v>711</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1143</v>
+        <v>712</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1141</v>
+        <v>713</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>951</v>
+        <v>878</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>952</v>
+        <v>879</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>746</v>
+        <v>1142</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>747</v>
+        <v>1143</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>748</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>1227</v>
+        <v>949</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1228</v>
+        <v>951</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1229</v>
+        <v>952</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>575</v>
+        <v>746</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>823</v>
+        <v>1227</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>824</v>
+        <v>1228</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>825</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>1019</v>
+        <v>575</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1020</v>
+        <v>576</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1021</v>
+        <v>577</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>426</v>
+        <v>823</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>625</v>
+        <v>1019</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>626</v>
+        <v>1020</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>627</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>928</v>
+        <v>625</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>929</v>
+        <v>626</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>930</v>
+        <v>627</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>1263</v>
+        <v>417</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1264</v>
+        <v>418</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1265</v>
+        <v>419</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>1239</v>
+        <v>928</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1242</v>
+        <v>929</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
-        <v>734</v>
+        <v>1263</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>735</v>
+        <v>1264</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>736</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
-        <v>737</v>
+        <v>1239</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>739</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1" t="s">
-        <v>1240</v>
+        <v>734</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1247</v>
+        <v>735</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1246</v>
+        <v>736</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
-        <v>1241</v>
+        <v>737</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1243</v>
+        <v>738</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1245</v>
+        <v>739</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1" t="s">
-        <v>740</v>
+        <v>1240</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>741</v>
+        <v>1247</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>742</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1" t="s">
-        <v>628</v>
+        <v>1241</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>629</v>
+        <v>1243</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>630</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D513" s="1" t="s">
+      <c r="D515" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G441">
+  <sortState ref="A227:G443">
     <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C01D3FC-8127-BD49-8D58-0DA830952E8A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE205163-B02B-1640-9CD2-1B5854B84EE5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1000" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1320">
   <si>
     <t>key</t>
   </si>
@@ -4572,6 +4572,18 @@
   </si>
   <si>
     <t>Forward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5309,10 +5321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G515"/>
+  <dimension ref="A1:G516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9069,689 +9081,689 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>599</v>
+        <v>1317</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>600</v>
+        <v>1318</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>601</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>598</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>619</v>
+        <v>464</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>847</v>
+        <v>411</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>848</v>
+        <v>412</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>849</v>
+        <v>413</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>1309</v>
+        <v>847</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1310</v>
+        <v>848</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>1281</v>
+        <v>1309</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1282</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1220</v>
+        <v>1283</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1202</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>826</v>
+        <v>1219</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>827</v>
+        <v>1220</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>828</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>1163</v>
+        <v>826</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1164</v>
+        <v>827</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1165</v>
+        <v>828</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>829</v>
+        <v>1163</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>830</v>
+        <v>1164</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>831</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>1152</v>
+        <v>829</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1151</v>
+        <v>830</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1150</v>
+        <v>831</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>1306</v>
+        <v>1152</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1307</v>
+        <v>1151</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1308</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>1156</v>
+        <v>1306</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1157</v>
+        <v>1307</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1155</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>728</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>517</v>
+        <v>725</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>1040</v>
+        <v>653</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1041</v>
+        <v>654</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>841</v>
+        <v>1023</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>843</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>1254</v>
+        <v>841</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1255</v>
+        <v>842</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>470</v>
+        <v>1251</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>471</v>
+        <v>1252</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>472</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>918</v>
+        <v>471</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>558</v>
+        <v>918</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>559</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>1233</v>
+        <v>557</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1234</v>
+        <v>558</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1235</v>
+        <v>559</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>968</v>
+        <v>1233</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>917</v>
+        <v>1234</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>970</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>496</v>
+        <v>970</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>1170</v>
+        <v>494</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1171</v>
+        <v>495</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>988</v>
+        <v>1171</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>915</v>
+        <v>988</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>897</v>
+        <v>978</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>479</v>
+        <v>897</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>480</v>
+        <v>898</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>481</v>
+        <v>899</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1010</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>497</v>
+        <v>1068</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>498</v>
+        <v>1069</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>499</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>1160</v>
+        <v>482</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1161</v>
+        <v>483</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1162</v>
+        <v>484</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>485</v>
+        <v>1160</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>486</v>
+        <v>1161</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>487</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>940</v>
+        <v>485</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>941</v>
+        <v>486</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>942</v>
+        <v>487</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>704</v>
+        <v>941</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>705</v>
+        <v>942</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>530</v>
+        <v>799</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>532</v>
+        <v>801</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>1297</v>
+        <v>530</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1299</v>
+        <v>531</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1298</v>
+        <v>532</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>500</v>
+        <v>1297</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>501</v>
+        <v>1299</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>502</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>720</v>
+        <v>503</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>721</v>
+        <v>504</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>722</v>
+        <v>505</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>555</v>
+        <v>721</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>556</v>
+        <v>722</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>762</v>
+        <v>548</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>550</v>
@@ -9759,663 +9771,674 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>1278</v>
+        <v>762</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1279</v>
+        <v>763</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>617</v>
+        <v>1278</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>618</v>
+        <v>1279</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1007</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>607</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1186</v>
+        <v>606</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1193</v>
+        <v>607</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>449</v>
+        <v>1180</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>450</v>
+        <v>1187</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>451</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>1166</v>
+        <v>449</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1167</v>
+        <v>450</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>688</v>
+        <v>1182</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>689</v>
+        <v>1189</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>690</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>454</v>
+        <v>690</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1201</v>
+        <v>453</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>1303</v>
+        <v>1200</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1304</v>
+        <v>1201</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1305</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>764</v>
+        <v>1303</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>765</v>
+        <v>1304</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>766</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>1248</v>
+        <v>764</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1249</v>
+        <v>765</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1250</v>
+        <v>766</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>1046</v>
+        <v>1248</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1047</v>
+        <v>1249</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1048</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>1294</v>
+        <v>1046</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1295</v>
+        <v>1047</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1296</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>820</v>
+        <v>1294</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>821</v>
+        <v>1295</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>822</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>421</v>
+        <v>821</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>1011</v>
+        <v>420</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1013</v>
+        <v>422</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>743</v>
+        <v>1011</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>901</v>
+        <v>743</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>902</v>
+        <v>745</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>540</v>
+        <v>904</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>541</v>
+        <v>905</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>662</v>
+        <v>540</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>963</v>
+        <v>691</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>785</v>
+        <v>963</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>786</v>
+        <v>922</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>624</v>
+        <v>787</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>835</v>
+        <v>622</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>836</v>
+        <v>623</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>685</v>
+        <v>835</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>687</v>
+        <v>837</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>892</v>
+        <v>685</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>893</v>
+        <v>686</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>474</v>
+        <v>947</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>475</v>
+        <v>948</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>769</v>
+        <v>568</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>713</v>
+        <v>353</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>879</v>
+        <v>713</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>1142</v>
+        <v>877</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>951</v>
+        <v>1143</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>952</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>746</v>
+        <v>949</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>747</v>
+        <v>951</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>1227</v>
+        <v>746</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1228</v>
+        <v>747</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>575</v>
+        <v>1227</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>576</v>
+        <v>1228</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>577</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>823</v>
+        <v>575</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>1019</v>
+        <v>823</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1020</v>
+        <v>824</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>426</v>
+        <v>1019</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>427</v>
+        <v>1020</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>428</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>928</v>
+        <v>417</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>929</v>
+        <v>418</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>930</v>
+        <v>419</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
-        <v>1263</v>
+        <v>928</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1264</v>
+        <v>929</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1265</v>
+        <v>930</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1" t="s">
-        <v>734</v>
+        <v>1239</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>735</v>
+        <v>1242</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>736</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1" t="s">
-        <v>1240</v>
+        <v>737</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1247</v>
+        <v>738</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1246</v>
+        <v>739</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1" t="s">
-        <v>740</v>
+        <v>1241</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>741</v>
+        <v>1243</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>742</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B516" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D515" s="1" t="s">
+      <c r="D516" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G443">
+  <sortState ref="A227:G444">
     <sortCondition ref="A227"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE205163-B02B-1640-9CD2-1B5854B84EE5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F94E41B-6F0B-8040-9704-D6D751F763B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1000" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="620" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="messages" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1331">
   <si>
     <t>key</t>
   </si>
@@ -4586,12 +4586,58 @@
     <t>ネットワーク</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arabic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ar-sa</t>
+  </si>
+  <si>
+    <t>handsontable.lang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ar-AR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ar-SA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>🇸🇦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en-US</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4623,6 +4669,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -4842,11 +4894,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="195">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -5321,10 +5374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G516"/>
+  <dimension ref="A1:G518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D393" sqref="D393"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5334,7 +5387,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5347,8 +5400,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5361,8 +5417,11 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5375,13 +5434,16 @@
       <c r="D3" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E3" s="4" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>1269</v>
       </c>
@@ -5389,22 +5451,22 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5415,7 +5477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5426,7 +5488,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5437,7 +5499,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -5448,7 +5510,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -6639,7 +6701,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
         <v>233</v>
       </c>
@@ -6649,98 +6711,131 @@
       <c r="D161" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>242</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>239</v>
+        <v>1028</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>1028</v>
+        <v>244</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>235</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>237</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>2</v>
+        <v>1293</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>1293</v>
+        <v>238</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
         <v>245</v>
       </c>
@@ -6751,48 +6846,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1" t="s">
-        <v>1272</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1268</v>
@@ -6804,3642 +6896,3667 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
         <v>1266</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>249</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1110</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>249</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>272</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G234" s="1"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="1:7">
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="1" t="s">
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="1:7">
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>1199</v>
-      </c>
+      <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>731</v>
+        <v>1185</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>732</v>
+        <v>1192</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G240" s="1"/>
+        <v>1199</v>
+      </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>512</v>
+        <v>731</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>513</v>
+        <v>732</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>984</v>
+        <v>512</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>985</v>
+        <v>513</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>986</v>
+        <v>514</v>
       </c>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
-        <v>1175</v>
+        <v>984</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1174</v>
+        <v>985</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1178</v>
+        <v>986</v>
       </c>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
-        <v>1258</v>
+        <v>1175</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1259</v>
+        <v>1174</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1257</v>
+        <v>1178</v>
       </c>
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
-        <v>966</v>
+        <v>1258</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>919</v>
+        <v>1259</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>960</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
-        <v>602</v>
+        <v>966</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>603</v>
+        <v>919</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G246" s="1"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>1212</v>
+        <v>602</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1213</v>
+        <v>603</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1214</v>
+        <v>604</v>
       </c>
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>649</v>
+        <v>1212</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>650</v>
+        <v>1213</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>651</v>
+        <v>1214</v>
       </c>
       <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
-        <v>844</v>
+        <v>649</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>845</v>
+        <v>650</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>846</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>524</v>
+        <v>814</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>525</v>
+        <v>815</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>959</v>
+        <v>816</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>934</v>
+        <v>524</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>935</v>
+        <v>525</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>749</v>
+        <v>934</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>750</v>
+        <v>935</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>751</v>
+        <v>936</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>1074</v>
+        <v>749</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1072</v>
+        <v>652</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>658</v>
+        <v>1073</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>659</v>
+        <v>1071</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>660</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>1311</v>
+        <v>658</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1312</v>
+        <v>659</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1313</v>
+        <v>660</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>1260</v>
+        <v>1311</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1261</v>
+        <v>1312</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1262</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>1158</v>
+        <v>1260</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1159</v>
+        <v>1261</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1169</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>888</v>
+        <v>1176</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>889</v>
+        <v>1173</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>961</v>
+        <v>888</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>1075</v>
+        <v>961</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1076</v>
+        <v>924</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1077</v>
+        <v>909</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>796</v>
+        <v>1075</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>797</v>
+        <v>1076</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>798</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>861</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>1224</v>
+        <v>859</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1225</v>
+        <v>860</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1226</v>
+        <v>861</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>1034</v>
+        <v>1224</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1035</v>
+        <v>1225</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1036</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>446</v>
+        <v>1034</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>447</v>
+        <v>1035</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>448</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>1043</v>
+        <v>446</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1044</v>
+        <v>447</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1045</v>
+        <v>448</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>920</v>
+        <v>1044</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>906</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>488</v>
+        <v>965</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>489</v>
+        <v>920</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>490</v>
+        <v>906</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>874</v>
+        <v>488</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>875</v>
+        <v>489</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>876</v>
+        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>1230</v>
+        <v>563</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1231</v>
+        <v>564</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1232</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>545</v>
+        <v>1230</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>546</v>
+        <v>1231</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>547</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>870</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>1275</v>
+        <v>868</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1276</v>
+        <v>869</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1277</v>
+        <v>870</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>706</v>
+        <v>1275</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>707</v>
+        <v>1276</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>708</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>393</v>
+        <v>706</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>394</v>
+        <v>707</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>1183</v>
+        <v>458</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1190</v>
+        <v>459</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1197</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>817</v>
+        <v>1183</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>818</v>
+        <v>1190</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>819</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>1300</v>
+        <v>655</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1301</v>
+        <v>656</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1302</v>
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>781</v>
+        <v>1300</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>782</v>
+        <v>1301</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>783</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>1206</v>
+        <v>697</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1207</v>
+        <v>698</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1208</v>
+        <v>699</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>467</v>
+        <v>1149</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>468</v>
+        <v>1148</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>578</v>
+        <v>1144</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>579</v>
+        <v>1145</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>580</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1015</v>
+        <v>534</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>1211</v>
+        <v>1014</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1210</v>
+        <v>1015</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1209</v>
+        <v>538</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>5</v>
+        <v>1210</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>478</v>
+        <v>221</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>643</v>
+        <v>850</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>679</v>
+        <v>788</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>423</v>
+        <v>1327</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>424</v>
+        <v>1328</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>425</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>943</v>
+        <v>679</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>944</v>
+        <v>680</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>945</v>
+        <v>681</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>570</v>
+        <v>424</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>571</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>518</v>
+        <v>943</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>519</v>
+        <v>944</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>520</v>
+        <v>945</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>1031</v>
+        <v>518</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1032</v>
+        <v>519</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1033</v>
+        <v>520</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>772</v>
+        <v>1031</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>23</v>
+        <v>1032</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>773</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>608</v>
+        <v>772</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>609</v>
+        <v>23</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>610</v>
+        <v>773</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>793</v>
+        <v>461</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>794</v>
+        <v>462</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>795</v>
+        <v>463</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>1008</v>
+        <v>793</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1009</v>
+        <v>794</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1010</v>
+        <v>795</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>1284</v>
+        <v>581</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1285</v>
+        <v>582</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1286</v>
+        <v>583</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>802</v>
+        <v>1008</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>803</v>
+        <v>1009</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>804</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>1184</v>
+        <v>1284</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1191</v>
+        <v>1285</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1198</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>455</v>
+        <v>802</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>456</v>
+        <v>803</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>838</v>
+        <v>1184</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>839</v>
+        <v>1191</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>840</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>1037</v>
+        <v>455</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1038</v>
+        <v>456</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1039</v>
+        <v>457</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>714</v>
+        <v>838</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>717</v>
+        <v>1037</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>718</v>
+        <v>1038</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>719</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>614</v>
+        <v>714</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>584</v>
+        <v>717</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>585</v>
+        <v>718</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>755</v>
+        <v>584</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>756</v>
+        <v>585</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>757</v>
+        <v>586</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>890</v>
+        <v>611</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>891</v>
+        <v>612</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>682</v>
+        <v>890</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>684</v>
+        <v>891</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>1314</v>
+        <v>700</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1316</v>
+        <v>701</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1315</v>
+        <v>702</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>774</v>
+        <v>1314</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>775</v>
+        <v>1316</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>431</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>834</v>
+        <v>958</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>1203</v>
+        <v>774</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1204</v>
+        <v>775</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1205</v>
+        <v>431</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>637</v>
+        <v>832</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>551</v>
+        <v>1203</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>552</v>
+        <v>1204</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>553</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>955</v>
+        <v>637</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>956</v>
+        <v>638</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>957</v>
+        <v>639</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>1026</v>
+        <v>551</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1025</v>
+        <v>552</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1027</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>694</v>
+        <v>955</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>695</v>
+        <v>956</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>696</v>
+        <v>957</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>676</v>
+        <v>1026</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>677</v>
+        <v>1025</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>678</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>871</v>
+        <v>694</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>872</v>
+        <v>695</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>873</v>
+        <v>696</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>954</v>
+        <v>676</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>953</v>
+        <v>677</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>1005</v>
+        <v>871</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>950</v>
+        <v>873</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>882</v>
+        <v>954</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>883</v>
+        <v>953</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>856</v>
+        <v>1005</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>857</v>
+        <v>1006</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>858</v>
+        <v>950</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>572</v>
+        <v>880</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>574</v>
+        <v>881</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>981</v>
+        <v>776</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>912</v>
+        <v>777</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>975</v>
+        <v>574</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>980</v>
+        <v>509</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>913</v>
+        <v>510</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>974</v>
+        <v>511</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>759</v>
+        <v>982</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>760</v>
+        <v>910</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>761</v>
+        <v>977</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>885</v>
+        <v>911</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>886</v>
+        <v>759</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>887</v>
+        <v>760</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>964</v>
+        <v>884</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>710</v>
+        <v>887</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>810</v>
+        <v>964</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>588</v>
+        <v>709</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>526</v>
+        <v>896</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>939</v>
+        <v>587</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>937</v>
+        <v>588</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>938</v>
+        <v>589</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>807</v>
+        <v>526</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>1066</v>
+        <v>939</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1067</v>
+        <v>937</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>784</v>
+        <v>938</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>865</v>
+        <v>805</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>866</v>
+        <v>806</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>867</v>
+        <v>807</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>640</v>
+        <v>1066</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>641</v>
+        <v>1067</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>642</v>
+        <v>784</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>527</v>
+        <v>865</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>528</v>
+        <v>866</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>529</v>
+        <v>867</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>435</v>
+        <v>640</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>438</v>
+        <v>527</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>808</v>
+        <v>438</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>809</v>
+        <v>439</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>990</v>
+        <v>440</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>646</v>
+        <v>441</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
-        <v>925</v>
+        <v>808</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>991</v>
+        <v>646</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>992</v>
+        <v>647</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>993</v>
+        <v>648</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>994</v>
+        <v>925</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>995</v>
+        <v>926</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>996</v>
+        <v>927</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>729</v>
+        <v>992</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>730</v>
+        <v>993</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>853</v>
+        <v>994</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>854</v>
+        <v>995</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>855</v>
+        <v>996</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>664</v>
+        <v>1001</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>962</v>
+        <v>853</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>923</v>
+        <v>854</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>997</v>
+        <v>664</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>998</v>
+        <v>665</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>999</v>
+        <v>666</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
-        <v>1002</v>
+        <v>962</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1003</v>
+        <v>923</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1004</v>
+        <v>906</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>429</v>
+        <v>1002</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>430</v>
+        <v>1003</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>431</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>432</v>
+        <v>1016</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>433</v>
+        <v>1017</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>434</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>1317</v>
+        <v>429</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1318</v>
+        <v>430</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1319</v>
+        <v>431</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>601</v>
+        <v>434</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
-        <v>593</v>
+        <v>1317</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>594</v>
+        <v>1318</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>595</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>444</v>
+        <v>593</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>445</v>
+        <v>595</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>464</v>
+        <v>596</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
-        <v>847</v>
+        <v>408</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>1309</v>
+        <v>411</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1310</v>
+        <v>412</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>1281</v>
+        <v>847</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1283</v>
+        <v>848</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1282</v>
+        <v>849</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>1219</v>
+        <v>1309</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1202</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>826</v>
+        <v>1281</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>827</v>
+        <v>1283</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>828</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>1163</v>
+        <v>1219</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1164</v>
+        <v>1220</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1165</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>1306</v>
+        <v>829</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1308</v>
+        <v>831</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>726</v>
+        <v>1306</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>727</v>
+        <v>1307</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>728</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>723</v>
+        <v>1156</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>724</v>
+        <v>1157</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>725</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>515</v>
+        <v>726</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>516</v>
+        <v>727</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>517</v>
+        <v>728</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>590</v>
+        <v>723</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>592</v>
+        <v>725</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
-        <v>673</v>
+        <v>515</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>674</v>
+        <v>516</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>675</v>
+        <v>517</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1030</v>
+        <v>592</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>1040</v>
+        <v>673</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1041</v>
+        <v>674</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1042</v>
+        <v>675</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>1023</v>
+        <v>653</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1022</v>
+        <v>654</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>841</v>
+        <v>1040</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>842</v>
+        <v>1041</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>843</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>1254</v>
+        <v>1023</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1255</v>
+        <v>1022</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1256</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>1251</v>
+        <v>841</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1252</v>
+        <v>842</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1253</v>
+        <v>843</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>470</v>
+        <v>1254</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>471</v>
+        <v>1255</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>472</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>971</v>
+        <v>1251</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>918</v>
+        <v>1252</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1000</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>1233</v>
+        <v>971</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1234</v>
+        <v>918</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1235</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>968</v>
+        <v>557</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>917</v>
+        <v>558</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>970</v>
+        <v>559</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>494</v>
+        <v>1233</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>495</v>
+        <v>1234</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>496</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
-        <v>1170</v>
+        <v>968</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1171</v>
+        <v>917</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1172</v>
+        <v>970</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>987</v>
+        <v>494</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>988</v>
+        <v>495</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>989</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
-        <v>979</v>
+        <v>1170</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>915</v>
+        <v>1171</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>972</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
-        <v>897</v>
+        <v>979</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>899</v>
+        <v>972</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>479</v>
+        <v>978</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>480</v>
+        <v>914</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>481</v>
+        <v>973</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
-        <v>1068</v>
+        <v>897</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1069</v>
+        <v>898</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1010</v>
+        <v>899</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>483</v>
+        <v>1069</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>484</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>1160</v>
+        <v>497</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1161</v>
+        <v>498</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1162</v>
+        <v>499</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>940</v>
+        <v>1160</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>941</v>
+        <v>1161</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>942</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
-        <v>703</v>
+        <v>485</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>799</v>
+        <v>940</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>800</v>
+        <v>941</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>801</v>
+        <v>942</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
-        <v>530</v>
+        <v>703</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>531</v>
+        <v>704</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>532</v>
+        <v>705</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>1297</v>
+        <v>799</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1298</v>
+        <v>801</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>414</v>
+        <v>1297</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>415</v>
+        <v>1299</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>416</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>720</v>
+        <v>414</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>722</v>
+        <v>416</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>561</v>
+        <v>721</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>562</v>
+        <v>722</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
-        <v>762</v>
+        <v>560</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>1278</v>
+        <v>548</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1279</v>
+        <v>549</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1280</v>
+        <v>550</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1007</v>
+        <v>550</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>605</v>
+        <v>1278</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>606</v>
+        <v>1279</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>607</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
-        <v>1179</v>
+        <v>617</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1186</v>
+        <v>618</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1193</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>1180</v>
+        <v>605</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1187</v>
+        <v>606</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1194</v>
+        <v>607</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
-        <v>449</v>
+        <v>1179</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>450</v>
+        <v>1186</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>451</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1168</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
-        <v>1181</v>
+        <v>449</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1188</v>
+        <v>450</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1195</v>
+        <v>451</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
-        <v>688</v>
+        <v>1181</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>689</v>
+        <v>1188</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>690</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>453</v>
+        <v>1189</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>454</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1201</v>
+        <v>689</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1218</v>
+        <v>690</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>1303</v>
+        <v>452</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1304</v>
+        <v>453</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1305</v>
+        <v>454</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>765</v>
+        <v>1201</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>766</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>1248</v>
+        <v>1303</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1249</v>
+        <v>1304</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1250</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
-        <v>1046</v>
+        <v>764</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1047</v>
+        <v>765</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1048</v>
+        <v>766</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>1294</v>
+        <v>1248</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1295</v>
+        <v>1249</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1296</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
-        <v>820</v>
+        <v>1046</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>821</v>
+        <v>1047</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>822</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>420</v>
+        <v>1294</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>421</v>
+        <v>1295</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>422</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
-        <v>1011</v>
+        <v>820</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1012</v>
+        <v>821</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1013</v>
+        <v>822</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>743</v>
+        <v>420</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>745</v>
+        <v>422</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
-        <v>901</v>
+        <v>1011</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>900</v>
+        <v>1012</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>902</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>903</v>
+        <v>743</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>904</v>
+        <v>744</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>905</v>
+        <v>745</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
-        <v>539</v>
+        <v>901</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>541</v>
+        <v>902</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>661</v>
+        <v>903</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>662</v>
+        <v>904</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>663</v>
+        <v>905</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>963</v>
+        <v>661</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>922</v>
+        <v>662</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>908</v>
+        <v>663</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>623</v>
+        <v>922</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>624</v>
+        <v>908</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
-        <v>892</v>
+        <v>835</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>893</v>
+        <v>836</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>967</v>
+        <v>685</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>916</v>
+        <v>686</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>969</v>
+        <v>687</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
-        <v>946</v>
+        <v>892</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D490" s="1" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>473</v>
+        <v>967</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>474</v>
+        <v>916</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>475</v>
+        <v>969</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
-        <v>566</v>
+        <v>946</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>567</v>
+        <v>947</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>568</v>
+        <v>948</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>767</v>
+        <v>473</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>769</v>
+        <v>475</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
-        <v>770</v>
+        <v>566</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
-        <v>877</v>
+        <v>770</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>878</v>
+        <v>771</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>879</v>
+        <v>353</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>1142</v>
+        <v>711</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1143</v>
+        <v>712</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1141</v>
+        <v>713</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>951</v>
+        <v>878</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>952</v>
+        <v>879</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>746</v>
+        <v>1142</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>747</v>
+        <v>1143</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>748</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
-        <v>1227</v>
+        <v>949</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1228</v>
+        <v>951</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1229</v>
+        <v>952</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>575</v>
+        <v>746</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
-        <v>823</v>
+        <v>1227</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>824</v>
+        <v>1228</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>825</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="s">
-        <v>1019</v>
+        <v>575</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1020</v>
+        <v>576</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1021</v>
+        <v>577</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="s">
-        <v>426</v>
+        <v>823</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>427</v>
+        <v>824</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="s">
-        <v>625</v>
+        <v>1019</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>626</v>
+        <v>1020</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>627</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
-        <v>928</v>
+        <v>625</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>929</v>
+        <v>626</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>930</v>
+        <v>627</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
-        <v>1263</v>
+        <v>417</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1264</v>
+        <v>418</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1265</v>
+        <v>419</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1" t="s">
-        <v>1239</v>
+        <v>928</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1242</v>
+        <v>929</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
-        <v>734</v>
+        <v>1263</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>735</v>
+        <v>1264</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>736</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1" t="s">
-        <v>737</v>
+        <v>1239</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>739</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1" t="s">
-        <v>1240</v>
+        <v>734</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1247</v>
+        <v>735</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1246</v>
+        <v>736</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1" t="s">
-        <v>1241</v>
+        <v>737</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1243</v>
+        <v>738</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1245</v>
+        <v>739</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1" t="s">
-        <v>740</v>
+        <v>1240</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>741</v>
+        <v>1247</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>742</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1" t="s">
-        <v>628</v>
+        <v>1241</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>629</v>
+        <v>1243</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>630</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D516" s="1" t="s">
+      <c r="D518" s="1" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A227:G444">
-    <sortCondition ref="A227"/>
+  <sortState ref="A228:G446">
+    <sortCondition ref="A228"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/conf/messages.xlsx
+++ b/conf/messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/github/FinePlay/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F94E41B-6F0B-8040-9704-D6D751F763B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6856538-5275-4F4A-8352-57B1502AFE44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="620" windowWidth="33460" windowHeight="21560" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1337">
   <si>
     <t>key</t>
   </si>
@@ -4630,6 +4630,33 @@
   </si>
   <si>
     <t>en-US</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入る</t>
+    <rPh sb="0" eb="1">
+      <t>ハイr</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5374,10 +5401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G518"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E322" sqref="E322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7882,2680 +7909,2702 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>862</v>
+        <v>1331</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>863</v>
+        <v>1332</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>864</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>564</v>
+        <v>863</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>565</v>
+        <v>864</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>1230</v>
+        <v>563</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1231</v>
+        <v>564</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1232</v>
+        <v>565</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>545</v>
+        <v>1230</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>546</v>
+        <v>1231</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>547</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>868</v>
+        <v>545</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>870</v>
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>1275</v>
+        <v>868</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1276</v>
+        <v>869</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1277</v>
+        <v>870</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>706</v>
+        <v>1275</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>707</v>
+        <v>1276</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>708</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>393</v>
+        <v>706</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>394</v>
+        <v>707</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>1183</v>
+        <v>458</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1190</v>
+        <v>459</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1197</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>817</v>
+        <v>1183</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>818</v>
+        <v>1190</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>819</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>1300</v>
+        <v>655</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1301</v>
+        <v>656</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1302</v>
+        <v>657</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>781</v>
+        <v>1300</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>782</v>
+        <v>1301</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>783</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>1206</v>
+        <v>697</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1207</v>
+        <v>698</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1208</v>
+        <v>699</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>467</v>
+        <v>1149</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>468</v>
+        <v>1148</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>779</v>
+        <v>468</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>578</v>
+        <v>1144</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>579</v>
+        <v>1145</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>580</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1015</v>
+        <v>534</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>1211</v>
+        <v>1014</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1210</v>
+        <v>1015</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1209</v>
+        <v>538</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>5</v>
+        <v>1210</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>478</v>
+        <v>221</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>668</v>
+        <v>477</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>669</v>
+        <v>478</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>508</v>
+        <v>669</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>851</v>
+        <v>507</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>852</v>
+        <v>508</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>643</v>
+        <v>850</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>644</v>
+        <v>851</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>788</v>
+        <v>643</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>789</v>
+        <v>644</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>790</v>
+        <v>645</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>1327</v>
+        <v>788</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1328</v>
+        <v>789</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1329</v>
+        <v>790</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>679</v>
+        <v>1327</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>680</v>
+        <v>1328</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>681</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>423</v>
+        <v>679</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>425</v>
+        <v>681</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>943</v>
+        <v>423</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>944</v>
+        <v>424</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>945</v>
+        <v>425</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>569</v>
+        <v>943</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>570</v>
+        <v>944</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>571</v>
+        <v>945</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>1031</v>
+        <v>521</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1032</v>
+        <v>522</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1033</v>
+        <v>523</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>491</v>
+        <v>1031</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>492</v>
+        <v>1032</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>493</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>772</v>
+        <v>491</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>773</v>
+        <v>493</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>461</v>
+        <v>772</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>463</v>
+        <v>773</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>793</v>
+        <v>608</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>581</v>
+        <v>1335</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>582</v>
+        <v>1334</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>583</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>1008</v>
+        <v>793</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1009</v>
+        <v>794</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1010</v>
+        <v>795</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>1284</v>
+        <v>581</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1285</v>
+        <v>582</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1286</v>
+        <v>583</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>802</v>
+        <v>1008</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>803</v>
+        <v>1009</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>804</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>1184</v>
+        <v>1284</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1191</v>
+        <v>1285</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1198</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>455</v>
+        <v>802</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>456</v>
+        <v>803</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>838</v>
+        <v>1184</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>839</v>
+        <v>1191</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>840</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>1037</v>
+        <v>455</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1038</v>
+        <v>456</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1039</v>
+        <v>457</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>714</v>
+        <v>838</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>717</v>
+        <v>1037</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>718</v>
+        <v>1038</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>719</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>614</v>
+        <v>714</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>584</v>
+        <v>717</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>585</v>
+        <v>718</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>755</v>
+        <v>584</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>756</v>
+        <v>585</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>757</v>
+        <v>586</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>890</v>
+        <v>611</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>891</v>
+        <v>612</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>682</v>
+        <v>890</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>684</v>
+        <v>891</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>1314</v>
+        <v>700</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1316</v>
+        <v>701</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1315</v>
+        <v>702</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>958</v>
+        <v>684</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>774</v>
+        <v>1314</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>775</v>
+        <v>1316</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>431</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>834</v>
+        <v>958</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>1203</v>
+        <v>774</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1204</v>
+        <v>775</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1205</v>
+        <v>431</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>637</v>
+        <v>832</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>639</v>
+        <v>834</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>551</v>
+        <v>1203</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>552</v>
+        <v>1204</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>553</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>955</v>
+        <v>637</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>956</v>
+        <v>638</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>957</v>
+        <v>639</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>1026</v>
+        <v>551</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1025</v>
+        <v>552</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1027</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>694</v>
+        <v>955</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>695</v>
+        <v>956</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>696</v>
+        <v>957</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>676</v>
+        <v>1026</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>677</v>
+        <v>1025</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>678</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>871</v>
+        <v>694</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>872</v>
+        <v>695</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>873</v>
+        <v>696</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>954</v>
+        <v>676</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>953</v>
+        <v>677</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>1005</v>
+        <v>871</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>950</v>
+        <v>873</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>882</v>
+        <v>954</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>883</v>
+        <v>953</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>856</v>
+        <v>1005</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>857</v>
+        <v>1006</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>858</v>
+        <v>950</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>572</v>
+        <v>880</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>574</v>
+        <v>881</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>574</v>
+        <v>754</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>981</v>
+        <v>776</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>912</v>
+        <v>777</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>975</v>
+        <v>574</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>980</v>
+        <v>509</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>913</v>
+        <v>510</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>974</v>
+        <v>511</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>759</v>
+        <v>982</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>760</v>
+        <v>910</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>761</v>
+        <v>977</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>885</v>
+        <v>911</v>
+      </c>
+      <c r="D365"